--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="I2" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.19</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R2" t="n">
         <v>1.52</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
         <v>24</v>
       </c>
-      <c r="Y2" t="n">
-        <v>26</v>
-      </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>21</v>
       </c>
-      <c r="AI2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20</v>
-      </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
         <v>1.81</v>
@@ -820,7 +820,7 @@
         <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -838,13 +838,13 @@
         <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
         <v>2.62</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>4.2</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>3.25</v>
@@ -1759,7 +1759,7 @@
         <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
         <v>2.84</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>3.25</v>
@@ -2389,7 +2389,7 @@
         <v>210</v>
       </c>
       <c r="AN14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="n">
         <v>65</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
         <v>1.72</v>
@@ -2965,16 +2965,16 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
@@ -3805,7 +3805,7 @@
         <v>2.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.77</v>
+        <v>1.24</v>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>4.6</v>
+        <v>1.17</v>
       </c>
       <c r="K27" t="n">
         <v>5.2</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H30" t="n">
         <v>2.1</v>
@@ -4462,7 +4462,7 @@
         <v>3.55</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
         <v>2.16</v>
       </c>
       <c r="I31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J31" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4726,7 +4726,7 @@
         <v>1.46</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q32" t="n">
         <v>2.02</v>
@@ -4885,10 +4885,10 @@
         <v>2.04</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R33" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S33" t="n">
         <v>3.25</v>
@@ -4957,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="AO33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -5128,7 +5128,7 @@
         <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I35" t="n">
         <v>1.29</v>
@@ -5137,7 +5137,7 @@
         <v>5.9</v>
       </c>
       <c r="K35" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
-        <v>1.4</v>
+        <v>2.42</v>
       </c>
       <c r="I37" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="J37" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G38" t="n">
         <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.35</v>
@@ -5800,7 +5800,7 @@
         <v>1.92</v>
       </c>
       <c r="G40" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
         <v>4.1</v>
@@ -5830,7 +5830,7 @@
         <v>2.46</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5941,13 +5941,13 @@
         <v>22</v>
       </c>
       <c r="I41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J41" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5965,19 +5965,19 @@
         <v>5.2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="S41" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="T41" t="n">
         <v>1.85</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -6772,10 +6772,10 @@
         <v>1.26</v>
       </c>
       <c r="P47" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R47" t="n">
         <v>1.43</v>
@@ -6814,7 +6814,7 @@
         <v>9.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE47" t="n">
         <v>23</v>
@@ -6835,7 +6835,7 @@
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
@@ -6910,7 +6910,7 @@
         <v>1.57</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R48" t="n">
         <v>1.21</v>
@@ -6937,7 +6937,7 @@
         <v>7.8</v>
       </c>
       <c r="Z48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
         <v>38</v>
@@ -7036,7 +7036,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O49" t="n">
         <v>1.39</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="G50" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="I50" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J50" t="n">
         <v>3.25</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K50" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7435,25 +7435,25 @@
         <v>12</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O52" t="n">
         <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q52" t="n">
         <v>1.47</v>
       </c>
       <c r="R52" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S52" t="n">
         <v>2.18</v>
@@ -7462,7 +7462,7 @@
         <v>2.8</v>
       </c>
       <c r="U52" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V52" t="n">
         <v>1.02</v>
@@ -7471,7 +7471,7 @@
         <v>7.4</v>
       </c>
       <c r="X52" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
         <v>110</v>
@@ -7486,7 +7486,7 @@
         <v>10.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AD52" t="n">
         <v>160</v>
@@ -7777,7 +7777,7 @@
         <v>90</v>
       </c>
       <c r="AJ54" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK54" t="n">
         <v>21</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.4</v>
@@ -688,37 +688,37 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,34 +727,34 @@
         <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -766,13 +766,13 @@
         <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>610</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
         <v>1.81</v>
@@ -814,7 +814,7 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -835,25 +835,25 @@
         <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.24</v>
+        <v>1.62</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
         <v>1.56</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I11" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.87</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G14" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2317,13 +2317,13 @@
         <v>1.56</v>
       </c>
       <c r="P14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S14" t="n">
         <v>5.6</v>
@@ -2344,55 +2344,55 @@
         <v>8.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
         <v>6.8</v>
       </c>
       <c r="AD14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2428,13 +2428,13 @@
         <v>1.78</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>6.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
         <v>1.72</v>
@@ -2833,7 +2833,7 @@
         <v>1.96</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
         <v>5.3</v>
@@ -2842,7 +2842,7 @@
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2884,13 +2884,13 @@
         <v>9.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>6.6</v>
@@ -2899,10 +2899,10 @@
         <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="n">
         <v>10</v>
@@ -2914,25 +2914,25 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>22</v>
       </c>
       <c r="AO18" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2965,16 +2965,16 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
         <v>3.4</v>
@@ -2995,7 +2995,7 @@
         <v>1.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G20" t="n">
         <v>3.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3775,10 +3775,10 @@
         <v>2.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
         <v>3.45</v>
@@ -3787,7 +3787,7 @@
         <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.18</v>
+        <v>1.15</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
         <v>1.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4048,13 +4048,13 @@
         <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="K27" t="n">
         <v>5.2</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>1.73</v>
+        <v>980</v>
       </c>
       <c r="H29" t="n">
         <v>6.4</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4342,13 +4342,13 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
         <v>1.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
         <v>3</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="I30" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q30" t="n">
         <v>2.12</v>
@@ -4501,58 +4501,58 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
         <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
         <v>2.16</v>
       </c>
       <c r="I31" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.65</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J32" t="n">
         <v>4.3</v>
       </c>
       <c r="K32" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q32" t="n">
         <v>2.02</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J33" t="n">
         <v>3.8</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>4.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
         <v>1.41</v>
@@ -4894,7 +4894,7 @@
         <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
         <v>2.18</v>
@@ -4915,7 +4915,7 @@
         <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB33" t="n">
         <v>10</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G35" t="n">
         <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
         <v>1.29</v>
@@ -5137,7 +5137,7 @@
         <v>5.9</v>
       </c>
       <c r="K35" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.5</v>
       </c>
       <c r="J36" t="n">
         <v>3.45</v>
@@ -5296,7 +5296,7 @@
         <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T36" t="n">
         <v>1.87</v>
@@ -5311,13 +5311,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA36" t="n">
         <v>36</v>
@@ -5344,25 +5344,25 @@
         <v>18.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
         <v>40</v>
       </c>
       <c r="AL36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I37" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="J37" t="n">
         <v>3.3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G38" t="n">
         <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>1.38</v>
       </c>
       <c r="I38" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="I39" t="n">
         <v>980</v>
@@ -5677,7 +5677,7 @@
         <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
         <v>4.5</v>
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5968,16 +5968,16 @@
         <v>1.2</v>
       </c>
       <c r="R41" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="S41" t="n">
         <v>1.54</v>
       </c>
       <c r="T41" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,13 +5986,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y41" t="n">
         <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
@@ -6001,7 +6001,7 @@
         <v>24</v>
       </c>
       <c r="AC41" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD41" t="n">
         <v>990</v>
@@ -6016,7 +6016,7 @@
         <v>16.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI41" t="n">
         <v>1000</v>
@@ -6766,25 +6766,25 @@
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="O47" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="R47" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="S47" t="n">
-        <v>2.96</v>
+        <v>2.58</v>
       </c>
       <c r="T47" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U47" t="n">
         <v>2.18</v>
@@ -6799,43 +6799,43 @@
         <v>18</v>
       </c>
       <c r="Y47" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA47" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AD47" t="n">
         <v>10.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH47" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ47" t="n">
         <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
         <v>1000</v>
@@ -6847,7 +6847,7 @@
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G48" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="J48" t="n">
         <v>3.1</v>
@@ -6907,22 +6907,22 @@
         <v>1.55</v>
       </c>
       <c r="P48" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q48" t="n">
         <v>2.66</v>
       </c>
       <c r="R48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
         <v>2.16</v>
       </c>
       <c r="U48" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6937,52 +6937,52 @@
         <v>7.8</v>
       </c>
       <c r="Z48" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
         <v>7</v>
       </c>
       <c r="AD48" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7012,112 +7012,112 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6.4</v>
+        <v>1.29</v>
       </c>
       <c r="G49" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="I49" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="J49" t="n">
-        <v>3.6</v>
+        <v>1.15</v>
       </c>
       <c r="K49" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="O49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S49" t="n">
         <v>1.39</v>
       </c>
-      <c r="P49" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
       <c r="T49" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="W49" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="X49" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="H50" t="n">
-        <v>2.5</v>
+        <v>1.37</v>
       </c>
       <c r="I50" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="K50" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.84</v>
+        <v>1.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="G51" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J51" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K51" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7423,58 +7423,58 @@
         <v>1.16</v>
       </c>
       <c r="H52" t="n">
-        <v>28</v>
+        <v>7.2</v>
       </c>
       <c r="I52" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="J52" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K52" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="L52" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>5.9</v>
+        <v>1.02</v>
       </c>
       <c r="O52" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.47</v>
       </c>
-      <c r="R52" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.18</v>
-      </c>
       <c r="T52" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W52" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
         <v>1000</v>
@@ -7483,43 +7483,43 @@
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
         <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
         <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
         <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G54" t="n">
         <v>1.8</v>
       </c>
-      <c r="G54" t="n">
-        <v>1.81</v>
-      </c>
       <c r="H54" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I54" t="n">
         <v>5.7</v>
@@ -7714,19 +7714,19 @@
         <v>3.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P54" t="n">
         <v>1.84</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R54" t="n">
         <v>1.32</v>
       </c>
       <c r="S54" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T54" t="n">
         <v>2.02</v>
@@ -7741,58 +7741,58 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD54" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
         <v>9.6</v>
       </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
         <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,28 +691,28 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.26</v>
@@ -754,7 +754,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>610</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>42</v>
@@ -820,7 +820,7 @@
         <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -862,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
         <v>110</v>
@@ -871,7 +871,7 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="G4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="M4" t="n">
         <v>1.01</v>
       </c>
-      <c r="I4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>1.24</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,34 +1072,34 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.62</v>
+        <v>4.4</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.62</v>
+        <v>2.48</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
         <v>1.15</v>
@@ -1108,76 +1108,76 @@
         <v>1.01</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
         <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1225,94 +1225,94 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1351,109 +1351,109 @@
         <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>27</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
         <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Muangthong Utd</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ayutthaya United</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.87</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.65</v>
-      </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Muangthong Utd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Ayutthaya United</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.01</v>
       </c>
-      <c r="K9" t="n">
-        <v>980</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1759,10 +1759,10 @@
         <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,61 +1873,61 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rayong FC</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>2.96</v>
       </c>
       <c r="H11" t="n">
-        <v>1.92</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P11" t="n">
-        <v>1.87</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>2.76</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2008,12 +2008,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2143,12 +2143,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="G15" t="n">
-        <v>1.78</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H16" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,28 +2818,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>3.15</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2848,31 +2848,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,31 +2953,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="I19" t="n">
         <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>1.97</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3358,12 +3358,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3628,12 +3628,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,31 +3763,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
         <v>1.01</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.46</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.24</v>
+        <v>8.6</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>1.53</v>
       </c>
       <c r="J27" t="n">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.02</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,36 +4163,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>980</v>
+        <v>3.75</v>
       </c>
       <c r="H29" t="n">
-        <v>6.4</v>
+        <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>980</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.32</v>
+        <v>1.86</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4453,7 +4453,7 @@
         <v>4.4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I30" t="n">
         <v>2.08</v>
@@ -4462,7 +4462,7 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
         <v>2.12</v>
@@ -4489,7 +4489,7 @@
         <v>3.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U30" t="n">
         <v>2.06</v>
@@ -4501,19 +4501,19 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
         <v>7.8</v>
@@ -4522,43 +4522,43 @@
         <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.45</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>1.73</v>
       </c>
       <c r="H31" t="n">
-        <v>2.16</v>
+        <v>6.4</v>
       </c>
       <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W31" t="n">
         <v>2.38</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,66 +4703,66 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.6</v>
+        <v>1.97</v>
       </c>
       <c r="G32" t="n">
-        <v>9.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.52</v>
+        <v>4.4</v>
       </c>
       <c r="J32" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,64 +4771,64 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,66 +4838,66 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>1.74</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>1.93</v>
       </c>
       <c r="I33" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,58 +4906,58 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.72</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>1.93</v>
+        <v>1.23</v>
       </c>
       <c r="I34" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,66 +5108,66 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>2.46</v>
       </c>
       <c r="I35" t="n">
-        <v>1.29</v>
+        <v>2.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5.9</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5176,64 +5176,64 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,61 +5248,61 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.3</v>
       </c>
-      <c r="G36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K36" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,58 +5311,58 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5383,31 +5383,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.96</v>
+        <v>2.02</v>
       </c>
       <c r="G37" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.48</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>2.78</v>
+        <v>980</v>
       </c>
       <c r="J37" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>3.35</v>
       </c>
       <c r="H38" t="n">
-        <v>1.38</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>980</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.01</v>
       </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.01</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.41</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>1.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H40" t="n">
         <v>4.3</v>
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,66 +5918,66 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.14</v>
+        <v>4.1</v>
       </c>
       <c r="G41" t="n">
-        <v>1.15</v>
+        <v>6.4</v>
       </c>
       <c r="H41" t="n">
-        <v>22</v>
+        <v>1.85</v>
       </c>
       <c r="I41" t="n">
-        <v>24</v>
+        <v>2.3</v>
       </c>
       <c r="J41" t="n">
-        <v>11.5</v>
+        <v>2.82</v>
       </c>
       <c r="K41" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>5.2</v>
+        <v>1.52</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.2</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -5986,64 +5986,64 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH41" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AL41" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,61 +6058,61 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P42" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6121,58 +6121,58 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="43">
@@ -6193,12 +6193,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6328,12 +6328,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6463,12 +6463,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -6598,12 +6598,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q46" t="n">
         <v>1.01</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,61 +6733,61 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4.9</v>
+        <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>5.1</v>
+        <v>1.15</v>
       </c>
       <c r="H47" t="n">
-        <v>1.8</v>
+        <v>22</v>
       </c>
       <c r="I47" t="n">
-        <v>1.82</v>
+        <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>2.06</v>
+        <v>14</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="P47" t="n">
-        <v>2.06</v>
+        <v>5.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="R47" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="S47" t="n">
-        <v>2.58</v>
+        <v>1.54</v>
       </c>
       <c r="T47" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6796,55 +6796,55 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>18</v>
+        <v>990</v>
       </c>
       <c r="Y47" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC47" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AD47" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM47" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,66 +6863,66 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -6931,64 +6931,64 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.29</v>
+        <v>3.65</v>
       </c>
       <c r="G49" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="H49" t="n">
-        <v>1.47</v>
+        <v>2.42</v>
       </c>
       <c r="I49" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="J49" t="n">
-        <v>1.15</v>
+        <v>3.1</v>
       </c>
       <c r="K49" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>1.02</v>
+        <v>2.76</v>
       </c>
       <c r="O49" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="P49" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.12</v>
+        <v>2.64</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S49" t="n">
-        <v>1.39</v>
+        <v>5.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V49" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,127 +7138,127 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.52</v>
+        <v>5.9</v>
       </c>
       <c r="G50" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="I50" t="n">
-        <v>3.25</v>
+        <v>1.77</v>
       </c>
       <c r="J50" t="n">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="K50" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P50" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.4</v>
+        <v>2.76</v>
       </c>
       <c r="G51" t="n">
-        <v>1.66</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I51" t="n">
-        <v>36</v>
+        <v>2.86</v>
       </c>
       <c r="J51" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="G52" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I52" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>4.3</v>
       </c>
       <c r="K52" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.14</v>
+        <v>1.96</v>
       </c>
       <c r="R52" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,17 +7538,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -7663,136 +7663,406 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Greek Super League</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>40</v>
+      </c>
+      <c r="J54" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K54" t="n">
+        <v>11</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X54" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>460</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ASD Pineto Calcio</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>FC Guidonia Montecelio 1937</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Italian Serie A</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Inter</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="F56" t="n">
         <v>1.8</v>
       </c>
-      <c r="H54" t="n">
+      <c r="G56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.6</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I56" t="n">
         <v>5.7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J56" t="n">
         <v>3.75</v>
       </c>
-      <c r="K54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
+      <c r="K56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
         <v>1.09</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N56" t="n">
         <v>3.5</v>
       </c>
-      <c r="O54" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P54" t="n">
+      <c r="O56" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P56" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q54" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R54" t="n">
+      <c r="Q56" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R56" t="n">
         <v>1.32</v>
       </c>
-      <c r="S54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T54" t="n">
+      <c r="S56" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T56" t="n">
         <v>2.02</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U56" t="n">
         <v>1.92</v>
       </c>
-      <c r="V54" t="n">
-        <v>0</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="n">
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN56" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>1000</v>
+      <c r="AO56" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
         <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -694,64 +694,64 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.5</v>
       </c>
-      <c r="S2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
         <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
         <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="n">
         <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -763,16 +763,16 @@
         <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
         <v>1.74</v>
@@ -847,7 +847,7 @@
         <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -1075,16 +1075,16 @@
         <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
         <v>5.4</v>
@@ -1111,7 +1111,7 @@
         <v>1.05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1123,7 +1123,7 @@
         <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
         <v>32</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="n">
         <v>970</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1228,13 +1228,13 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.96</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>1.96</v>
@@ -1243,16 +1243,16 @@
         <v>1.84</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.54</v>
@@ -1264,46 +1264,46 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" t="n">
         <v>1.12</v>
@@ -1372,7 +1372,7 @@
         <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.18</v>
@@ -1381,13 +1381,13 @@
         <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
         <v>2.58</v>
       </c>
       <c r="U7" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G8" t="n">
         <v>5.1</v>
@@ -1489,7 +1489,7 @@
         <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>6.4</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1528,7 +1528,7 @@
         <v>1.72</v>
       </c>
       <c r="W8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
         <v>2.08</v>
@@ -1633,10 +1633,10 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.17</v>
@@ -1648,19 +1648,19 @@
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
         <v>1.92</v>
@@ -1750,31 +1750,31 @@
         <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
         <v>2.26</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
         <v>2.58</v>
@@ -1783,76 +1783,76 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1900,7 +1900,7 @@
         <v>3.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -1909,13 +1909,13 @@
         <v>2.72</v>
       </c>
       <c r="O11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P11" t="n">
         <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="R11" t="n">
         <v>1.19</v>
@@ -1924,46 +1924,46 @@
         <v>5.6</v>
       </c>
       <c r="T11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
         <v>8.4</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
         <v>6.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
@@ -1972,7 +1972,7 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
         <v>44</v>
@@ -1981,7 +1981,7 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
         <v>55</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,34 +2287,34 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G14" t="n">
         <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
         <v>1.24</v>
@@ -2323,76 +2323,76 @@
         <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I15" t="n">
         <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
         <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
         <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2569,22 +2569,22 @@
         <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>2.1</v>
@@ -2593,76 +2593,76 @@
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
         <v>5.3</v>
@@ -2707,10 +2707,10 @@
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
@@ -2725,7 +2725,7 @@
         <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2740,22 +2740,22 @@
         <v>1.76</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X17" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
         <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
         <v>6.6</v>
@@ -2764,40 +2764,40 @@
         <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
         <v>2.7</v>
@@ -2845,94 +2845,94 @@
         <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
         <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2965,13 +2965,13 @@
         <v>2.54</v>
       </c>
       <c r="G19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H19" t="n">
         <v>2.56</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -2980,16 +2980,16 @@
         <v>4.8</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
         <v>1.66</v>
@@ -2998,76 +2998,76 @@
         <v>1.95</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3367,112 +3367,112 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
         <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
         <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,34 +3772,34 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
         <v>1.24</v>
@@ -3808,76 +3808,76 @@
         <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3940,7 +3940,7 @@
         <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
         <v>3.75</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J29" t="n">
         <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4450,19 +4450,19 @@
         <v>4.2</v>
       </c>
       <c r="G30" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4507,10 +4507,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB30" t="n">
         <v>14.5</v>
@@ -4525,10 +4525,10 @@
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
         <v>19</v>
@@ -4537,10 +4537,10 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4552,7 +4552,7 @@
         <v>65</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="31">
@@ -4747,7 +4747,7 @@
         <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
         <v>1.89</v>
@@ -4762,7 +4762,7 @@
         <v>1.78</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5164,7 +5164,7 @@
         <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U35" t="n">
         <v>2.08</v>
@@ -5179,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z35" t="n">
         <v>15.5</v>
@@ -5209,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
         <v>60</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="G37" t="n">
         <v>2.3</v>
@@ -5401,13 +5401,13 @@
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G40" t="n">
         <v>1.93</v>
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q40" t="n">
         <v>1.51</v>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G41" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H41" t="n">
         <v>1.85</v>
@@ -6082,7 +6082,7 @@
         <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -6745,7 +6745,7 @@
         <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H47" t="n">
         <v>22</v>
@@ -6754,10 +6754,10 @@
         <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>2.7</v>
       </c>
       <c r="S47" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T47" t="n">
         <v>1.85</v>
@@ -6796,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -6811,22 +6811,22 @@
         <v>25</v>
       </c>
       <c r="AC47" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD47" t="n">
         <v>85</v>
       </c>
       <c r="AE47" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AF47" t="n">
         <v>14</v>
       </c>
       <c r="AG47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH47" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6835,7 +6835,7 @@
         <v>10.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL47" t="n">
         <v>36</v>
@@ -7012,10 +7012,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G49" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>2.42</v>
@@ -7042,7 +7042,7 @@
         <v>1.55</v>
       </c>
       <c r="P49" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q49" t="n">
         <v>2.64</v>
@@ -7156,7 +7156,7 @@
         <v>1.66</v>
       </c>
       <c r="I50" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J50" t="n">
         <v>3.55</v>
@@ -7198,7 +7198,7 @@
         <v>2.3</v>
       </c>
       <c r="W50" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X50" t="n">
         <v>14.5</v>
@@ -7207,7 +7207,7 @@
         <v>7.4</v>
       </c>
       <c r="Z50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA50" t="n">
         <v>22</v>
@@ -7285,7 +7285,7 @@
         <v>2.76</v>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>2.5</v>
@@ -7687,16 +7687,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G54" t="n">
         <v>1.16</v>
       </c>
       <c r="H54" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="I54" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J54" t="n">
         <v>9.199999999999999</v>
@@ -7717,22 +7717,22 @@
         <v>1.16</v>
       </c>
       <c r="P54" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R54" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S54" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T54" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="U54" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V54" t="n">
         <v>1.02</v>
@@ -7744,10 +7744,10 @@
         <v>980</v>
       </c>
       <c r="Y54" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Z54" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
@@ -7756,7 +7756,7 @@
         <v>12.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD54" t="n">
         <v>130</v>
@@ -7777,16 +7777,16 @@
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK54" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL54" t="n">
         <v>75</v>
       </c>
       <c r="AM54" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
         <v>3.75</v>
@@ -7999,10 +7999,10 @@
         <v>3.95</v>
       </c>
       <c r="T56" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G2" t="n">
         <v>1.86</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -694,28 +694,28 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.44</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
         <v>2.16</v>
@@ -727,19 +727,19 @@
         <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>46</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>55</v>
@@ -751,13 +751,13 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -766,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>48</v>
@@ -1075,19 +1075,19 @@
         <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,19 +1120,19 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="n">
-        <v>990</v>
+        <v>340</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,40 +1141,40 @@
         <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="n">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>360</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>920</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,13 +1210,13 @@
         <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1246,73 +1246,73 @@
         <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>55</v>
       </c>
-      <c r="AB6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>65</v>
-      </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1483,7 +1483,7 @@
         <v>5.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I8" t="n">
         <v>2.4</v>
@@ -1648,7 +1648,7 @@
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="n">
         <v>2.18</v>
@@ -1771,10 +1771,10 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.58</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
         <v>2.58</v>
@@ -1783,16 +1783,16 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="T10" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="V10" t="n">
         <v>1.76</v>
@@ -1801,58 +1801,58 @@
         <v>1.43</v>
       </c>
       <c r="X10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.15</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1906,10 +1906,10 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P11" t="n">
         <v>1.54</v>
@@ -1921,7 +1921,7 @@
         <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="T11" t="n">
         <v>2.18</v>
@@ -1930,10 +1930,10 @@
         <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X11" t="n">
         <v>8.199999999999999</v>
@@ -1942,7 +1942,7 @@
         <v>8.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>55</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
         <v>1.78</v>
@@ -2593,7 +2593,7 @@
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
         <v>2.72</v>
@@ -2602,7 +2602,7 @@
         <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
         <v>5.3</v>
@@ -2710,19 +2710,19 @@
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O17" t="n">
         <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
         <v>2.54</v>
@@ -2746,7 +2746,7 @@
         <v>2.02</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y17" t="n">
         <v>13.5</v>
@@ -2785,13 +2785,13 @@
         <v>22</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
         <v>21</v>
@@ -2842,52 +2842,52 @@
         <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O18" t="n">
         <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q18" t="n">
         <v>2.34</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S18" t="n">
         <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
         <v>1.4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA18" t="n">
         <v>80</v>
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>80</v>
@@ -2971,7 +2971,7 @@
         <v>2.56</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.15</v>
@@ -3001,7 +3001,7 @@
         <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3010,7 +3010,7 @@
         <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
         <v>1.42</v>
@@ -3103,7 +3103,7 @@
         <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="I20" t="n">
         <v>1.97</v>
@@ -3112,19 +3112,19 @@
         <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
         <v>2.46</v>
@@ -3133,76 +3133,76 @@
         <v>1.59</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3250,16 +3250,16 @@
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
         <v>2.18</v>
@@ -3268,76 +3268,76 @@
         <v>1.68</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G22" t="n">
         <v>4.2</v>
@@ -3376,13 +3376,13 @@
         <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
         <v>2.68</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.39</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
         <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="J23" t="n">
-        <v>1.09</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.56</v>
+        <v>1.53</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.33</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,7 +3550,7 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="W23" t="n">
         <v>1.78</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G24" t="n">
         <v>2.24</v>
@@ -3646,13 +3646,13 @@
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.58</v>
+        <v>1.54</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.33</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,7 +3685,7 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
         <v>1.8</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,22 +3796,22 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>1.3</v>
+        <v>2.02</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="W25" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3940,7 +3940,7 @@
         <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>1.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J27" t="n">
         <v>4.3</v>
@@ -4060,16 +4060,16 @@
         <v>4.7</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
         <v>1.9</v>
@@ -4078,82 +4078,82 @@
         <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>2.28</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.64</v>
+        <v>1.98</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.45</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>1.49</v>
       </c>
       <c r="G30" t="n">
-        <v>4.3</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>2.08</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>1.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="T30" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.49</v>
+        <v>4.1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.73</v>
+        <v>4.3</v>
       </c>
       <c r="H31" t="n">
-        <v>6.4</v>
+        <v>2.08</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
-        <v>5.3</v>
+        <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>1.29</v>
+        <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.32</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>2.38</v>
+        <v>1.31</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -4735,7 +4735,7 @@
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
         <v>1.06</v>
@@ -4747,10 +4747,10 @@
         <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
         <v>1.42</v>
@@ -4765,64 +4765,64 @@
         <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
         <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC32" t="n">
         <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
         <v>50</v>
       </c>
       <c r="AF32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -4858,28 +4858,28 @@
         <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>1.93</v>
+        <v>3.7</v>
       </c>
       <c r="I33" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
         <v>1.79</v>
@@ -4888,76 +4888,76 @@
         <v>1.77</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -5125,13 +5125,13 @@
         <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
         <v>2.44</v>
       </c>
       <c r="I35" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5140,7 +5140,7 @@
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5155,7 +5155,7 @@
         <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
         <v>1.31</v>
@@ -5170,22 +5170,22 @@
         <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
         <v>9.6</v>
       </c>
       <c r="Z35" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
@@ -5194,13 +5194,13 @@
         <v>7.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>14</v>
@@ -5209,7 +5209,7 @@
         <v>18</v>
       </c>
       <c r="AI35" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ35" t="n">
         <v>60</v>
@@ -5221,13 +5221,13 @@
         <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -5266,7 +5266,7 @@
         <v>2.48</v>
       </c>
       <c r="I36" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
@@ -5275,16 +5275,16 @@
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
         <v>1.92</v>
@@ -5293,76 +5293,76 @@
         <v>1.96</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P37" t="n">
         <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5536,16 +5536,16 @@
         <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
@@ -5599,10 +5599,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD38" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE38" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF38" t="n">
         <v>22</v>
@@ -5611,10 +5611,10 @@
         <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
         <v>55</v>
@@ -5632,13 +5632,13 @@
         <v>44</v>
       </c>
       <c r="AO38" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.84</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="K40" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>2.4</v>
+        <v>1.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.3</v>
       </c>
-      <c r="G41" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.85</v>
-      </c>
       <c r="I41" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.52</v>
+        <v>2.46</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,66 +6053,66 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G42" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="I42" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.79</v>
+        <v>2.26</v>
       </c>
       <c r="R42" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -6121,58 +6121,58 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6193,12 +6193,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -6328,12 +6328,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,61 +6463,61 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P45" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -6526,58 +6526,58 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="46">
@@ -6598,12 +6598,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -6748,7 +6748,7 @@
         <v>1.14</v>
       </c>
       <c r="H47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I47" t="n">
         <v>26</v>
@@ -6757,7 +6757,7 @@
         <v>13</v>
       </c>
       <c r="K47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6778,16 +6778,16 @@
         <v>1.21</v>
       </c>
       <c r="R47" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="S47" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U47" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -6802,37 +6802,37 @@
         <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC47" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AD47" t="n">
         <v>85</v>
       </c>
       <c r="AE47" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG47" t="n">
         <v>16</v>
       </c>
       <c r="AH47" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK47" t="n">
         <v>14</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6868,12 +6868,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,66 +6998,66 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.64</v>
+        <v>1.01</v>
       </c>
       <c r="R49" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -7066,64 +7066,64 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="G50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC50" t="n">
         <v>7</v>
       </c>
-      <c r="H50" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S50" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W50" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE50" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AF50" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AG50" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
         <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AL50" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AM50" t="n">
         <v>210</v>
       </c>
       <c r="AN50" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.76</v>
+        <v>5.8</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="H51" t="n">
-        <v>2.5</v>
+        <v>1.68</v>
       </c>
       <c r="I51" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="J51" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="K51" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P51" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,36 +7403,36 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Pumas UNAM</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.48</v>
+        <v>2.76</v>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>3.2</v>
       </c>
       <c r="H52" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I52" t="n">
-        <v>11.5</v>
+        <v>2.86</v>
       </c>
       <c r="J52" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Pumas UNAM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="G54" t="n">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="H54" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>9.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>4.9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.47</v>
+        <v>1.96</v>
       </c>
       <c r="R54" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK54" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AL54" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,36 +7808,36 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -7852,10 +7852,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -7933,135 +7933,405 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Greek Super League</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Panathinaikos</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23</v>
+      </c>
+      <c r="I56" t="n">
+        <v>42</v>
+      </c>
+      <c r="J56" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W56" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>410</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ASD Pineto Calcio</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>FC Guidonia Montecelio 1937</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Italian Serie A</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Inter</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F58" t="n">
         <v>1.8</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G58" t="n">
         <v>1.81</v>
       </c>
-      <c r="H56" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="H58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I58" t="n">
         <v>5.7</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J58" t="n">
         <v>3.75</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K58" t="n">
         <v>3.8</v>
       </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
         <v>1.09</v>
       </c>
-      <c r="N56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R56" t="n">
+      <c r="N58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R58" t="n">
         <v>1.32</v>
       </c>
-      <c r="S56" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-      <c r="X56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y56" t="n">
+      <c r="S58" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y58" t="n">
         <v>17</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="Z58" t="n">
         <v>44</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AA58" t="n">
         <v>200</v>
       </c>
-      <c r="AB56" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD56" t="n">
+      <c r="AB58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH58" t="n">
         <v>22</v>
       </c>
-      <c r="AE56" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI56" t="n">
+      <c r="AI58" t="n">
         <v>110</v>
       </c>
-      <c r="AJ56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN56" t="n">
+      <c r="AJ58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN58" t="n">
         <v>13.5</v>
       </c>
-      <c r="AO56" t="n">
+      <c r="AO58" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -691,34 +691,34 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="R2" t="n">
         <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -727,37 +727,37 @@
         <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -769,10 +769,10 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q3" t="n">
         <v>1.49</v>
@@ -844,10 +844,10 @@
         <v>2.22</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -871,7 +871,7 @@
         <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO3" t="n">
         <v>34</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
         <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>55</v>
@@ -1087,7 +1087,7 @@
         <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,10 +1120,10 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
         <v>50</v>
@@ -1252,7 +1252,7 @@
         <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
         <v>1.55</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
         <v>25</v>
@@ -1300,7 +1300,7 @@
         <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
         <v>50</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G9" t="n">
         <v>2.08</v>
@@ -1624,7 +1624,7 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1648,10 +1648,10 @@
         <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T9" t="n">
         <v>1.56</v>
@@ -1666,52 +1666,52 @@
         <v>1.92</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA9" t="n">
         <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1783,10 +1783,10 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T10" t="n">
         <v>1.53</v>
@@ -1801,13 +1801,13 @@
         <v>1.43</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
         <v>29</v>
@@ -1819,19 +1819,19 @@
         <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
         <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
@@ -1843,16 +1843,16 @@
         <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
         <v>970</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>1.58</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
         <v>2.78</v>
@@ -1930,10 +1930,10 @@
         <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X11" t="n">
         <v>8.199999999999999</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="G13" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S13" t="n">
-        <v>2.72</v>
+        <v>1.99</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
         <v>1.78</v>
@@ -2569,7 +2569,7 @@
         <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2593,16 +2593,16 @@
         <v>1.72</v>
       </c>
       <c r="R16" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="T16" t="n">
-        <v>1.53</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2611,58 +2611,58 @@
         <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I17" t="n">
         <v>5.3</v>
@@ -2707,22 +2707,22 @@
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M17" t="n">
         <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
         <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
         <v>2.54</v>
@@ -2731,13 +2731,13 @@
         <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T17" t="n">
         <v>2.24</v>
       </c>
       <c r="U17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
         <v>1.23</v>
@@ -2758,7 +2758,7 @@
         <v>150</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC17" t="n">
         <v>7.6</v>
@@ -2767,7 +2767,7 @@
         <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="n">
         <v>9.800000000000001</v>
@@ -2776,7 +2776,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
         <v>110</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="I18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>3.2</v>
@@ -2848,88 +2848,88 @@
         <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.9</v>
+        <v>1.53</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="S18" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.61</v>
       </c>
       <c r="V18" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W18" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB18" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>70</v>
@@ -3103,16 +3103,16 @@
         <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="I20" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.28</v>
@@ -3142,13 +3142,13 @@
         <v>1.59</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X20" t="n">
         <v>24</v>
@@ -3187,7 +3187,7 @@
         <v>28</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="n">
         <v>44</v>
@@ -3196,7 +3196,7 @@
         <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN20" t="n">
         <v>34</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
         <v>2.32</v>
@@ -3244,7 +3244,7 @@
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
@@ -3277,13 +3277,13 @@
         <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V21" t="n">
         <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X21" t="n">
         <v>24</v>
@@ -3295,13 +3295,13 @@
         <v>27</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>18</v>
@@ -3316,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
         <v>42</v>
@@ -3331,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
         <v>16.5</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="n">
         <v>2.14</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="W22" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -3535,13 +3535,13 @@
         <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3553,7 +3553,7 @@
         <v>1.18</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3688,7 +3688,7 @@
         <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
         <v>3.45</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3805,13 +3805,13 @@
         <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4066,10 +4066,10 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
         <v>1.9</v>
@@ -4084,10 +4084,10 @@
         <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="V27" t="n">
         <v>2.9</v>
@@ -4096,7 +4096,7 @@
         <v>1.11</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>7.4</v>
@@ -4108,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="AB27" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
         <v>11</v>
@@ -4120,16 +4120,16 @@
         <v>17.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG27" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="n">
         <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
         <v>420</v>
@@ -4144,7 +4144,7 @@
         <v>240</v>
       </c>
       <c r="AN27" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AO27" t="n">
         <v>9.800000000000001</v>
@@ -4180,25 +4180,25 @@
         <v>3.55</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H28" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I28" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>3.85</v>
@@ -4216,7 +4216,7 @@
         <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
         <v>1.72</v>
@@ -4225,10 +4225,10 @@
         <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X28" t="n">
         <v>16</v>
@@ -4240,13 +4240,13 @@
         <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
         <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
         <v>11.5</v>
@@ -4348,16 +4348,16 @@
         <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
         <v>1.45</v>
@@ -4462,7 +4462,7 @@
         <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.4</v>
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G31" t="n">
         <v>4.3</v>
       </c>
       <c r="H31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.1</v>
       </c>
       <c r="J31" t="n">
         <v>3.55</v>
@@ -4600,7 +4600,7 @@
         <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4630,10 +4630,10 @@
         <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4672,7 +4672,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK31" t="n">
         <v>55</v>
@@ -5005,94 +5005,94 @@
         <v>7.2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="I35" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5170,19 +5170,19 @@
         <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA35" t="n">
         <v>34</v>
@@ -5200,7 +5200,7 @@
         <v>28</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
         <v>14</v>
@@ -5224,7 +5224,7 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO35" t="n">
         <v>24</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="I36" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.3</v>
@@ -5278,13 +5278,13 @@
         <v>1.4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>1.92</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
         <v>1.92</v>
@@ -5293,76 +5293,76 @@
         <v>1.96</v>
       </c>
       <c r="R36" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="W36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X36" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Z36" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AA36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL36" t="n">
         <v>50</v>
       </c>
-      <c r="AB36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AM36" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO36" t="n">
         <v>24</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G37" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K37" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.46</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S37" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X37" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>32</v>
       </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>34</v>
-      </c>
       <c r="AK37" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL37" t="n">
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5530,109 +5530,109 @@
         <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.02</v>
+        <v>2.68</v>
       </c>
       <c r="O38" t="n">
         <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="S38" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA38" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>46</v>
       </c>
-      <c r="AF38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ38" t="n">
+      <c r="AK38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL38" t="n">
         <v>55</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>65</v>
       </c>
       <c r="AM38" t="n">
         <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO38" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -5671,7 +5671,7 @@
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J39" t="n">
         <v>2.96</v>
@@ -5683,10 +5683,10 @@
         <v>1.59</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N39" t="n">
-        <v>1.55</v>
+        <v>2.62</v>
       </c>
       <c r="O39" t="n">
         <v>1.55</v>
@@ -5698,16 +5698,16 @@
         <v>2.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S39" t="n">
-        <v>2.58</v>
+        <v>5.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V39" t="n">
         <v>1.48</v>
@@ -5716,58 +5716,58 @@
         <v>1.5</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AE39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>60</v>
       </c>
-      <c r="AF39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>75</v>
-      </c>
       <c r="AK39" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AL39" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G40" t="n">
         <v>4.2</v>
@@ -5806,7 +5806,7 @@
         <v>2.12</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J40" t="n">
         <v>2.96</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R40" t="n">
         <v>1.23</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G41" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K41" t="n">
         <v>4.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
         <v>1.6</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6073,10 +6073,10 @@
         <v>4.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J42" t="n">
         <v>3.2</v>
@@ -6085,94 +6085,94 @@
         <v>3.55</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P42" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q42" t="n">
         <v>2.26</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -6202,112 +6202,112 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P43" t="n">
-        <v>1.24</v>
+        <v>1.93</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H45" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I45" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -6514,67 +6514,67 @@
         <v>2.96</v>
       </c>
       <c r="T45" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U45" t="n">
         <v>2.18</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
         <v>10.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB45" t="n">
         <v>21</v>
       </c>
-      <c r="AB45" t="n">
-        <v>22</v>
-      </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH45" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="n">
         <v>75</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM45" t="n">
         <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO45" t="n">
         <v>10.5</v>
@@ -6607,112 +6607,112 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -6745,22 +6745,22 @@
         <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H47" t="n">
         <v>23</v>
       </c>
       <c r="I47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
         <v>13</v>
       </c>
-      <c r="K47" t="n">
-        <v>14</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
@@ -6775,34 +6775,34 @@
         <v>5.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="R47" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="S47" t="n">
         <v>1.59</v>
       </c>
       <c r="T47" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U47" t="n">
         <v>2.08</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="X47" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
@@ -6814,10 +6814,10 @@
         <v>34</v>
       </c>
       <c r="AD47" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="n">
         <v>13.5</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,112 +6877,112 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7012,112 +7012,112 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G50" t="n">
         <v>3.7</v>
       </c>
-      <c r="G50" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H50" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I50" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J50" t="n">
         <v>3.1</v>
@@ -7165,25 +7165,25 @@
         <v>3.15</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M50" t="n">
         <v>1.13</v>
       </c>
       <c r="N50" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O50" t="n">
         <v>1.54</v>
       </c>
       <c r="P50" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S50" t="n">
         <v>5.3</v>
@@ -7192,22 +7192,22 @@
         <v>2.14</v>
       </c>
       <c r="U50" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X50" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y50" t="n">
         <v>7.6</v>
       </c>
       <c r="Z50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA50" t="n">
         <v>36</v>
@@ -7225,10 +7225,10 @@
         <v>34</v>
       </c>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH50" t="n">
         <v>23</v>
@@ -7237,22 +7237,22 @@
         <v>60</v>
       </c>
       <c r="AJ50" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL50" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
         <v>80</v>
       </c>
       <c r="AO50" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
@@ -7282,61 +7282,61 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="G51" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H51" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="I51" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K51" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S51" t="n">
         <v>4.1</v>
       </c>
-      <c r="L51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
       <c r="T51" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V51" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="W51" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X51" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y51" t="n">
         <v>7.4</v>
@@ -7348,10 +7348,10 @@
         <v>22</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD51" t="n">
         <v>11</v>
@@ -7360,31 +7360,31 @@
         <v>25</v>
       </c>
       <c r="AF51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI51" t="n">
         <v>55</v>
       </c>
-      <c r="AG51" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="AK51" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AL51" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AM51" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN51" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AO51" t="n">
         <v>16.5</v>
@@ -7435,94 +7435,94 @@
         <v>3.8</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P52" t="n">
         <v>1.85</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7552,112 +7552,112 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P53" t="n">
         <v>1.24</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G54" t="n">
         <v>1.54</v>
@@ -7696,103 +7696,103 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J54" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P54" t="n">
         <v>1.89</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7831,103 +7831,103 @@
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K55" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P55" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7966,46 +7966,46 @@
         <v>23</v>
       </c>
       <c r="I56" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J56" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M56" t="n">
         <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="O56" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P56" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R56" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S56" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="T56" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="U56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W56" t="n">
         <v>7.2</v>
@@ -8014,52 +8014,52 @@
         <v>980</v>
       </c>
       <c r="Y56" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Z56" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC56" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AD56" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AG56" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK56" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G58" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H58" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -8251,7 +8251,7 @@
         <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O58" t="n">
         <v>1.37</v>
@@ -8305,7 +8305,7 @@
         <v>990</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG58" t="n">
         <v>9.6</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -670,10 +670,10 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
@@ -697,7 +697,7 @@
         <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
@@ -712,13 +712,13 @@
         <v>1.64</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -742,10 +742,10 @@
         <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,25 +754,25 @@
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
         <v>4.3</v>
@@ -832,28 +832,28 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="S3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -880,7 +880,7 @@
         <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
         <v>1.59</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1120,7 +1120,7 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
         <v>2.68</v>
@@ -1129,46 +1129,46 @@
         <v>50</v>
       </c>
       <c r="Y5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>180</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>270</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>23</v>
       </c>
-      <c r="AC5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>360</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>26</v>
-      </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>920</v>
+        <v>720</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
@@ -1246,13 +1246,13 @@
         <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.68</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.55</v>
@@ -1912,10 +1912,10 @@
         <v>1.58</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.19</v>
@@ -1927,7 +1927,7 @@
         <v>2.18</v>
       </c>
       <c r="U11" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
         <v>1.47</v>
@@ -1960,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -2017,46 +2017,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K12" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>2.64</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2602,7 +2602,7 @@
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
         <v>1.99</v>
@@ -2767,10 +2767,10 @@
         <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
@@ -2791,10 +2791,10 @@
         <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>150</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
         <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
         <v>3.2</v>
@@ -2848,91 +2848,91 @@
         <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.53</v>
+        <v>2.92</v>
       </c>
       <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.44</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
         <v>20</v>
       </c>
-      <c r="AE18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>29</v>
-      </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -2986,13 +2986,13 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="O19" t="n">
         <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
         <v>1.95</v>
@@ -3106,7 +3106,7 @@
         <v>1.91</v>
       </c>
       <c r="I20" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
@@ -3145,7 +3145,7 @@
         <v>2.44</v>
       </c>
       <c r="V20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
@@ -3157,7 +3157,7 @@
         <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA20" t="n">
         <v>23</v>
@@ -3172,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF20" t="n">
         <v>36</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
         <v>2.32</v>
@@ -3241,7 +3241,7 @@
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J21" t="n">
         <v>3.85</v>
@@ -3301,7 +3301,7 @@
         <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>18</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q22" t="n">
         <v>2.26</v>
@@ -3406,7 +3406,7 @@
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,7 +3415,7 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
         <v>1.26</v>
@@ -3526,7 +3526,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
@@ -3541,7 +3541,7 @@
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3796,13 +3796,13 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q25" t="n">
         <v>2.04</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G26" t="n">
         <v>1.71</v>
@@ -3931,7 +3931,7 @@
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
@@ -3940,13 +3940,13 @@
         <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -4087,13 +4087,13 @@
         <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
         <v>2.9</v>
       </c>
       <c r="W27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
@@ -4126,7 +4126,7 @@
         <v>40</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AI27" t="n">
         <v>46</v>
@@ -4147,7 +4147,7 @@
         <v>320</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -4186,13 +4186,13 @@
         <v>2.16</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4225,7 +4225,7 @@
         <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W28" t="n">
         <v>1.33</v>
@@ -4321,7 +4321,7 @@
         <v>2.96</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4354,13 +4354,13 @@
         <v>3.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
         <v>1.51</v>
@@ -4384,7 +4384,7 @@
         <v>10.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
         <v>60</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
         <v>29</v>
@@ -4726,7 +4726,7 @@
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.8</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
         <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="J34" t="n">
-        <v>5.9</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5020,7 +5020,7 @@
         <v>1.84</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R34" t="n">
         <v>1.32</v>
@@ -5035,10 +5035,10 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I35" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5170,10 +5170,10 @@
         <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X35" t="n">
         <v>12</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G36" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H36" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="I36" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
@@ -5305,7 +5305,7 @@
         <v>2.12</v>
       </c>
       <c r="V36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W36" t="n">
         <v>1.4</v>
@@ -5314,13 +5314,13 @@
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z36" t="n">
         <v>18</v>
       </c>
       <c r="AA36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB36" t="n">
         <v>12.5</v>
@@ -5332,25 +5332,25 @@
         <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF36" t="n">
         <v>28</v>
       </c>
       <c r="AG36" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AH36" t="n">
         <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ36" t="n">
         <v>70</v>
       </c>
       <c r="AK36" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL36" t="n">
         <v>50</v>
@@ -5359,10 +5359,10 @@
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>3.55</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J37" t="n">
         <v>3.15</v>
@@ -5443,7 +5443,7 @@
         <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H38" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="I38" t="n">
         <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
         <v>3.1</v>
@@ -5572,13 +5572,13 @@
         <v>1.85</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V38" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W38" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X38" t="n">
         <v>11.5</v>
@@ -5698,10 +5698,10 @@
         <v>2.58</v>
       </c>
       <c r="R39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
         <v>2.06</v>
@@ -5737,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF39" t="n">
         <v>18.5</v>
@@ -5752,7 +5752,7 @@
         <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK39" t="n">
         <v>44</v>
@@ -6073,7 +6073,7 @@
         <v>4.9</v>
       </c>
       <c r="H42" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I42" t="n">
         <v>2.1</v>
@@ -6082,7 +6082,7 @@
         <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6112,7 +6112,7 @@
         <v>1.98</v>
       </c>
       <c r="U42" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="V42" t="n">
         <v>1.91</v>
@@ -6475,19 +6475,19 @@
         <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="I45" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J45" t="n">
         <v>3.95</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
         <v>1.35</v>
@@ -6523,7 +6523,7 @@
         <v>2.2</v>
       </c>
       <c r="W45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X45" t="n">
         <v>17.5</v>
@@ -6550,7 +6550,7 @@
         <v>18.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG45" t="n">
         <v>20</v>
@@ -6565,7 +6565,7 @@
         <v>120</v>
       </c>
       <c r="AK45" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL45" t="n">
         <v>70</v>
@@ -6754,7 +6754,7 @@
         <v>25</v>
       </c>
       <c r="J47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="K47" t="n">
         <v>13</v>
@@ -6772,7 +6772,7 @@
         <v>1.06</v>
       </c>
       <c r="P47" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q47" t="n">
         <v>1.22</v>
@@ -6787,16 +6787,16 @@
         <v>1.88</v>
       </c>
       <c r="U47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V47" t="n">
         <v>1.04</v>
       </c>
       <c r="W47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
         <v>1000</v>
@@ -6844,7 +6844,7 @@
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6883,7 +6883,7 @@
         <v>7.2</v>
       </c>
       <c r="H48" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I48" t="n">
         <v>2.36</v>
@@ -6901,7 +6901,7 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O48" t="n">
         <v>1.01</v>
@@ -6913,10 +6913,10 @@
         <v>2.08</v>
       </c>
       <c r="R48" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G50" t="n">
         <v>3.7</v>
@@ -7174,7 +7174,7 @@
         <v>2.76</v>
       </c>
       <c r="O50" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P50" t="n">
         <v>1.59</v>
@@ -7189,7 +7189,7 @@
         <v>5.3</v>
       </c>
       <c r="T50" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U50" t="n">
         <v>1.83</v>
@@ -7201,7 +7201,7 @@
         <v>1.37</v>
       </c>
       <c r="X50" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y50" t="n">
         <v>7.6</v>
@@ -7228,7 +7228,7 @@
         <v>23</v>
       </c>
       <c r="AG50" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH50" t="n">
         <v>23</v>
@@ -7294,7 +7294,7 @@
         <v>1.91</v>
       </c>
       <c r="J51" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K51" t="n">
         <v>3.85</v>
@@ -7312,7 +7312,7 @@
         <v>1.42</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q51" t="n">
         <v>2.2</v>
@@ -7420,7 +7420,7 @@
         <v>2.76</v>
       </c>
       <c r="G52" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H52" t="n">
         <v>2.5</v>
@@ -7432,7 +7432,7 @@
         <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7441,22 +7441,22 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O52" t="n">
         <v>1.01</v>
       </c>
       <c r="P52" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R52" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S52" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T52" t="n">
         <v>1.01</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I53" t="n">
         <v>3.05</v>
@@ -7576,22 +7576,22 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.31</v>
+        <v>2.06</v>
       </c>
       <c r="R53" t="n">
         <v>1.21</v>
       </c>
       <c r="S53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W53" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7624,7 +7624,7 @@
         <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE53" t="n">
         <v>1000</v>
@@ -7696,7 +7696,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
         <v>4.2</v>
@@ -7705,16 +7705,16 @@
         <v>4.8</v>
       </c>
       <c r="L54" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
         <v>1.89</v>
@@ -7726,13 +7726,13 @@
         <v>1.3</v>
       </c>
       <c r="S54" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T54" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U54" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V54" t="n">
         <v>1.1</v>
@@ -7741,49 +7741,49 @@
         <v>2.84</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
@@ -7834,7 +7834,7 @@
         <v>4.6</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
         <v>3.35</v>
@@ -7843,10 +7843,10 @@
         <v>1.51</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O55" t="n">
         <v>1.42</v>
@@ -7858,76 +7858,76 @@
         <v>2.22</v>
       </c>
       <c r="R55" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S55" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V55" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W55" t="n">
         <v>1.83</v>
       </c>
       <c r="X55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF55" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y55" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>15</v>
-      </c>
       <c r="AG55" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AK55" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL55" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -7975,7 +7975,7 @@
         <v>10.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M56" t="n">
         <v>1.02</v>
@@ -7987,7 +7987,7 @@
         <v>1.17</v>
       </c>
       <c r="P56" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q56" t="n">
         <v>1.5</v>
@@ -8092,34 +8092,34 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P57" t="n">
         <v>1.24</v>
@@ -8128,76 +8128,76 @@
         <v>1.01</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8227,25 +8227,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G58" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H58" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I58" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J58" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.75</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="n">
         <v>1.09</v>
@@ -8257,7 +8257,7 @@
         <v>1.37</v>
       </c>
       <c r="P58" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q58" t="n">
         <v>2.1</v>
@@ -8275,25 +8275,25 @@
         <v>1.96</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y58" t="n">
         <v>17</v>
       </c>
       <c r="Z58" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA58" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB58" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC58" t="n">
         <v>8.199999999999999</v>
@@ -8302,37 +8302,37 @@
         <v>21</v>
       </c>
       <c r="AE58" t="n">
-        <v>990</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH58" t="n">
         <v>22</v>
       </c>
       <c r="AI58" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO58" t="n">
         <v>110</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
@@ -715,10 +715,10 @@
         <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>4.5</v>
@@ -847,13 +847,13 @@
         <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X3" t="n">
         <v>32</v>
@@ -892,7 +892,7 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,33 +923,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Hong Kong FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Kitchee SC</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1063,31 +1063,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,22 +1096,22 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
         <v>1.01</v>
@@ -1120,61 +1120,61 @@
         <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>720</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>1.59</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>1.16</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>1.31</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.47</v>
+        <v>2.68</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
         <v>22</v>
       </c>
-      <c r="AA6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>15</v>
-      </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.05</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1.09</v>
+        <v>3.15</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>90</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>26</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>3.15</v>
       </c>
       <c r="T7" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
-        <v>1.41</v>
+        <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.99</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>230</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>60</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>260</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.08</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,78 +1463,78 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="G8" t="n">
-        <v>5.1</v>
+        <v>1.09</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>26</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.76</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="V8" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,43 +1543,43 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,115 +1603,115 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Muangthong Utd</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ayutthaya United</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.87</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22</v>
+        <v>2.76</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Muangthong Utd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Ayutthaya United</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.15</v>
+        <v>1.88</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="S10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>34</v>
       </c>
-      <c r="AG10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AN10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.18</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>2.64</v>
       </c>
       <c r="V11" t="n">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
-        <v>8.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>55</v>
       </c>
-      <c r="AB11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>50</v>
-      </c>
       <c r="AK11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC12" t="n">
         <v>6.8</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -2143,55 +2143,55 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.99</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,60 +2273,60 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O14" t="n">
         <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.02</v>
+        <v>1.99</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2371,28 +2371,28 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2455,13 +2455,13 @@
         <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2569,7 +2569,7 @@
         <v>6.2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
         <v>4.2</v>
@@ -2587,10 +2587,10 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>1.02</v>
       </c>
       <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>4.9</v>
+        <v>1.02</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.54</v>
+        <v>1.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>5.1</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N18" t="n">
         <v>2.84</v>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="P18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="U18" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.54</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="G19" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="H19" t="n">
-        <v>2.56</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.15</v>
       </c>
-      <c r="K19" t="n">
-        <v>4.8</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
         <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.94</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>5.3</v>
+        <v>1.68</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>1.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.59</v>
+        <v>1.99</v>
       </c>
       <c r="R20" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>2.06</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="I21" t="n">
-        <v>3.45</v>
+        <v>1.94</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.76</v>
+        <v>1.3</v>
       </c>
       <c r="X21" t="n">
         <v>24</v>
       </c>
       <c r="Y21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG21" t="n">
         <v>17</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>28</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.38</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -3532,16 +3532,16 @@
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3628,55 +3628,55 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>3.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3763,55 +3763,55 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.52</v>
+        <v>1.41</v>
       </c>
       <c r="G25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.55</v>
       </c>
-      <c r="H25" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.92</v>
-      </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
       </c>
       <c r="P25" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>1.39</v>
+        <v>2.4</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3898,55 +3898,55 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.41</v>
+        <v>3.05</v>
       </c>
       <c r="G26" t="n">
-        <v>1.71</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>2.12</v>
       </c>
       <c r="I26" t="n">
-        <v>150</v>
+        <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="K26" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="O26" t="n">
         <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3955,10 +3955,10 @@
         <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>2.4</v>
+        <v>1.27</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8.6</v>
+        <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>9.6</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>1.5</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1.52</v>
+        <v>6.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="K27" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>1.54</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>2.14</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>2.9</v>
+        <v>1.18</v>
       </c>
       <c r="W27" t="n">
-        <v>1.12</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.55</v>
+        <v>8.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="H28" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.28</v>
+        <v>1.52</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="R28" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="U28" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="W28" t="n">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
         <v>11</v>
       </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AG28" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="n">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AO28" t="n">
-        <v>17.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G29" t="n">
         <v>2.94</v>
       </c>
       <c r="H29" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.37</v>
@@ -4342,7 +4342,7 @@
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q29" t="n">
         <v>2.26</v>
@@ -4357,7 +4357,7 @@
         <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
         <v>1.46</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>3.95</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>2.16</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>2.28</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="O30" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.32</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.78</v>
       </c>
       <c r="W30" t="n">
-        <v>2.16</v>
+        <v>1.33</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G31" t="n">
         <v>4.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>4.3</v>
       </c>
       <c r="H31" t="n">
         <v>2.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J31" t="n">
         <v>3.55</v>
@@ -4600,7 +4600,7 @@
         <v>3.65</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4624,16 +4624,16 @@
         <v>3.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
         <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>4.6</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>1.31</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="R32" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="W32" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="X32" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cypriot 1st Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ethnikos Achnas</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>1.79</v>
+        <v>4.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="S33" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V33" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Enosis Neon Paralimni</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Apollon Limassol</t>
+          <t>Ethnikos Achnas</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H34" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
-        <v>1.34</v>
+        <v>7.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="R34" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5035,10 +5035,10 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>4</v>
+        <v>1.16</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Cypriot 1st Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Enosis Neon Paralimni</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Apollon Limassol</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.25</v>
+        <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>25</v>
       </c>
       <c r="H35" t="n">
-        <v>2.42</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>2.46</v>
+        <v>1.3</v>
       </c>
       <c r="J35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.45</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.5</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="R35" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="V35" t="n">
-        <v>1.68</v>
+        <v>4.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AI35" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.45</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
         <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="W36" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z36" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>18</v>
-      </c>
       <c r="AA36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE36" t="n">
         <v>28</v>
       </c>
       <c r="AF36" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH36" t="n">
         <v>18</v>
       </c>
       <c r="AI36" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="n">
         <v>42</v>
       </c>
       <c r="AL36" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -5383,127 +5383,127 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AD Ceuta FC</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S37" t="n">
         <v>3.55</v>
       </c>
-      <c r="I37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W37" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE37" t="n">
         <v>28</v>
       </c>
-      <c r="AA37" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>55</v>
-      </c>
       <c r="AF37" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AI37" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>70</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>32</v>
-      </c>
       <c r="AK37" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="n">
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN37" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OFI</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>AD Ceuta FC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="G38" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.86</v>
+        <v>3.55</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S38" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V38" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z38" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AA38" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>7.6</v>
       </c>
       <c r="AD38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF38" t="n">
         <v>14</v>
       </c>
-      <c r="AE38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH38" t="n">
         <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AK38" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM38" t="n">
         <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AO38" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CD Nacional Funchal</t>
+          <t>OFI</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H39" t="n">
         <v>2.86</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.9</v>
-      </c>
       <c r="I39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.1</v>
       </c>
-      <c r="J39" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O39" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="U39" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="V39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.48</v>
       </c>
-      <c r="W39" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X39" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AA39" t="n">
         <v>55</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD39" t="n">
         <v>14</v>
       </c>
       <c r="AE39" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF39" t="n">
         <v>18.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL39" t="n">
         <v>55</v>
       </c>
-      <c r="AK39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>85</v>
-      </c>
       <c r="AM39" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>CD Nacional Funchal</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sporting Lisbon B</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>2.98</v>
       </c>
       <c r="H40" t="n">
-        <v>2.12</v>
+        <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
         <v>2.96</v>
       </c>
       <c r="K40" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P40" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,120 +5918,120 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sparta Rotterdam</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Heracles</t>
+          <t>Sporting Lisbon B</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.8</v>
+        <v>2.88</v>
       </c>
       <c r="G41" t="n">
-        <v>1.86</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="I41" t="n">
-        <v>4.7</v>
+        <v>2.88</v>
       </c>
       <c r="J41" t="n">
-        <v>4.1</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>4.5</v>
+        <v>1.64</v>
       </c>
       <c r="O41" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="W41" t="n">
-        <v>2.16</v>
+        <v>1.31</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13:15:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Padova</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Heracles</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4.4</v>
+        <v>1.81</v>
       </c>
       <c r="G42" t="n">
-        <v>4.9</v>
+        <v>1.86</v>
       </c>
       <c r="H42" t="n">
-        <v>1.98</v>
+        <v>4.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.59</v>
       </c>
       <c r="S42" t="n">
-        <v>4.3</v>
+        <v>2.48</v>
       </c>
       <c r="T42" t="n">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>1.89</v>
+        <v>2.42</v>
       </c>
       <c r="V42" t="n">
-        <v>1.91</v>
+        <v>1.27</v>
       </c>
       <c r="W42" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="X42" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG42" t="n">
         <v>11</v>
       </c>
-      <c r="Y42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>19</v>
-      </c>
       <c r="AH42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>21</v>
       </c>
-      <c r="AI42" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>140</v>
-      </c>
       <c r="AK42" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AL42" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="AM42" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AN42" t="n">
-        <v>120</v>
+        <v>8.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:15:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Padova</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.24</v>
+        <v>4.4</v>
       </c>
       <c r="G43" t="n">
-        <v>1.47</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="I43" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.93</v>
+        <v>1.69</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.64</v>
+        <v>2.26</v>
       </c>
       <c r="R43" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V43" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.54</v>
+        <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H44" t="n">
-        <v>5.1</v>
+        <v>1.82</v>
       </c>
       <c r="I44" t="n">
-        <v>11.5</v>
+        <v>1.83</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>1.56</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P44" t="n">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.02</v>
+        <v>1.8</v>
       </c>
       <c r="R44" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S44" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V44" t="n">
-        <v>1.09</v>
+        <v>2.2</v>
       </c>
       <c r="W44" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H45" t="n">
         <v>5</v>
       </c>
-      <c r="G45" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.82</v>
-      </c>
       <c r="I45" t="n">
-        <v>1.83</v>
+        <v>11.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>950</v>
       </c>
       <c r="L45" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>4.1</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P45" t="n">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="R45" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="T45" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>2.2</v>
+        <v>1.09</v>
       </c>
       <c r="W45" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="X45" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G46" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I46" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L46" t="n">
         <v>1.5</v>
@@ -6631,22 +6631,22 @@
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.33</v>
+        <v>2.12</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6655,10 +6655,10 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W46" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,67 +6733,67 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="G47" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="H47" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>12.5</v>
+        <v>4.5</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>14</v>
+        <v>1.97</v>
       </c>
       <c r="O47" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>5.1</v>
+        <v>1.96</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="R47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.64</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.59</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.88</v>
+        <v>1.01</v>
       </c>
       <c r="U47" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W47" t="n">
-        <v>8</v>
+        <v>3.05</v>
       </c>
       <c r="X47" t="n">
         <v>1000</v>
@@ -6802,49 +6802,49 @@
         <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
         <v>1000</v>
@@ -6877,46 +6877,46 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G48" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="H48" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="I48" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J48" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="K48" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P48" t="n">
         <v>1.55</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.54</v>
-      </c>
       <c r="Q48" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6925,10 +6925,10 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,67 +7003,67 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Perugia</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AC Bra</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
       <c r="G49" t="n">
-        <v>1.89</v>
+        <v>1.15</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1</v>
+        <v>22</v>
       </c>
       <c r="I49" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="K49" t="n">
-        <v>6.6</v>
+        <v>12.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.58</v>
+        <v>14</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P49" t="n">
-        <v>1.58</v>
+        <v>5.2</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.04</v>
+        <v>1.22</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>2.64</v>
       </c>
       <c r="S49" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U49" t="n">
         <v>2.06</v>
       </c>
-      <c r="T49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U49" t="n">
-        <v>1.01</v>
-      </c>
       <c r="V49" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="W49" t="n">
-        <v>2.12</v>
+        <v>7.8</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7072,49 +7072,49 @@
         <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Perugia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AC Bra</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.65</v>
+        <v>1.54</v>
       </c>
       <c r="G50" t="n">
-        <v>3.7</v>
+        <v>1.87</v>
       </c>
       <c r="H50" t="n">
-        <v>2.46</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.48</v>
+        <v>10.5</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="M50" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>2.76</v>
+        <v>1.58</v>
       </c>
       <c r="O50" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>5.3</v>
+        <v>2.06</v>
       </c>
       <c r="T50" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="W50" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="X50" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,132 +7268,132 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="G51" t="n">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="I51" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="L51" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N51" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="O51" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="P51" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R51" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="S51" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U51" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V51" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="X51" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD51" t="n">
         <v>12</v>
       </c>
-      <c r="Y51" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>11</v>
-      </c>
       <c r="AE51" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AF51" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="n">
         <v>55</v>
       </c>
-      <c r="AJ51" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>110</v>
-      </c>
       <c r="AL51" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN51" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AO51" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>FC Ashdod</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.76</v>
+        <v>5.1</v>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="H52" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="I52" t="n">
-        <v>2.86</v>
+        <v>1.87</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N52" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="O52" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V52" t="n">
-        <v>1.54</v>
+        <v>2.14</v>
       </c>
       <c r="W52" t="n">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z52" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB52" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,36 +7538,36 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Ashdod</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>2.76</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="J53" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,22 +7576,22 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R53" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S53" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W53" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7624,7 +7624,7 @@
         <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>1000</v>
@@ -7687,13 +7687,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="G54" t="n">
         <v>1.54</v>
       </c>
       <c r="H54" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
         <v>11</v>
@@ -7708,13 +7708,13 @@
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P54" t="n">
         <v>1.89</v>
@@ -7723,40 +7723,40 @@
         <v>1.98</v>
       </c>
       <c r="R54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S54" t="n">
         <v>3.15</v>
       </c>
       <c r="T54" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="U54" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="V54" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W54" t="n">
         <v>2.84</v>
       </c>
       <c r="X54" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD54" t="n">
         <v>40</v>
@@ -7765,25 +7765,25 @@
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG54" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM54" t="n">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G55" t="n">
         <v>2.2</v>
@@ -7831,7 +7831,7 @@
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.25</v>
@@ -7858,7 +7858,7 @@
         <v>2.22</v>
       </c>
       <c r="R55" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
         <v>4.2</v>
@@ -7870,7 +7870,7 @@
         <v>1.92</v>
       </c>
       <c r="V55" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W55" t="n">
         <v>1.83</v>
@@ -7927,13 +7927,13 @@
         <v>24</v>
       </c>
       <c r="AO55" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,123 +7943,123 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.14</v>
+        <v>2.76</v>
       </c>
       <c r="G56" t="n">
-        <v>1.16</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>23</v>
+        <v>2.26</v>
       </c>
       <c r="I56" t="n">
-        <v>36</v>
+        <v>3.05</v>
       </c>
       <c r="J56" t="n">
-        <v>9.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="K56" t="n">
-        <v>10.5</v>
+        <v>5.4</v>
       </c>
       <c r="L56" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="O56" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="Q56" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.5</v>
       </c>
-      <c r="R56" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W56" t="n">
-        <v>7.2</v>
+        <v>1.33</v>
       </c>
       <c r="X56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
         <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
         <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,72 +8078,72 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FC Guidonia Montecelio 1937</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>1.22</v>
       </c>
       <c r="H57" t="n">
-        <v>2.74</v>
+        <v>10.5</v>
       </c>
       <c r="I57" t="n">
         <v>1000</v>
       </c>
       <c r="J57" t="n">
-        <v>2.84</v>
+        <v>1.03</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="O57" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="R57" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="V57" t="n">
         <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>1.52</v>
+        <v>5</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8203,135 +8203,270 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ASD Pineto Calcio</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>FC Guidonia Montecelio 1937</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K58" t="n">
+        <v>950</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>Italian Serie A</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>2026-01-11</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>16:45:00</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Inter</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K58" t="n">
+      <c r="F59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J59" t="n">
         <v>3.75</v>
       </c>
-      <c r="L58" t="n">
+      <c r="K59" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L59" t="n">
         <v>1.43</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M59" t="n">
         <v>1.09</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N59" t="n">
         <v>3.5</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O59" t="n">
         <v>1.37</v>
       </c>
-      <c r="P58" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="P59" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q59" t="n">
         <v>2.1</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R59" t="n">
         <v>1.32</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S59" t="n">
         <v>3.85</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T59" t="n">
         <v>1.97</v>
       </c>
-      <c r="U58" t="n">
+      <c r="U59" t="n">
         <v>1.96</v>
       </c>
-      <c r="V58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W58" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X58" t="n">
+      <c r="V59" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="X59" t="n">
         <v>12</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="Y59" t="n">
         <v>17</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="Z59" t="n">
         <v>42</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AA59" t="n">
         <v>160</v>
       </c>
-      <c r="AB58" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC58" t="n">
+      <c r="AB59" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC59" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD58" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH58" t="n">
+      <c r="AD59" t="n">
         <v>22</v>
       </c>
-      <c r="AI58" t="n">
+      <c r="AE59" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI59" t="n">
         <v>95</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AJ59" t="n">
         <v>19</v>
       </c>
-      <c r="AK58" t="n">
+      <c r="AK59" t="n">
         <v>19.5</v>
       </c>
-      <c r="AL58" t="n">
+      <c r="AL59" t="n">
         <v>40</v>
       </c>
-      <c r="AM58" t="n">
+      <c r="AM59" t="n">
         <v>160</v>
       </c>
-      <c r="AN58" t="n">
+      <c r="AN59" t="n">
         <v>13</v>
       </c>
-      <c r="AO58" t="n">
+      <c r="AO59" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -691,7 +691,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.22</v>
@@ -703,22 +703,22 @@
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S2" t="n">
         <v>2.64</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -727,19 +727,19 @@
         <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>980</v>
@@ -757,10 +757,10 @@
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
         <v>1.48</v>
@@ -841,7 +841,7 @@
         <v>1.76</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
         <v>1.55</v>
@@ -856,13 +856,13 @@
         <v>2.28</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
         <v>110</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -892,22 +892,22 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
         <v>6.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
         <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
@@ -964,19 +964,19 @@
         <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1210,19 +1210,19 @@
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X6" t="n">
         <v>50</v>
@@ -1267,7 +1267,7 @@
         <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1276,10 +1276,10 @@
         <v>22</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1291,7 +1291,7 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>750</v>
+        <v>680</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I7" t="n">
         <v>2.8</v>
@@ -1357,7 +1357,7 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1369,19 +1369,19 @@
         <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
@@ -1390,64 +1390,64 @@
         <v>2.18</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.09</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
         <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>1.12</v>
@@ -1501,40 +1501,40 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.18</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.3</v>
       </c>
       <c r="S8" t="n">
         <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
         <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,43 +1543,43 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I9" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.29</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" t="n">
         <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="S9" t="n">
-        <v>2.76</v>
+        <v>1.81</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
         <v>2.08</v>
@@ -1759,10 +1759,10 @@
         <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1777,22 +1777,22 @@
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.56</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.51</v>
-      </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
         <v>1.32</v>
@@ -1801,13 +1801,13 @@
         <v>1.92</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA10" t="n">
         <v>100</v>
@@ -1816,34 +1816,34 @@
         <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>90</v>
@@ -1891,7 +1891,7 @@
         <v>2.28</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1915,13 +1915,13 @@
         <v>2.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T11" t="n">
         <v>1.53</v>
@@ -1939,34 +1939,34 @@
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>29</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>28</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2026,7 +2026,7 @@
         <v>3.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H13" t="n">
         <v>2.36</v>
       </c>
-      <c r="G13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.34</v>
-      </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="O13" t="n">
         <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>2.64</v>
+        <v>1.69</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="S14" t="n">
-        <v>1.99</v>
+        <v>3.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.4</v>
@@ -2392,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
@@ -2593,16 +2593,16 @@
         <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -2611,7 +2611,7 @@
         <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
         <v>22</v>
@@ -2620,31 +2620,31 @@
         <v>46</v>
       </c>
       <c r="AA16" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
         <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
         <v>970</v>
@@ -2662,7 +2662,7 @@
         <v>970</v>
       </c>
       <c r="AO16" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2830,13 +2830,13 @@
         <v>1.95</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H18" t="n">
         <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -2875,7 +2875,7 @@
         <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W18" t="n">
         <v>2.02</v>
@@ -2980,13 +2980,13 @@
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.45</v>
@@ -3004,7 +3004,7 @@
         <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
         <v>1.92</v>
@@ -3100,19 +3100,19 @@
         <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3238,7 +3238,7 @@
         <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="I21" t="n">
         <v>1.94</v>
@@ -3262,7 +3262,7 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="n">
         <v>1.59</v>
@@ -3271,7 +3271,7 @@
         <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
         <v>1.59</v>
@@ -3331,7 +3331,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
         <v>34</v>
@@ -3382,7 +3382,7 @@
         <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>1.31</v>
@@ -3400,7 +3400,7 @@
         <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO22" t="n">
         <v>28</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>1.45</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3646,37 +3646,37 @@
         <v>2.44</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
-        <v>5.1</v>
+        <v>110</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.71</v>
+        <v>110</v>
       </c>
       <c r="H25" t="n">
-        <v>6.2</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>7.8</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
@@ -3796,7 +3796,7 @@
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.01</v>
@@ -3823,7 +3823,7 @@
         <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H26" t="n">
         <v>2.12</v>
@@ -3919,34 +3919,34 @@
         <v>2.36</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P26" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
         <v>1.01</v>
@@ -3958,7 +3958,7 @@
         <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H27" t="n">
-        <v>3.85</v>
+        <v>1.09</v>
       </c>
       <c r="I27" t="n">
-        <v>6.4</v>
+        <v>230</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K27" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>2.14</v>
+        <v>1.45</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,10 +4090,10 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H28" t="n">
         <v>1.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
@@ -4225,7 +4225,7 @@
         <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="W28" t="n">
         <v>1.12</v>
@@ -4234,7 +4234,7 @@
         <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z28" t="n">
         <v>8.4</v>
@@ -4255,10 +4255,10 @@
         <v>17.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AH28" t="n">
         <v>32</v>
@@ -4267,7 +4267,7 @@
         <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AK28" t="n">
         <v>200</v>
@@ -4279,7 +4279,7 @@
         <v>240</v>
       </c>
       <c r="AN28" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AO28" t="n">
         <v>9.800000000000001</v>
@@ -4312,52 +4312,52 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G29" t="n">
         <v>2.94</v>
       </c>
       <c r="H29" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O29" t="n">
         <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q29" t="n">
         <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="S29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T29" t="n">
         <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="V29" t="n">
         <v>1.46</v>
@@ -4366,7 +4366,7 @@
         <v>1.51</v>
       </c>
       <c r="X29" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>14.5</v>
@@ -4381,7 +4381,7 @@
         <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD29" t="n">
         <v>15.5</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J30" t="n">
         <v>3.5</v>
@@ -4471,19 +4471,19 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
         <v>3.25</v>
@@ -4495,7 +4495,7 @@
         <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W30" t="n">
         <v>1.33</v>
@@ -4549,7 +4549,7 @@
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AO30" t="n">
         <v>17.5</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="n">
         <v>4.1</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.2</v>
-      </c>
       <c r="H31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I31" t="n">
         <v>2.1</v>
@@ -4606,7 +4606,7 @@
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
@@ -4630,10 +4630,10 @@
         <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W31" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X31" t="n">
         <v>13</v>
@@ -4645,10 +4645,10 @@
         <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC31" t="n">
         <v>7.8</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="H32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.4</v>
@@ -4741,7 +4741,7 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="O32" t="n">
         <v>1.32</v>
@@ -4756,7 +4756,7 @@
         <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="T32" t="n">
         <v>1.01</v>
@@ -4765,10 +4765,10 @@
         <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W32" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.75</v>
+        <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I34" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="n">
         <v>1000</v>
@@ -5011,23 +5011,23 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q34" t="n">
         <v>1.81</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S34" t="n">
         <v>1.81</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.78</v>
-      </c>
       <c r="T34" t="n">
         <v>1.01</v>
       </c>
@@ -5035,10 +5035,10 @@
         <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5137,7 +5137,7 @@
         <v>5.9</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,22 +5146,22 @@
         <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>3.45</v>
+        <v>1.83</v>
       </c>
       <c r="O35" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="P35" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="R35" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="T35" t="n">
         <v>2.58</v>
@@ -5173,7 +5173,7 @@
         <v>4.3</v>
       </c>
       <c r="W35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X35" t="n">
         <v>22</v>
@@ -5260,7 +5260,7 @@
         <v>3.3</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H36" t="n">
         <v>2.42</v>
@@ -5287,7 +5287,7 @@
         <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q36" t="n">
         <v>2.16</v>
@@ -5341,7 +5341,7 @@
         <v>14</v>
       </c>
       <c r="AH36" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI36" t="n">
         <v>48</v>
@@ -5416,7 +5416,7 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O37" t="n">
         <v>1.33</v>
@@ -5482,10 +5482,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="n">
         <v>50</v>
@@ -5806,7 +5806,7 @@
         <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
         <v>2.96</v>
@@ -5821,7 +5821,7 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="O40" t="n">
         <v>1.55</v>
@@ -5830,7 +5830,7 @@
         <v>1.25</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R40" t="n">
         <v>1.18</v>
@@ -5938,16 +5938,16 @@
         <v>4.2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="I41" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>5.5</v>
+        <v>950</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5965,13 +5965,13 @@
         <v>1.64</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R41" t="n">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="S41" t="n">
-        <v>3.3</v>
+        <v>1.92</v>
       </c>
       <c r="T41" t="n">
         <v>1.01</v>
@@ -5980,7 +5980,7 @@
         <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W41" t="n">
         <v>1.31</v>
@@ -6073,7 +6073,7 @@
         <v>1.86</v>
       </c>
       <c r="H42" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="I42" t="n">
         <v>4.7</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G43" t="n">
         <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I43" t="n">
         <v>2.1</v>
@@ -6235,7 +6235,7 @@
         <v>1.69</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
@@ -6340,19 +6340,19 @@
         <v>5</v>
       </c>
       <c r="G44" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I44" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.95</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>1.35</v>
@@ -6385,7 +6385,7 @@
         <v>2.18</v>
       </c>
       <c r="V44" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W44" t="n">
         <v>1.24</v>
@@ -6439,7 +6439,7 @@
         <v>120</v>
       </c>
       <c r="AN44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
         <v>10.5</v>
@@ -6478,19 +6478,19 @@
         <v>1.88</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I45" t="n">
-        <v>11.5</v>
+        <v>150</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
         <v>950</v>
       </c>
       <c r="L45" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="W45" t="n">
         <v>2.12</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G46" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I46" t="n">
         <v>4.6</v>
@@ -6622,31 +6622,31 @@
         <v>2.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L46" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
         <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="O46" t="n">
         <v>1.01</v>
       </c>
       <c r="P46" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="R46" t="n">
         <v>1.18</v>
       </c>
       <c r="S46" t="n">
-        <v>2.48</v>
+        <v>1.01</v>
       </c>
       <c r="T46" t="n">
         <v>1.01</v>
@@ -6658,7 +6658,7 @@
         <v>1.28</v>
       </c>
       <c r="W46" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6745,43 +6745,43 @@
         <v>1.24</v>
       </c>
       <c r="G47" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H47" t="n">
-        <v>9.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I47" t="n">
         <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>4.5</v>
+        <v>1.09</v>
       </c>
       <c r="K47" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
         <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
         <v>1.27</v>
       </c>
       <c r="P47" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R47" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>2.64</v>
+        <v>1.69</v>
       </c>
       <c r="T47" t="n">
         <v>1.01</v>
@@ -6877,46 +6877,46 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.9</v>
+        <v>1.68</v>
       </c>
       <c r="G48" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H48" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="I48" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="J48" t="n">
         <v>2.62</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="O48" t="n">
         <v>1.01</v>
       </c>
       <c r="P48" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
         <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6925,10 +6925,10 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="W48" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -7018,16 +7018,16 @@
         <v>1.15</v>
       </c>
       <c r="H49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I49" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J49" t="n">
         <v>12</v>
       </c>
       <c r="K49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
         <v>1.12</v>
@@ -7054,10 +7054,10 @@
         <v>1.59</v>
       </c>
       <c r="T49" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.04</v>
@@ -7096,7 +7096,7 @@
         <v>16</v>
       </c>
       <c r="AH49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7147,46 +7147,46 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="G50" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>5.3</v>
+        <v>2.18</v>
       </c>
       <c r="I50" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L50" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P50" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T50" t="n">
         <v>1.01</v>
@@ -7195,7 +7195,7 @@
         <v>1.01</v>
       </c>
       <c r="V50" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W50" t="n">
         <v>2.16</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H51" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I51" t="n">
         <v>2.5</v>
@@ -7297,10 +7297,10 @@
         <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M51" t="n">
         <v>1.13</v>
@@ -7312,7 +7312,7 @@
         <v>1.55</v>
       </c>
       <c r="P51" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q51" t="n">
         <v>2.6</v>
@@ -7333,7 +7333,7 @@
         <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X51" t="n">
         <v>8.6</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G52" t="n">
         <v>5.9</v>
       </c>
       <c r="H52" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I52" t="n">
         <v>1.87</v>
@@ -7432,7 +7432,7 @@
         <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.48</v>
@@ -7447,7 +7447,7 @@
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q52" t="n">
         <v>2.2</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V52" t="n">
         <v>2.14</v>
@@ -7555,7 +7555,7 @@
         <v>2.76</v>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>2.5</v>
@@ -7564,10 +7564,10 @@
         <v>2.86</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,22 +7576,22 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O53" t="n">
         <v>1.01</v>
       </c>
       <c r="P53" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R53" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7603,7 +7603,7 @@
         <v>1.54</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7696,7 +7696,7 @@
         <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J54" t="n">
         <v>4.2</v>
@@ -7708,7 +7708,7 @@
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N54" t="n">
         <v>3.6</v>
@@ -7720,13 +7720,13 @@
         <v>1.89</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R54" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S54" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="T54" t="n">
         <v>2.12</v>
@@ -7735,64 +7735,64 @@
         <v>1.77</v>
       </c>
       <c r="V54" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W54" t="n">
         <v>2.84</v>
       </c>
       <c r="X54" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK54" t="n">
         <v>18</v>
       </c>
-      <c r="Y54" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>20</v>
-      </c>
       <c r="AL54" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55">
@@ -7825,7 +7825,7 @@
         <v>2.08</v>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
@@ -7873,7 +7873,7 @@
         <v>1.27</v>
       </c>
       <c r="W55" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X55" t="n">
         <v>10.5</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H56" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K56" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7990,13 +7990,13 @@
         <v>1.6</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R56" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>2.02</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="G57" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H57" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="I57" t="n">
         <v>1000</v>
       </c>
       <c r="J57" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K57" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="L57" t="n">
         <v>1.27</v>
@@ -8116,34 +8116,34 @@
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.16</v>
       </c>
       <c r="P57" t="n">
-        <v>2.12</v>
+        <v>1.27</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="R57" t="n">
         <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>2.34</v>
+        <v>1.16</v>
       </c>
       <c r="T57" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="U57" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="V57" t="n">
         <v>1.01</v>
       </c>
       <c r="W57" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8230,16 +8230,16 @@
         <v>1.04</v>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>500</v>
       </c>
       <c r="H58" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I58" t="n">
         <v>1000</v>
       </c>
       <c r="J58" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="K58" t="n">
         <v>950</v>
@@ -8278,7 +8278,7 @@
         <v>1.01</v>
       </c>
       <c r="W58" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>
@@ -8386,13 +8386,13 @@
         <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="n">
         <v>1.37</v>
       </c>
       <c r="P59" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q59" t="n">
         <v>2.1</v>
@@ -8419,7 +8419,7 @@
         <v>12</v>
       </c>
       <c r="Y59" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z59" t="n">
         <v>42</v>
@@ -8428,7 +8428,7 @@
         <v>160</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC59" t="n">
         <v>8.199999999999999</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -685,49 +685,49 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" t="n">
         <v>1.66</v>
       </c>
       <c r="R2" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S2" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>90</v>
@@ -742,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
         <v>13.5</v>
@@ -751,16 +751,16 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
         <v>1.78</v>
@@ -832,7 +832,7 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
         <v>1.48</v>
@@ -847,7 +847,7 @@
         <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
         <v>48</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,70 +961,70 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
         <v>1.08</v>
       </c>
       <c r="P4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>2.04</v>
       </c>
       <c r="S4" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1258,7 +1258,7 @@
         <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X6" t="n">
         <v>50</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
@@ -1357,7 +1357,7 @@
         <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,7 +1372,7 @@
         <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>1.83</v>
@@ -1381,7 +1381,7 @@
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
@@ -1396,13 +1396,13 @@
         <v>1.47</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
         <v>50</v>
@@ -1420,16 +1420,16 @@
         <v>36</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
@@ -1441,13 +1441,13 @@
         <v>50</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O8" t="n">
         <v>1.04</v>
@@ -1615,13 +1615,13 @@
         <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1630,10 +1630,10 @@
         <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
         <v>3.75</v>
@@ -1642,61 +1642,61 @@
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.81</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1750,10 +1750,10 @@
         <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -1762,19 +1762,19 @@
         <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
         <v>2.44</v>
@@ -1783,73 +1783,73 @@
         <v>1.55</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
         <v>2.18</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>1.32</v>
       </c>
       <c r="W10" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>55</v>
       </c>
       <c r="AF10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK10" t="n">
         <v>22</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1945,13 +1945,13 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD11" t="n">
         <v>12</v>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL11" t="n">
         <v>42</v>
@@ -2020,7 +2020,7 @@
         <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
@@ -2050,7 +2050,7 @@
         <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R12" t="n">
         <v>1.19</v>
@@ -2059,7 +2059,7 @@
         <v>5.7</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
         <v>1.79</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2152,46 +2152,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.38</v>
+        <v>2.54</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.86</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
         <v>1.18</v>
       </c>
       <c r="S13" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2296,7 +2296,7 @@
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
@@ -2305,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2314,7 +2314,7 @@
         <v>3.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.76</v>
@@ -2335,7 +2335,7 @@
         <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
         <v>1.72</v>
@@ -2356,7 +2356,7 @@
         <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
         <v>1000</v>
@@ -2371,16 +2371,16 @@
         <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI14" t="n">
         <v>75</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL14" t="n">
         <v>55</v>
@@ -2389,7 +2389,7 @@
         <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
         <v>70</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
@@ -2587,16 +2587,16 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="Q16" t="n">
         <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
@@ -2605,40 +2605,40 @@
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
         <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2647,10 +2647,10 @@
         <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -2659,10 +2659,10 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2980,7 +2980,7 @@
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -2989,22 +2989,22 @@
         <v>2.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.24</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
         <v>1.92</v>
@@ -3028,22 +3028,22 @@
         <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
         <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
         <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
         <v>20</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="G20" t="n">
         <v>3.5</v>
@@ -3112,7 +3112,7 @@
         <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,13 +3121,13 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q20" t="n">
         <v>2.08</v>
@@ -3139,10 +3139,10 @@
         <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
         <v>1.41</v>
@@ -3337,7 +3337,7 @@
         <v>34</v>
       </c>
       <c r="AO21" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>2.22</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
@@ -3385,7 +3385,7 @@
         <v>3.95</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -3397,10 +3397,10 @@
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
@@ -3424,7 +3424,7 @@
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>27</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>950</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.62</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
         <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.18</v>
       </c>
-      <c r="S23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24">
@@ -3637,112 +3637,112 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="G24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.55</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K24" t="n">
-        <v>110</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>1.56</v>
+        <v>2.98</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
         <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="H25" t="n">
         <v>1.04</v>
@@ -3784,7 +3784,7 @@
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K25" t="n">
         <v>950</v>
@@ -3805,13 +3805,13 @@
         <v>1.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3907,112 +3907,112 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="J26" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.02</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
         <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G27" t="n">
         <v>2.28</v>
       </c>
       <c r="H27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.09</v>
       </c>
-      <c r="I27" t="n">
-        <v>230</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K27" t="n">
-        <v>950</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N27" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
         <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I28" t="n">
         <v>1.53</v>
@@ -4195,7 +4195,7 @@
         <v>4.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4252,7 +4252,7 @@
         <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AF28" t="n">
         <v>80</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Mantova</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>3.65</v>
       </c>
       <c r="G29" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.86</v>
+        <v>2.14</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>2.26</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.25</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.5</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="X29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
         <v>15</v>
       </c>
-      <c r="Y29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>29</v>
       </c>
-      <c r="AA29" t="n">
-        <v>75</v>
-      </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN29" t="n">
         <v>50</v>
       </c>
-      <c r="AL29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mantova</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.65</v>
+        <v>2.7</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>2.94</v>
       </c>
       <c r="H30" t="n">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="I30" t="n">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S30" t="n">
         <v>3.5</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>1.63</v>
       </c>
       <c r="V30" t="n">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>29</v>
       </c>
-      <c r="AB30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18</v>
-      </c>
       <c r="AI30" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK30" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>NFC Volos</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.08</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
         <v>1.87</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
         <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V31" t="n">
-        <v>1.9</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.32</v>
+        <v>2.28</v>
       </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
         <v>12</v>
       </c>
-      <c r="AA31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK31" t="n">
         <v>23</v>
       </c>
-      <c r="AF31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>55</v>
-      </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NFC Volos</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>5.5</v>
+        <v>2.08</v>
       </c>
       <c r="I32" t="n">
-        <v>6.6</v>
+        <v>2.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.32</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.28</v>
-      </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="33">
@@ -4870,7 +4870,7 @@
         <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -4990,7 +4990,7 @@
         <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
         <v>1.04</v>
@@ -4999,7 +4999,7 @@
         <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>1000</v>
@@ -5011,22 +5011,22 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="O34" t="n">
         <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5038,7 +5038,7 @@
         <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5125,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H35" t="n">
         <v>1.23</v>
@@ -5143,31 +5143,31 @@
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>1.83</v>
+        <v>3.85</v>
       </c>
       <c r="O35" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R35" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S35" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="U35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="V35" t="n">
         <v>4.3</v>
@@ -5191,7 +5191,7 @@
         <v>50</v>
       </c>
       <c r="AC35" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
         <v>14.5</v>
@@ -5305,7 +5305,7 @@
         <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W36" t="n">
         <v>1.42</v>
@@ -5410,7 +5410,7 @@
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
@@ -5572,7 +5572,7 @@
         <v>1.9</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V38" t="n">
         <v>1.33</v>
@@ -5674,13 +5674,13 @@
         <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="K39" t="n">
         <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
@@ -5695,7 +5695,7 @@
         <v>1.68</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R39" t="n">
         <v>1.25</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G40" t="n">
         <v>2.98</v>
@@ -5806,10 +5806,10 @@
         <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>3.15</v>
@@ -5818,25 +5818,25 @@
         <v>1.59</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="O40" t="n">
         <v>1.55</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S40" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="T40" t="n">
         <v>2.06</v>
@@ -5845,7 +5845,7 @@
         <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
         <v>1.5</v>
@@ -5857,7 +5857,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
         <v>55</v>
@@ -5875,7 +5875,7 @@
         <v>44</v>
       </c>
       <c r="AF40" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG40" t="n">
         <v>14</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="n">
         <v>950</v>
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q41" t="n">
         <v>1.92</v>
@@ -5983,7 +5983,7 @@
         <v>1.54</v>
       </c>
       <c r="W41" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6262,19 +6262,19 @@
         <v>7.8</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AA43" t="n">
         <v>25</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC43" t="n">
         <v>7.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>25</v>
@@ -6283,7 +6283,7 @@
         <v>34</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
         <v>21</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,121 +6328,121 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Arezzo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>1.24</v>
       </c>
       <c r="G44" t="n">
-        <v>5.2</v>
+        <v>1.49</v>
       </c>
       <c r="H44" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="I44" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.85</v>
+        <v>1.09</v>
       </c>
       <c r="K44" t="n">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="O44" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.27</v>
       </c>
       <c r="R44" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="T44" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>1.24</v>
+        <v>3.05</v>
       </c>
       <c r="X44" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
         <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="G45" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H45" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
         <v>3.05</v>
@@ -6496,16 +6496,16 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
@@ -6520,7 +6520,7 @@
         <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
         <v>2.12</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Gubbio</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.26</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S46" t="n">
         <v>2.96</v>
       </c>
-      <c r="I46" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.01</v>
-      </c>
       <c r="T46" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V46" t="n">
-        <v>1.28</v>
+        <v>2.18</v>
       </c>
       <c r="W46" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN46" t="n">
         <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="47">
@@ -6733,127 +6733,127 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Arezzo</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Gubbio</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.24</v>
+        <v>2.48</v>
       </c>
       <c r="G47" t="n">
-        <v>1.49</v>
+        <v>2.86</v>
       </c>
       <c r="H47" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.09</v>
+        <v>2.78</v>
       </c>
       <c r="K47" t="n">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="O47" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.69</v>
+        <v>2.76</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>1.69</v>
+        <v>5.2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W47" t="n">
-        <v>3.05</v>
+        <v>1.55</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL47" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM47" t="n">
         <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,67 +6868,67 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
       <c r="G48" t="n">
-        <v>1000</v>
+        <v>1.15</v>
       </c>
       <c r="H48" t="n">
+        <v>23</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V48" t="n">
         <v>1.04</v>
       </c>
-      <c r="I48" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K48" t="n">
-        <v>950</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W48" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="X48" t="n">
         <v>1000</v>
@@ -6937,49 +6937,49 @@
         <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI48" t="n">
         <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -6988,7 +6988,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,67 +7003,67 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.14</v>
+        <v>1.69</v>
       </c>
       <c r="G49" t="n">
-        <v>1.15</v>
+        <v>1000</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>26</v>
+        <v>2.44</v>
       </c>
       <c r="J49" t="n">
-        <v>12</v>
+        <v>2.62</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>950</v>
       </c>
       <c r="L49" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>14</v>
+        <v>1.52</v>
       </c>
       <c r="O49" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>5.2</v>
+        <v>1.52</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.22</v>
+        <v>2.08</v>
       </c>
       <c r="R49" t="n">
-        <v>2.64</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="T49" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="W49" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7072,49 +7072,49 @@
         <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,112 +7147,112 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H50" t="n">
-        <v>2.18</v>
+        <v>5.7</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K50" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>1.59</v>
+        <v>3.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P50" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="Q50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T50" t="n">
         <v>2.02</v>
       </c>
-      <c r="R50" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V50" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W50" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51">
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G51" t="n">
         <v>3.65</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.75</v>
       </c>
       <c r="H51" t="n">
         <v>2.48</v>
@@ -7297,7 +7297,7 @@
         <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L51" t="n">
         <v>1.57</v>
@@ -7312,7 +7312,7 @@
         <v>1.55</v>
       </c>
       <c r="P51" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q51" t="n">
         <v>2.6</v>
@@ -7333,7 +7333,7 @@
         <v>1.66</v>
       </c>
       <c r="W51" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X51" t="n">
         <v>8.6</v>
@@ -7366,13 +7366,13 @@
         <v>16</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI51" t="n">
         <v>60</v>
       </c>
       <c r="AJ51" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK51" t="n">
         <v>55</v>
@@ -7381,7 +7381,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AN51" t="n">
         <v>80</v>
@@ -7432,7 +7432,7 @@
         <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
         <v>1.48</v>
@@ -7447,10 +7447,10 @@
         <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R52" t="n">
         <v>1.26</v>
@@ -7462,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V52" t="n">
         <v>2.14</v>
@@ -7483,10 +7483,10 @@
         <v>22</v>
       </c>
       <c r="AB52" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD52" t="n">
         <v>11</v>
@@ -7495,10 +7495,10 @@
         <v>25</v>
       </c>
       <c r="AF52" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH52" t="n">
         <v>28</v>
@@ -7555,31 +7555,31 @@
         <v>2.76</v>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J53" t="n">
         <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>1.84</v>
+        <v>3.45</v>
       </c>
       <c r="O53" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P53" t="n">
         <v>1.84</v>
@@ -7588,10 +7588,10 @@
         <v>1.93</v>
       </c>
       <c r="R53" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>1.93</v>
+        <v>2.94</v>
       </c>
       <c r="T53" t="n">
         <v>1.01</v>
@@ -7600,64 +7600,64 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W53" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC53" t="n">
         <v>1000</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH53" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -7702,10 +7702,10 @@
         <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -7717,7 +7717,7 @@
         <v>1.32</v>
       </c>
       <c r="P54" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q54" t="n">
         <v>1.97</v>
@@ -7741,7 +7741,7 @@
         <v>2.84</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y54" t="n">
         <v>24</v>
@@ -7750,7 +7750,7 @@
         <v>75</v>
       </c>
       <c r="AA54" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AB54" t="n">
         <v>7.4</v>
@@ -7762,7 +7762,7 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF54" t="n">
         <v>8.4</v>
@@ -7780,19 +7780,19 @@
         <v>13.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL54" t="n">
         <v>44</v>
       </c>
       <c r="AM54" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN54" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO54" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -7867,7 +7867,7 @@
         <v>1.93</v>
       </c>
       <c r="U55" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V55" t="n">
         <v>1.27</v>
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="G56" t="n">
-        <v>3.95</v>
+        <v>970</v>
       </c>
       <c r="H56" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="I56" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="K56" t="n">
-        <v>5</v>
+        <v>950</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
@@ -7981,22 +7981,22 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O56" t="n">
         <v>1.01</v>
       </c>
       <c r="P56" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R56" t="n">
         <v>1.16</v>
       </c>
       <c r="S56" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T56" t="n">
         <v>1.01</v>
@@ -8008,40 +8008,40 @@
         <v>1.5</v>
       </c>
       <c r="W56" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8050,7 +8050,7 @@
         <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL56" t="n">
         <v>1000</v>
@@ -8095,19 +8095,19 @@
         <v>1.13</v>
       </c>
       <c r="G57" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="H57" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="J57" t="n">
-        <v>1.09</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.27</v>
@@ -8116,85 +8116,85 @@
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P57" t="n">
-        <v>1.27</v>
+        <v>2.52</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.16</v>
+        <v>1.51</v>
       </c>
       <c r="R57" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="S57" t="n">
-        <v>1.16</v>
+        <v>2.22</v>
       </c>
       <c r="T57" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="U57" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="V57" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W57" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG57" t="n">
         <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK57" t="n">
         <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8227,112 +8227,112 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="G58" t="n">
-        <v>500</v>
+        <v>2.62</v>
       </c>
       <c r="H58" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J58" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="K58" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="O58" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P58" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V58" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W58" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="X58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA58" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE58" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL58" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM58" t="n">
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59">
@@ -8392,7 +8392,7 @@
         <v>1.37</v>
       </c>
       <c r="P59" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q59" t="n">
         <v>2.1</v>
@@ -8449,7 +8449,7 @@
         <v>22</v>
       </c>
       <c r="AI59" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ59" t="n">
         <v>19</v>
@@ -8468,6 +8468,141 @@
       </c>
       <c r="AO59" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G2" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
         <v>4.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.66</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>13.5</v>
@@ -751,13 +751,13 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -769,10 +769,10 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
         <v>1.78</v>
       </c>
       <c r="H3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -826,25 +826,25 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>2.66</v>
@@ -856,58 +856,58 @@
         <v>2.28</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1240,13 +1240,13 @@
         <v>1.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R6" t="n">
         <v>1.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
@@ -1354,13 +1354,13 @@
         <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1381,7 +1381,7 @@
         <v>1.37</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.68</v>
@@ -1405,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
         <v>15.5</v>
@@ -1417,7 +1417,7 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
         <v>25</v>
@@ -1426,7 +1426,7 @@
         <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>48</v>
@@ -1447,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>3.65</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.02</v>
@@ -1627,7 +1627,7 @@
         <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.32</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -1663,7 +1663,7 @@
         <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1759,7 +1759,7 @@
         <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
         <v>4.6</v>
@@ -1768,31 +1768,31 @@
         <v>1.24</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
         <v>1.32</v>
@@ -1810,7 +1810,7 @@
         <v>980</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB10" t="n">
         <v>16.5</v>
@@ -1822,10 +1822,10 @@
         <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13.5</v>
@@ -1834,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
         <v>28</v>
@@ -1849,7 +1849,7 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>3.15</v>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
         <v>2.28</v>
@@ -1912,7 +1912,7 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
         <v>1.56</v>
@@ -1921,7 +1921,7 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>1.53</v>
@@ -1930,10 +1930,10 @@
         <v>2.64</v>
       </c>
       <c r="V11" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
@@ -1957,7 +1957,7 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
@@ -1972,7 +1972,7 @@
         <v>28</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK11" t="n">
         <v>980</v>
@@ -1981,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="n">
         <v>19.5</v>
@@ -2020,7 +2020,7 @@
         <v>2.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
         <v>3.05</v>
@@ -2041,7 +2041,7 @@
         <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O12" t="n">
         <v>1.58</v>
@@ -2050,7 +2050,7 @@
         <v>1.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="R12" t="n">
         <v>1.19</v>
@@ -2068,7 +2068,7 @@
         <v>1.47</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>8.199999999999999</v>
@@ -2116,7 +2116,7 @@
         <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
         <v>55</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2176,22 +2176,22 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="T13" t="n">
         <v>1.01</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.37</v>
@@ -2311,10 +2311,10 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
         <v>1.76</v>
@@ -2335,7 +2335,7 @@
         <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.72</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G16" t="n">
         <v>1.79</v>
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
@@ -2575,10 +2575,10 @@
         <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>4.2</v>
@@ -2587,16 +2587,16 @@
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
         <v>1.76</v>
@@ -2605,7 +2605,7 @@
         <v>2.06</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
         <v>2.26</v>
@@ -2623,7 +2623,7 @@
         <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -2635,10 +2635,10 @@
         <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -2659,7 +2659,7 @@
         <v>120</v>
       </c>
       <c r="AN16" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
         <v>90</v>
@@ -2893,7 +2893,7 @@
         <v>150</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC18" t="n">
         <v>7.6</v>
@@ -2980,7 +2980,7 @@
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -3124,7 +3124,7 @@
         <v>1.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
         <v>1.6</v>
@@ -3238,7 +3238,7 @@
         <v>4.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I21" t="n">
         <v>1.94</v>
@@ -3247,10 +3247,10 @@
         <v>4.1</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3262,10 +3262,10 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.59</v>
@@ -3274,16 +3274,16 @@
         <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
         <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X21" t="n">
         <v>24</v>
@@ -3394,16 +3394,16 @@
         <v>4.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
         <v>2.72</v>
@@ -3412,7 +3412,7 @@
         <v>1.59</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3436,16 +3436,16 @@
         <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3469,7 +3469,7 @@
         <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>28</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.42</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.23</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>25</v>
       </c>
-      <c r="AI23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>28</v>
       </c>
-      <c r="AK23" t="n">
-        <v>30</v>
-      </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H24" t="n">
         <v>2.66</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
         <v>2.78</v>
@@ -3655,28 +3655,28 @@
         <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O24" t="n">
         <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
         <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
         <v>1.86</v>
@@ -3685,19 +3685,19 @@
         <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
         <v>60</v>
@@ -3712,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
         <v>23</v>
@@ -3733,7 +3733,7 @@
         <v>46</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM24" t="n">
         <v>150</v>
@@ -3913,7 +3913,7 @@
         <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I26" t="n">
         <v>2.34</v>
@@ -3931,28 +3931,28 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="O26" t="n">
         <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
         <v>1.74</v>
@@ -3967,7 +3967,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA26" t="n">
         <v>36</v>
@@ -4000,7 +4000,7 @@
         <v>110</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="n">
         <v>95</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G27" t="n">
         <v>2.28</v>
       </c>
       <c r="H27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K27" t="n">
         <v>3.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4072,22 +4072,22 @@
         <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U27" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
         <v>1.21</v>
@@ -4099,13 +4099,13 @@
         <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA27" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
@@ -4117,22 +4117,22 @@
         <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF27" t="n">
         <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH27" t="n">
         <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
         <v>32</v>
@@ -4147,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28">
@@ -4183,7 +4183,7 @@
         <v>9</v>
       </c>
       <c r="H28" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I28" t="n">
         <v>1.53</v>
@@ -4225,7 +4225,7 @@
         <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="W28" t="n">
         <v>1.12</v>
@@ -4255,7 +4255,7 @@
         <v>970</v>
       </c>
       <c r="AF28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG28" t="n">
         <v>34</v>
@@ -4267,22 +4267,22 @@
         <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AK28" t="n">
         <v>200</v>
       </c>
       <c r="AL28" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM28" t="n">
         <v>240</v>
       </c>
       <c r="AN28" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -4318,10 +4318,10 @@
         <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I29" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,13 +4330,13 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
@@ -4348,25 +4348,25 @@
         <v>1.91</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W29" t="n">
         <v>1.34</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4378,7 +4378,7 @@
         <v>29</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>8.4</v>
@@ -4387,25 +4387,25 @@
         <v>11.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI29" t="n">
         <v>38</v>
       </c>
       <c r="AJ29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AO29" t="n">
         <v>16.5</v>
@@ -4450,10 +4450,10 @@
         <v>2.7</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I30" t="n">
         <v>3.15</v>
@@ -4465,94 +4465,94 @@
         <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R30" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U30" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G31" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H31" t="n">
         <v>5.6</v>
@@ -4597,7 +4597,7 @@
         <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.4</v>
@@ -4609,7 +4609,7 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
         <v>1.87</v>
@@ -4618,13 +4618,13 @@
         <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
         <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U31" t="n">
         <v>1.89</v>
@@ -4636,7 +4636,7 @@
         <v>2.28</v>
       </c>
       <c r="X31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -4648,7 +4648,7 @@
         <v>200</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
@@ -4747,7 +4747,7 @@
         <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
@@ -4807,7 +4807,7 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK32" t="n">
         <v>55</v>
@@ -4885,7 +4885,7 @@
         <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R33" t="n">
         <v>1.42</v>
@@ -4894,7 +4894,7 @@
         <v>3.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
         <v>2.18</v>
@@ -4954,7 +4954,7 @@
         <v>95</v>
       </c>
       <c r="AN33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO33" t="n">
         <v>65</v>
@@ -4990,7 +4990,7 @@
         <v>1.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
         <v>1.04</v>
@@ -5020,13 +5020,13 @@
         <v>1.79</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T34" t="n">
         <v>1.01</v>
@@ -5038,7 +5038,7 @@
         <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5125,22 +5125,22 @@
         <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" t="n">
         <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J35" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
         <v>7.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -5155,7 +5155,7 @@
         <v>1.99</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R35" t="n">
         <v>1.38</v>
@@ -5164,25 +5164,25 @@
         <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="U35" t="n">
         <v>1.49</v>
       </c>
       <c r="V35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X35" t="n">
         <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA35" t="n">
         <v>10.5</v>
@@ -5287,7 +5287,7 @@
         <v>1.38</v>
       </c>
       <c r="P36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
         <v>2.16</v>
@@ -5305,7 +5305,7 @@
         <v>2.08</v>
       </c>
       <c r="V36" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W36" t="n">
         <v>1.42</v>
@@ -5356,7 +5356,7 @@
         <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN36" t="n">
         <v>42</v>
@@ -5392,16 +5392,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G37" t="n">
         <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I37" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J37" t="n">
         <v>3.35</v>
@@ -5410,13 +5410,13 @@
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
         <v>1.33</v>
@@ -5425,25 +5425,25 @@
         <v>1.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S37" t="n">
         <v>3.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V37" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X37" t="n">
         <v>14.5</v>
@@ -5458,7 +5458,7 @@
         <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
@@ -5491,10 +5491,10 @@
         <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO37" t="n">
         <v>23</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K38" t="n">
         <v>3.4</v>
@@ -5551,34 +5551,34 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U38" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W38" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
@@ -5617,19 +5617,19 @@
         <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AL38" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM38" t="n">
         <v>150</v>
       </c>
       <c r="AN38" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO38" t="n">
         <v>75</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J39" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.98</v>
       </c>
       <c r="K39" t="n">
         <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="U39" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W39" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X39" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB39" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>10</v>
       </c>
       <c r="AC39" t="n">
         <v>7.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK39" t="n">
         <v>40</v>
       </c>
-      <c r="AF39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>36</v>
-      </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO39" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -5806,7 +5806,7 @@
         <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -5821,19 +5821,19 @@
         <v>1.12</v>
       </c>
       <c r="N40" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O40" t="n">
         <v>1.55</v>
       </c>
       <c r="P40" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R40" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S40" t="n">
         <v>5.3</v>
@@ -5845,7 +5845,7 @@
         <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W40" t="n">
         <v>1.5</v>
@@ -5902,7 +5902,7 @@
         <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>1.63</v>
+        <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R41" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S41" t="n">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -6076,7 +6076,7 @@
         <v>4.3</v>
       </c>
       <c r="I42" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J42" t="n">
         <v>4.1</v>
@@ -6100,19 +6100,19 @@
         <v>2.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R42" t="n">
         <v>1.59</v>
       </c>
       <c r="S42" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T42" t="n">
         <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
@@ -6130,10 +6130,10 @@
         <v>38</v>
       </c>
       <c r="AA42" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC42" t="n">
         <v>10.5</v>
@@ -6172,7 +6172,7 @@
         <v>8.4</v>
       </c>
       <c r="AO42" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
@@ -6208,13 +6208,13 @@
         <v>4.9</v>
       </c>
       <c r="H43" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I43" t="n">
         <v>2.1</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
         <v>3.5</v>
@@ -6223,37 +6223,37 @@
         <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
         <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
         <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T43" t="n">
         <v>1.98</v>
       </c>
       <c r="U43" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V43" t="n">
         <v>1.91</v>
       </c>
       <c r="W43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
@@ -6295,7 +6295,7 @@
         <v>140</v>
       </c>
       <c r="AK43" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="n">
         <v>100</v>
@@ -6304,10 +6304,10 @@
         <v>170</v>
       </c>
       <c r="AN43" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -6343,13 +6343,13 @@
         <v>1.49</v>
       </c>
       <c r="H44" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
         <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>1.09</v>
+        <v>2.64</v>
       </c>
       <c r="K44" t="n">
         <v>15</v>
@@ -6361,22 +6361,22 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="O44" t="n">
         <v>1.27</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="R44" t="n">
         <v>1.18</v>
       </c>
       <c r="S44" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="T44" t="n">
         <v>1.01</v>
@@ -6496,16 +6496,16 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="P45" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
@@ -6622,7 +6622,7 @@
         <v>3.85</v>
       </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L46" t="n">
         <v>1.35</v>
@@ -6631,22 +6631,22 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R46" t="n">
         <v>1.42</v>
       </c>
       <c r="S46" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
         <v>1.77</v>
@@ -6664,16 +6664,16 @@
         <v>17.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z46" t="n">
         <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9</v>
@@ -6688,7 +6688,7 @@
         <v>38</v>
       </c>
       <c r="AG46" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH46" t="n">
         <v>19</v>
@@ -6709,7 +6709,7 @@
         <v>120</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="n">
         <v>10.5</v>
@@ -6745,7 +6745,7 @@
         <v>2.48</v>
       </c>
       <c r="G47" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H47" t="n">
         <v>3.25</v>
@@ -6772,7 +6772,7 @@
         <v>1.58</v>
       </c>
       <c r="P47" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q47" t="n">
         <v>2.76</v>
@@ -6787,7 +6787,7 @@
         <v>2.16</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V47" t="n">
         <v>1.34</v>
@@ -6814,7 +6814,7 @@
         <v>8.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE47" t="n">
         <v>75</v>
@@ -6883,10 +6883,10 @@
         <v>1.15</v>
       </c>
       <c r="H48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J48" t="n">
         <v>12</v>
@@ -6895,7 +6895,7 @@
         <v>12.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="M48" t="n">
         <v>1.01</v>
@@ -6922,22 +6922,22 @@
         <v>1.9</v>
       </c>
       <c r="U48" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V48" t="n">
         <v>1.04</v>
       </c>
       <c r="W48" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z48" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
@@ -6949,16 +6949,16 @@
         <v>32</v>
       </c>
       <c r="AD48" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE48" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="n">
         <v>13.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH48" t="n">
         <v>42</v>
@@ -6970,7 +6970,7 @@
         <v>10</v>
       </c>
       <c r="AK48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL48" t="n">
         <v>36</v>
@@ -6979,7 +6979,7 @@
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="G49" t="n">
         <v>1000</v>
@@ -7021,10 +7021,10 @@
         <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="J49" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K49" t="n">
         <v>950</v>
@@ -7036,22 +7036,22 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R49" t="n">
         <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T49" t="n">
         <v>1.01</v>
@@ -7060,7 +7060,7 @@
         <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="W49" t="n">
         <v>1.01</v>
@@ -7150,10 +7150,10 @@
         <v>1.65</v>
       </c>
       <c r="G50" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H50" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I50" t="n">
         <v>8</v>
@@ -7162,7 +7162,7 @@
         <v>3.2</v>
       </c>
       <c r="K50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
         <v>1.39</v>
@@ -7174,13 +7174,13 @@
         <v>3.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P50" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R50" t="n">
         <v>1.26</v>
@@ -7189,28 +7189,28 @@
         <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U50" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V50" t="n">
         <v>1.14</v>
       </c>
       <c r="W50" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y50" t="n">
         <v>21</v>
       </c>
       <c r="Z50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA50" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB50" t="n">
         <v>8.4</v>
@@ -7222,7 +7222,7 @@
         <v>30</v>
       </c>
       <c r="AE50" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF50" t="n">
         <v>11.5</v>
@@ -7234,13 +7234,13 @@
         <v>30</v>
       </c>
       <c r="AI50" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ50" t="n">
         <v>22</v>
       </c>
       <c r="AK50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
         <v>60</v>
@@ -7252,7 +7252,7 @@
         <v>17</v>
       </c>
       <c r="AO50" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51">
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G52" t="n">
         <v>5.9</v>
@@ -7444,13 +7444,13 @@
         <v>3.05</v>
       </c>
       <c r="O52" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P52" t="n">
         <v>1.69</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
         <v>1.26</v>
@@ -7522,7 +7522,7 @@
         <v>150</v>
       </c>
       <c r="AO52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -7552,64 +7552,64 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G53" t="n">
         <v>3.4</v>
       </c>
       <c r="H53" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I53" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K53" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L53" t="n">
         <v>1.35</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O53" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="R53" t="n">
         <v>1.35</v>
       </c>
       <c r="S53" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V53" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W53" t="n">
         <v>1.45</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z53" t="n">
         <v>22</v>
@@ -7618,10 +7618,10 @@
         <v>48</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD53" t="n">
         <v>15</v>
@@ -7645,7 +7645,7 @@
         <v>60</v>
       </c>
       <c r="AK53" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL53" t="n">
         <v>55</v>
@@ -7657,7 +7657,7 @@
         <v>36</v>
       </c>
       <c r="AO53" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -7690,10 +7690,10 @@
         <v>1.53</v>
       </c>
       <c r="G54" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="I54" t="n">
         <v>9.6</v>
@@ -7702,7 +7702,7 @@
         <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L54" t="n">
         <v>1.32</v>
@@ -7714,10 +7714,10 @@
         <v>3.6</v>
       </c>
       <c r="O54" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P54" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q54" t="n">
         <v>1.97</v>
@@ -7726,31 +7726,31 @@
         <v>1.34</v>
       </c>
       <c r="S54" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T54" t="n">
         <v>2.12</v>
       </c>
       <c r="U54" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V54" t="n">
         <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="X54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y54" t="n">
         <v>24</v>
       </c>
       <c r="Z54" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AA54" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AB54" t="n">
         <v>7.4</v>
@@ -7759,10 +7759,10 @@
         <v>10.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE54" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF54" t="n">
         <v>8.4</v>
@@ -7774,13 +7774,13 @@
         <v>28</v>
       </c>
       <c r="AI54" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL54" t="n">
         <v>44</v>
@@ -7789,7 +7789,7 @@
         <v>210</v>
       </c>
       <c r="AN54" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO54" t="n">
         <v>260</v>
@@ -7825,13 +7825,13 @@
         <v>2.08</v>
       </c>
       <c r="G55" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H55" t="n">
         <v>4.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J55" t="n">
         <v>3.25</v>
@@ -7846,34 +7846,34 @@
         <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P55" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R55" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T55" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="U55" t="n">
         <v>1.94</v>
       </c>
       <c r="V55" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W55" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X55" t="n">
         <v>10.5</v>
@@ -7888,10 +7888,10 @@
         <v>100</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD55" t="n">
         <v>17.5</v>
@@ -7921,10 +7921,10 @@
         <v>48</v>
       </c>
       <c r="AM55" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN55" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO55" t="n">
         <v>80</v>
@@ -7957,112 +7957,112 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>970</v>
+        <v>3.95</v>
       </c>
       <c r="H56" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="J56" t="n">
         <v>2.8</v>
       </c>
       <c r="K56" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>1.57</v>
+        <v>2.96</v>
       </c>
       <c r="O56" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R56" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V56" t="n">
         <v>1.5</v>
       </c>
       <c r="W56" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="X56" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB56" t="n">
         <v>13</v>
       </c>
-      <c r="Z56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>16</v>
-      </c>
       <c r="AC56" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD56" t="n">
         <v>970</v>
       </c>
       <c r="AE56" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF56" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG56" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH56" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57">
@@ -8104,7 +8104,7 @@
         <v>38</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K57" t="n">
         <v>12.5</v>
@@ -8119,22 +8119,22 @@
         <v>5.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q57" t="n">
         <v>1.51</v>
       </c>
       <c r="R57" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S57" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T57" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="U57" t="n">
         <v>1.51</v>
@@ -8176,7 +8176,7 @@
         <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI57" t="n">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="G58" t="n">
         <v>2.62</v>
@@ -8236,7 +8236,7 @@
         <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J58" t="n">
         <v>2.94</v>
@@ -8248,22 +8248,22 @@
         <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O58" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P58" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q58" t="n">
         <v>2.22</v>
       </c>
       <c r="R58" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S58" t="n">
         <v>4.3</v>
@@ -8272,10 +8272,10 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V58" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W58" t="n">
         <v>1.63</v>
@@ -8380,7 +8380,7 @@
         <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M59" t="n">
         <v>1.09</v>
@@ -8404,7 +8404,7 @@
         <v>3.85</v>
       </c>
       <c r="T59" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U59" t="n">
         <v>1.96</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.85</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.91</v>
-      </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,10 +691,10 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.26</v>
@@ -703,28 +703,28 @@
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
         <v>36</v>
@@ -736,16 +736,16 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -757,7 +757,7 @@
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>18</v>
@@ -766,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>44</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
         <v>1.78</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -826,88 +826,88 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="S3" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1.56</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,61 +1255,61 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>680</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.72</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
         <v>22</v>
       </c>
-      <c r="AA7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="AE7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>680</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.26</v>
+        <v>3.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,105 +1598,105 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>1.26</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>1.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1717,13 +1717,13 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Muangthong Utd</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ayutthaya United</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>2.14</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V10" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Muangthong Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Ayutthaya United</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
-        <v>2.28</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="T11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U11" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
         <v>32</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
         <v>980</v>
       </c>
-      <c r="AB11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI11" t="n">
         <v>980</v>
       </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>28</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL11" t="n">
         <v>980</v>
       </c>
-      <c r="AK11" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>42</v>
-      </c>
       <c r="AM11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>3.15</v>
+        <v>2.32</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.59</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>2.66</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.18</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>2.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.47</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="X12" t="n">
-        <v>8.199999999999999</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="AJ12" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>2.58</v>
@@ -2167,97 +2167,97 @@
         <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>1.94</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
         <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14">
@@ -2305,34 +2305,34 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
         <v>1.32</v>
@@ -2374,7 +2374,7 @@
         <v>980</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>980</v>
@@ -2383,22 +2383,22 @@
         <v>980</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
         <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>1.02</v>
+        <v>5.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
@@ -2851,7 +2851,7 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O18" t="n">
         <v>1.51</v>
@@ -2878,7 +2878,7 @@
         <v>1.24</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X18" t="n">
         <v>9.199999999999999</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G19" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.05</v>
@@ -2977,7 +2977,7 @@
         <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
         <v>1.53</v>
@@ -2992,7 +2992,7 @@
         <v>1.46</v>
       </c>
       <c r="P19" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q19" t="n">
         <v>2.34</v>
@@ -3013,7 +3013,7 @@
         <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="O20" t="n">
         <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="T20" t="n">
         <v>1.72</v>
@@ -3262,7 +3262,7 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
         <v>1.6</v>
@@ -3382,37 +3382,37 @@
         <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
         <v>2.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S22" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
         <v>1.4</v>
@@ -3442,7 +3442,7 @@
         <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
         <v>970</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
         <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O23" t="n">
         <v>1.42</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
         <v>2.06</v>
       </c>
       <c r="X23" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="n">
         <v>55</v>
       </c>
       <c r="AA23" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
         <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
         <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
         <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
@@ -3646,7 +3646,7 @@
         <v>2.66</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>2.78</v>
@@ -3919,7 +3919,7 @@
         <v>2.34</v>
       </c>
       <c r="J26" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3931,31 +3931,31 @@
         <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="Q26" t="n">
         <v>2.44</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
         <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
         <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -3994,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="n">
         <v>110</v>
@@ -4192,7 +4192,7 @@
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.4</v>
@@ -4336,28 +4336,28 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O29" t="n">
         <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T29" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
         <v>1.81</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H30" t="n">
         <v>2.9</v>
@@ -4465,22 +4465,22 @@
         <v>3.25</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P30" t="n">
         <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
         <v>1.24</v>
@@ -4498,7 +4498,7 @@
         <v>1.46</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X30" t="n">
         <v>11</v>
@@ -4549,10 +4549,10 @@
         <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>1.64</v>
       </c>
       <c r="G31" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H31" t="n">
         <v>5.6</v>
@@ -4870,7 +4870,7 @@
         <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5125,7 +5125,7 @@
         <v>15</v>
       </c>
       <c r="G35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35" t="n">
         <v>1.23</v>
@@ -5263,7 +5263,7 @@
         <v>3.4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I36" t="n">
         <v>2.46</v>
@@ -5275,7 +5275,7 @@
         <v>3.45</v>
       </c>
       <c r="L36" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
@@ -5398,7 +5398,7 @@
         <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I37" t="n">
         <v>2.5</v>
@@ -5407,7 +5407,7 @@
         <v>3.35</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.42</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G38" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
@@ -5551,28 +5551,28 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U38" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>1.34</v>
@@ -5632,7 +5632,7 @@
         <v>28</v>
       </c>
       <c r="AO38" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I39" t="n">
         <v>2.68</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>3.05</v>
@@ -5680,7 +5680,7 @@
         <v>3.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M39" t="n">
         <v>1.07</v>
@@ -5692,82 +5692,82 @@
         <v>1.41</v>
       </c>
       <c r="P39" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R39" t="n">
         <v>1.27</v>
       </c>
       <c r="S39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
         <v>1.98</v>
       </c>
       <c r="V39" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="W39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
         <v>12</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>11.5</v>
       </c>
       <c r="AC39" t="n">
         <v>7.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
         <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
         <v>140</v>
       </c>
       <c r="AN39" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -5806,10 +5806,10 @@
         <v>2.9</v>
       </c>
       <c r="I40" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.05</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>3.15</v>
@@ -5818,34 +5818,34 @@
         <v>1.59</v>
       </c>
       <c r="M40" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="O40" t="n">
         <v>1.55</v>
       </c>
       <c r="P40" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R40" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S40" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="T40" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U40" t="n">
         <v>1.82</v>
       </c>
       <c r="V40" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W40" t="n">
         <v>1.5</v>
@@ -5935,7 +5935,7 @@
         <v>3.2</v>
       </c>
       <c r="G41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H41" t="n">
         <v>2.3</v>
@@ -5944,7 +5944,7 @@
         <v>2.56</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
         <v>3.65</v>
@@ -5959,7 +5959,7 @@
         <v>3.2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
         <v>1.75</v>
@@ -5983,7 +5983,7 @@
         <v>1.64</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="G42" t="n">
         <v>1.86</v>
@@ -6082,7 +6082,7 @@
         <v>4.1</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.28</v>
@@ -6103,16 +6103,16 @@
         <v>1.59</v>
       </c>
       <c r="R42" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S42" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T42" t="n">
         <v>1.6</v>
       </c>
       <c r="U42" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V42" t="n">
         <v>1.27</v>
@@ -6220,10 +6220,10 @@
         <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.1</v>
@@ -6232,19 +6232,19 @@
         <v>1.42</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U43" t="n">
         <v>1.9</v>
@@ -6472,112 +6472,112 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="G45" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>1.57</v>
+        <v>2.98</v>
       </c>
       <c r="O45" t="n">
         <v>1.38</v>
       </c>
       <c r="P45" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S45" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W45" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
@@ -6610,19 +6610,19 @@
         <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="H46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I46" t="n">
         <v>1.83</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.84</v>
       </c>
       <c r="J46" t="n">
         <v>3.85</v>
       </c>
       <c r="K46" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
         <v>1.35</v>
@@ -6643,7 +6643,7 @@
         <v>1.84</v>
       </c>
       <c r="R46" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S46" t="n">
         <v>3</v>
@@ -6655,10 +6655,10 @@
         <v>2.18</v>
       </c>
       <c r="V46" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W46" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X46" t="n">
         <v>17.5</v>
@@ -6709,7 +6709,7 @@
         <v>120</v>
       </c>
       <c r="AN46" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO46" t="n">
         <v>10.5</v>
@@ -6883,16 +6883,16 @@
         <v>1.15</v>
       </c>
       <c r="H48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I48" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J48" t="n">
         <v>12</v>
       </c>
       <c r="K48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L48" t="n">
         <v>1.14</v>
@@ -6922,58 +6922,58 @@
         <v>1.9</v>
       </c>
       <c r="U48" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V48" t="n">
         <v>1.04</v>
       </c>
       <c r="W48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X48" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y48" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z48" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC48" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AD48" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE48" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK48" t="n">
         <v>16.5</v>
       </c>
-      <c r="AH48" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL48" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G49" t="n">
         <v>1000</v>
@@ -7021,10 +7021,10 @@
         <v>1.04</v>
       </c>
       <c r="I49" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="J49" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="K49" t="n">
         <v>950</v>
@@ -7036,22 +7036,22 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>1.18</v>
       </c>
       <c r="S49" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T49" t="n">
         <v>1.01</v>
@@ -7060,7 +7060,7 @@
         <v>1.01</v>
       </c>
       <c r="V49" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
         <v>1.01</v>
@@ -7147,100 +7147,100 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G50" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L50" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
         <v>1.75</v>
       </c>
       <c r="V50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W50" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA50" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AB50" t="n">
         <v>8.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE50" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG50" t="n">
         <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI50" t="n">
         <v>140</v>
       </c>
       <c r="AJ50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK50" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL50" t="n">
         <v>60</v>
@@ -7249,10 +7249,10 @@
         <v>210</v>
       </c>
       <c r="AN50" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
@@ -7324,7 +7324,7 @@
         <v>5.3</v>
       </c>
       <c r="T51" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U51" t="n">
         <v>1.84</v>
@@ -7420,19 +7420,19 @@
         <v>5.2</v>
       </c>
       <c r="G52" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I52" t="n">
         <v>1.87</v>
       </c>
       <c r="J52" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.48</v>
@@ -7459,7 +7459,7 @@
         <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U52" t="n">
         <v>1.84</v>
@@ -7468,7 +7468,7 @@
         <v>2.14</v>
       </c>
       <c r="W52" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X52" t="n">
         <v>12</v>
@@ -7552,49 +7552,49 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G53" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H53" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I53" t="n">
         <v>2.84</v>
       </c>
       <c r="J53" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L53" t="n">
         <v>1.35</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P53" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="R53" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S53" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U53" t="n">
         <v>2.12</v>
@@ -7603,13 +7603,13 @@
         <v>1.54</v>
       </c>
       <c r="W53" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X53" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
         <v>22</v>
@@ -7618,7 +7618,7 @@
         <v>48</v>
       </c>
       <c r="AB53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC53" t="n">
         <v>9.6</v>
@@ -7645,7 +7645,7 @@
         <v>60</v>
       </c>
       <c r="AK53" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL53" t="n">
         <v>55</v>
@@ -7657,7 +7657,7 @@
         <v>36</v>
       </c>
       <c r="AO53" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -7690,7 +7690,7 @@
         <v>1.53</v>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H54" t="n">
         <v>7.4</v>
@@ -7702,25 +7702,25 @@
         <v>4.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L54" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
       </c>
       <c r="N54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O54" t="n">
         <v>1.33</v>
       </c>
       <c r="P54" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R54" t="n">
         <v>1.34</v>
@@ -7738,7 +7738,7 @@
         <v>1.12</v>
       </c>
       <c r="W54" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X54" t="n">
         <v>17.5</v>
@@ -7747,7 +7747,7 @@
         <v>24</v>
       </c>
       <c r="Z54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA54" t="n">
         <v>350</v>
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G55" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H55" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I55" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
         <v>3.25</v>
@@ -7849,19 +7849,19 @@
         <v>3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P55" t="n">
         <v>1.67</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S55" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T55" t="n">
         <v>1.96</v>
@@ -7870,10 +7870,10 @@
         <v>1.94</v>
       </c>
       <c r="V55" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W55" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X55" t="n">
         <v>10.5</v>
@@ -7921,7 +7921,7 @@
         <v>48</v>
       </c>
       <c r="AM55" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="n">
         <v>22</v>
@@ -7966,7 +7966,7 @@
         <v>2.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="J56" t="n">
         <v>2.8</v>
@@ -7978,25 +7978,25 @@
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P56" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="R56" t="n">
         <v>1.25</v>
       </c>
       <c r="S56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T56" t="n">
         <v>1.86</v>
@@ -8005,10 +8005,10 @@
         <v>1.92</v>
       </c>
       <c r="V56" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="W56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X56" t="n">
         <v>970</v>
@@ -8044,7 +8044,7 @@
         <v>24</v>
       </c>
       <c r="AI56" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ56" t="n">
         <v>75</v>
@@ -8053,10 +8053,10 @@
         <v>55</v>
       </c>
       <c r="AL56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM56" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="n">
         <v>60</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G57" t="n">
         <v>1.18</v>
       </c>
       <c r="H57" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I57" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J57" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="K57" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.27</v>
@@ -8116,7 +8116,7 @@
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O57" t="n">
         <v>1.18</v>
@@ -8131,28 +8131,28 @@
         <v>1.6</v>
       </c>
       <c r="S57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T57" t="n">
         <v>2.6</v>
       </c>
       <c r="U57" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W57" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
       </c>
       <c r="Y57" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z57" t="n">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
@@ -8164,7 +8164,7 @@
         <v>980</v>
       </c>
       <c r="AD57" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE57" t="n">
         <v>1000</v>
@@ -8176,10 +8176,10 @@
         <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ57" t="n">
         <v>8.199999999999999</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="G58" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="H58" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I58" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J58" t="n">
         <v>2.94</v>
@@ -8251,16 +8251,16 @@
         <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="O58" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P58" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R58" t="n">
         <v>1.21</v>
@@ -8272,13 +8272,13 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V58" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W58" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="X58" t="n">
         <v>970</v>
@@ -8287,10 +8287,10 @@
         <v>970</v>
       </c>
       <c r="Z58" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA58" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB58" t="n">
         <v>970</v>
@@ -8314,7 +8314,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ58" t="n">
         <v>44</v>
@@ -8332,7 +8332,7 @@
         <v>40</v>
       </c>
       <c r="AO58" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -8386,13 +8386,13 @@
         <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.37</v>
       </c>
       <c r="P59" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q59" t="n">
         <v>2.1</v>
@@ -8404,7 +8404,7 @@
         <v>3.85</v>
       </c>
       <c r="T59" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U59" t="n">
         <v>1.96</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
         <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,22 +691,22 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T2" t="n">
         <v>1.7</v>
@@ -751,7 +751,7 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
@@ -769,7 +769,7 @@
         <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO2" t="n">
         <v>44</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.9</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.16</v>
@@ -835,19 +835,19 @@
         <v>2.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
         <v>1.77</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -1132,7 +1132,7 @@
         <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>50</v>
@@ -1147,16 +1147,16 @@
         <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AG5" t="n">
         <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
@@ -1165,7 +1165,7 @@
         <v>70</v>
       </c>
       <c r="AK5" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AL5" t="n">
         <v>70</v>
@@ -1177,7 +1177,7 @@
         <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
@@ -1348,7 +1348,7 @@
         <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="I7" t="n">
         <v>1.61</v>
@@ -1486,10 +1486,10 @@
         <v>1.52</v>
       </c>
       <c r="I8" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K8" t="n">
         <v>4.7</v>
@@ -1498,7 +1498,7 @@
         <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>3.05</v>
@@ -1507,7 +1507,7 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="Q8" t="n">
         <v>1.89</v>
@@ -1525,7 +1525,7 @@
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="W8" t="n">
         <v>1.12</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
         <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1663,16 +1663,16 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X9" t="n">
         <v>50</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1681,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD9" t="n">
-        <v>510</v>
+        <v>360</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>38</v>
       </c>
       <c r="AH9" t="n">
-        <v>700</v>
+        <v>510</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>17.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1786,10 +1786,10 @@
         <v>2.46</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="U10" t="n">
         <v>1.43</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I11" t="n">
         <v>2.74</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.78</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -1912,10 +1912,10 @@
         <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
         <v>1.37</v>
@@ -1930,10 +1930,10 @@
         <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2041,67 +2041,67 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
         <v>27</v>
       </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2164,7 +2164,7 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2317,10 +2317,10 @@
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>1.65</v>
@@ -2332,61 +2332,61 @@
         <v>1.53</v>
       </c>
       <c r="U14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="V14" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="W14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA14" t="n">
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
       </c>
       <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>42</v>
-      </c>
       <c r="AM14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
         <v>19.5</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
@@ -2440,43 +2440,43 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P15" t="n">
         <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
         <v>5.7</v>
       </c>
       <c r="T15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.47</v>
       </c>
       <c r="W15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y15" t="n">
         <v>8.6</v>
@@ -2512,7 +2512,7 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="n">
         <v>44</v>
@@ -2695,13 +2695,13 @@
         <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.1</v>
@@ -2740,10 +2740,10 @@
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2869,7 +2869,7 @@
         <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
@@ -2890,7 +2890,7 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,19 +2902,19 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
@@ -3103,13 +3103,13 @@
         <v>1.32</v>
       </c>
       <c r="H20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
         <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
@@ -3121,7 +3121,7 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
@@ -3136,25 +3136,25 @@
         <v>1.61</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
         <v>1.05</v>
       </c>
       <c r="W20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
         <v>65</v>
@@ -3175,10 +3175,10 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
         <v>980</v>
@@ -3187,13 +3187,13 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
         <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3265,13 +3265,13 @@
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S21" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3400,13 +3400,13 @@
         <v>1.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>1.08</v>
       </c>
       <c r="S22" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3508,16 +3508,16 @@
         <v>1.96</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.55</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
@@ -3538,40 +3538,40 @@
         <v>2.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S23" t="n">
         <v>5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
         <v>1.77</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
         <v>2.04</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="n">
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.3</v>
@@ -3658,7 +3658,7 @@
         <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
         <v>2.9</v>
@@ -3670,16 +3670,16 @@
         <v>1.68</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
         <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
         <v>1.92</v>
@@ -3703,7 +3703,7 @@
         <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC24" t="n">
         <v>7.2</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3802,82 +3802,82 @@
         <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T25" t="n">
         <v>1.81</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G26" t="n">
         <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="I26" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
         <v>4.4</v>
@@ -3931,31 +3931,31 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.61</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S26" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="V26" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -3997,13 +3997,13 @@
         <v>28</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="n">
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM26" t="n">
         <v>65</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -4081,7 +4081,7 @@
         <v>1.49</v>
       </c>
       <c r="S27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T27" t="n">
         <v>1.62</v>
@@ -4093,16 +4093,16 @@
         <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
         <v>60</v>
@@ -4129,16 +4129,16 @@
         <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
@@ -4147,7 +4147,7 @@
         <v>14.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G28" t="n">
         <v>2.14</v>
@@ -4195,25 +4195,25 @@
         <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
         <v>4.1</v>
@@ -4225,7 +4225,7 @@
         <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
         <v>1.87</v>
@@ -4261,13 +4261,13 @@
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI28" t="n">
         <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK28" t="n">
         <v>27</v>
@@ -4318,19 +4318,19 @@
         <v>3.35</v>
       </c>
       <c r="H29" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K29" t="n">
         <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
@@ -4345,13 +4345,13 @@
         <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
         <v>1.86</v>
@@ -4384,7 +4384,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
         <v>980</v>
@@ -4408,7 +4408,7 @@
         <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
         <v>150</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G30" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="H30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I30" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
         <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4480,7 +4480,7 @@
         <v>1.74</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
         <v>1.27</v>
@@ -4495,10 +4495,10 @@
         <v>1.59</v>
       </c>
       <c r="V30" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -4522,7 +4522,7 @@
         <v>980</v>
       </c>
       <c r="AE30" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="n">
         <v>8.6</v>
@@ -4594,13 +4594,13 @@
         <v>2.34</v>
       </c>
       <c r="J31" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K31" t="n">
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4630,10 +4630,10 @@
         <v>1.73</v>
       </c>
       <c r="V31" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
@@ -4726,7 +4726,7 @@
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
         <v>2.88</v>
@@ -4735,7 +4735,7 @@
         <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4879,10 +4879,10 @@
         <v>3.55</v>
       </c>
       <c r="O33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P33" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q33" t="n">
         <v>2.02</v>
@@ -4891,7 +4891,7 @@
         <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
         <v>2.16</v>
@@ -4906,7 +4906,7 @@
         <v>1.12</v>
       </c>
       <c r="X33" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
         <v>7.4</v>
@@ -4915,7 +4915,7 @@
         <v>8</v>
       </c>
       <c r="AA33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB33" t="n">
         <v>25</v>
@@ -4930,7 +4930,7 @@
         <v>17</v>
       </c>
       <c r="AF33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="n">
         <v>34</v>
@@ -4957,7 +4957,7 @@
         <v>250</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G34" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5011,7 +5011,7 @@
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
         <v>1.43</v>
@@ -5032,13 +5032,13 @@
         <v>1.89</v>
       </c>
       <c r="U34" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V34" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X34" t="n">
         <v>11</v>
@@ -5077,7 +5077,7 @@
         <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
         <v>38</v>
@@ -5092,7 +5092,7 @@
         <v>40</v>
       </c>
       <c r="AO34" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="G35" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
@@ -5149,13 +5149,13 @@
         <v>3.55</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
         <v>1.34</v>
@@ -5164,61 +5164,61 @@
         <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
         <v>2.06</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AB35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI35" t="n">
         <v>40</v>
       </c>
       <c r="AJ35" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>110</v>
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G36" t="n">
         <v>1.76</v>
@@ -5269,7 +5269,7 @@
         <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5290,7 +5290,7 @@
         <v>1.87</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R36" t="n">
         <v>1.33</v>
@@ -5299,7 +5299,7 @@
         <v>3.35</v>
       </c>
       <c r="T36" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U36" t="n">
         <v>1.89</v>
@@ -5308,7 +5308,7 @@
         <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -5395,13 +5395,13 @@
         <v>3.7</v>
       </c>
       <c r="G37" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I37" t="n">
         <v>2.16</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.18</v>
       </c>
       <c r="J37" t="n">
         <v>3.65</v>
@@ -5410,19 +5410,19 @@
         <v>3.75</v>
       </c>
       <c r="L37" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
         <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q37" t="n">
         <v>1.9</v>
@@ -5431,7 +5431,7 @@
         <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T37" t="n">
         <v>1.73</v>
@@ -5440,25 +5440,25 @@
         <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W37" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X37" t="n">
         <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
         <v>14.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
@@ -5476,10 +5476,10 @@
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI37" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ37" t="n">
         <v>75</v>
@@ -5497,7 +5497,7 @@
         <v>42</v>
       </c>
       <c r="AO37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="38">
@@ -5530,7 +5530,7 @@
         <v>1.93</v>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H38" t="n">
         <v>4.3</v>
@@ -5578,7 +5578,7 @@
         <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X38" t="n">
         <v>15.5</v>
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="H39" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="I39" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.71</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R39" t="n">
         <v>1.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="W39" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,34 +5797,34 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G40" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H40" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.6</v>
       </c>
-      <c r="I40" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K40" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
         <v>1.3</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P40" t="n">
         <v>1.79</v>
@@ -5833,10 +5833,10 @@
         <v>1.76</v>
       </c>
       <c r="R40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S40" t="n">
-        <v>2.8</v>
+        <v>1.76</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5845,19 +5845,19 @@
         <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="X40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
         <v>150</v>
@@ -5869,7 +5869,7 @@
         <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
         <v>85</v>
@@ -5881,25 +5881,25 @@
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
         <v>85</v>
       </c>
       <c r="AJ40" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM40" t="n">
         <v>130</v>
       </c>
       <c r="AN40" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>95</v>
@@ -5932,13 +5932,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="I41" t="n">
         <v>1.37</v>
@@ -5947,22 +5947,22 @@
         <v>5.2</v>
       </c>
       <c r="K41" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q41" t="n">
         <v>1.98</v>
@@ -5974,31 +5974,31 @@
         <v>3.55</v>
       </c>
       <c r="T41" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U41" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="V41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="W41" t="n">
         <v>1.07</v>
       </c>
       <c r="X41" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z41" t="n">
         <v>7.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AC41" t="n">
         <v>14.5</v>
@@ -6007,16 +6007,16 @@
         <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AF41" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
         <v>65</v>
@@ -6025,13 +6025,13 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AL41" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="AM41" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
@@ -6070,7 +6070,7 @@
         <v>2.26</v>
       </c>
       <c r="G42" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
@@ -6118,7 +6118,7 @@
         <v>1.35</v>
       </c>
       <c r="W42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
@@ -6163,7 +6163,7 @@
         <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM42" t="n">
         <v>150</v>
@@ -6226,7 +6226,7 @@
         <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O43" t="n">
         <v>1.38</v>
@@ -6235,10 +6235,10 @@
         <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R43" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S43" t="n">
         <v>4.1</v>
@@ -6289,7 +6289,7 @@
         <v>18.5</v>
       </c>
       <c r="AI43" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ43" t="n">
         <v>60</v>
@@ -6340,109 +6340,109 @@
         <v>3.15</v>
       </c>
       <c r="G44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.45</v>
       </c>
-      <c r="H44" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L44" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W44" t="n">
         <v>1.42</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U44" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.41</v>
-      </c>
       <c r="X44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG44" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA44" t="n">
+      <c r="AH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK44" t="n">
         <v>36</v>
       </c>
-      <c r="AB44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>40</v>
-      </c>
       <c r="AL44" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO44" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="45">
@@ -6475,16 +6475,16 @@
         <v>3.2</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="I45" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
         <v>3.2</v>
@@ -6517,10 +6517,10 @@
         <v>1.84</v>
       </c>
       <c r="U45" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V45" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6535,13 +6535,13 @@
         <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB45" t="n">
         <v>12</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD45" t="n">
         <v>12.5</v>
@@ -6562,7 +6562,7 @@
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
         <v>1000</v>
@@ -6574,10 +6574,10 @@
         <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -6607,109 +6607,109 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G46" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L46" t="n">
         <v>1.59</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O46" t="n">
         <v>1.55</v>
       </c>
       <c r="P46" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="R46" t="n">
         <v>1.2</v>
       </c>
       <c r="S46" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T46" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U46" t="n">
         <v>1.82</v>
       </c>
       <c r="V46" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W46" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X46" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AA46" t="n">
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD46" t="n">
         <v>14</v>
       </c>
       <c r="AE46" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF46" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AG46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI46" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ46" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK46" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL46" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM46" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO46" t="n">
         <v>55</v>
@@ -6751,7 +6751,7 @@
         <v>2.32</v>
       </c>
       <c r="I47" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J47" t="n">
         <v>3.2</v>
@@ -6769,7 +6769,7 @@
         <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
         <v>1.75</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G48" t="n">
         <v>1.88</v>
@@ -6886,10 +6886,10 @@
         <v>4.3</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>4.4</v>
@@ -6907,7 +6907,7 @@
         <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q48" t="n">
         <v>1.6</v>
@@ -6922,7 +6922,7 @@
         <v>1.6</v>
       </c>
       <c r="U48" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
         <v>1.28</v>
@@ -6976,7 +6976,7 @@
         <v>27</v>
       </c>
       <c r="AM48" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="n">
         <v>8.4</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
@@ -7060,10 +7060,10 @@
         <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W49" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X49" t="n">
         <v>11</v>
@@ -7072,19 +7072,19 @@
         <v>7.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
         <v>25</v>
       </c>
       <c r="AB49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
         <v>7.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
         <v>25</v>
@@ -7093,7 +7093,7 @@
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
         <v>21</v>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G50" t="n">
         <v>1.34</v>
@@ -7159,7 +7159,7 @@
         <v>20</v>
       </c>
       <c r="J50" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="K50" t="n">
         <v>6.6</v>
@@ -7180,10 +7180,10 @@
         <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R50" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S50" t="n">
         <v>2.96</v>
@@ -7291,10 +7291,10 @@
         <v>6.2</v>
       </c>
       <c r="I51" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
@@ -7423,16 +7423,16 @@
         <v>5.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I52" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7447,10 +7447,10 @@
         <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R52" t="n">
         <v>1.43</v>
@@ -7465,7 +7465,7 @@
         <v>2.18</v>
       </c>
       <c r="V52" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W52" t="n">
         <v>1.24</v>
@@ -7495,10 +7495,10 @@
         <v>18.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH52" t="n">
         <v>19</v>
@@ -7516,10 +7516,10 @@
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO52" t="n">
         <v>10.5</v>
@@ -7693,13 +7693,13 @@
         <v>1.14</v>
       </c>
       <c r="H54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
         <v>13</v>
@@ -7717,7 +7717,7 @@
         <v>1.06</v>
       </c>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Q54" t="n">
         <v>1.21</v>
@@ -7729,25 +7729,25 @@
         <v>1.56</v>
       </c>
       <c r="T54" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V54" t="n">
         <v>1.03</v>
       </c>
       <c r="W54" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X54" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="n">
         <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
@@ -7756,13 +7756,13 @@
         <v>25</v>
       </c>
       <c r="AC54" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AD54" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="AE54" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="n">
         <v>13.5</v>
@@ -7771,7 +7771,7 @@
         <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
@@ -7789,7 +7789,7 @@
         <v>1000</v>
       </c>
       <c r="AN54" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7969,7 +7969,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K56" t="n">
         <v>4.3</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G57" t="n">
         <v>3.6</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3.65</v>
       </c>
       <c r="H57" t="n">
         <v>2.48</v>
       </c>
       <c r="I57" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J57" t="n">
         <v>3.1</v>
@@ -8137,13 +8137,13 @@
         <v>2.14</v>
       </c>
       <c r="U57" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V57" t="n">
         <v>1.66</v>
       </c>
       <c r="W57" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X57" t="n">
         <v>8.6</v>
@@ -8230,16 +8230,16 @@
         <v>5.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H58" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I58" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>3.75</v>
@@ -8260,7 +8260,7 @@
         <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R58" t="n">
         <v>1.26</v>
@@ -8275,7 +8275,7 @@
         <v>1.84</v>
       </c>
       <c r="V58" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="W58" t="n">
         <v>1.21</v>
@@ -8293,7 +8293,7 @@
         <v>22</v>
       </c>
       <c r="AB58" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC58" t="n">
         <v>8.4</v>
@@ -8503,7 +8503,7 @@
         <v>1.55</v>
       </c>
       <c r="H60" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I60" t="n">
         <v>9</v>
@@ -8515,7 +8515,7 @@
         <v>4.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8635,10 +8635,10 @@
         <v>2.1</v>
       </c>
       <c r="G61" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H61" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I61" t="n">
         <v>4.6</v>
@@ -8662,7 +8662,7 @@
         <v>1.44</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q61" t="n">
         <v>2.3</v>
@@ -8674,16 +8674,16 @@
         <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U61" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V61" t="n">
         <v>1.27</v>
       </c>
       <c r="W61" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X61" t="n">
         <v>10.5</v>
@@ -8719,7 +8719,7 @@
         <v>20</v>
       </c>
       <c r="AI61" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ61" t="n">
         <v>26</v>
@@ -8806,7 +8806,7 @@
         <v>1.26</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T62" t="n">
         <v>1.84</v>
@@ -8941,7 +8941,7 @@
         <v>1.59</v>
       </c>
       <c r="S63" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T63" t="n">
         <v>2.6</v>
@@ -9055,7 +9055,7 @@
         <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.78</v>
       </c>
-      <c r="G65" t="n">
-        <v>1.79</v>
-      </c>
       <c r="H65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I65" t="n">
         <v>5.8</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.9</v>
       </c>
       <c r="J65" t="n">
         <v>3.75</v>
@@ -9217,22 +9217,22 @@
         <v>1.99</v>
       </c>
       <c r="U65" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V65" t="n">
         <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z65" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA65" t="n">
         <v>160</v>
@@ -9253,7 +9253,7 @@
         <v>9.6</v>
       </c>
       <c r="AG65" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH65" t="n">
         <v>22</v>
@@ -9271,7 +9271,7 @@
         <v>40</v>
       </c>
       <c r="AM65" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN65" t="n">
         <v>13</v>
@@ -9322,7 +9322,7 @@
         <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9337,10 +9337,10 @@
         <v>1.31</v>
       </c>
       <c r="P66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q66" t="n">
         <v>1.93</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.92</v>
       </c>
       <c r="R66" t="n">
         <v>1.36</v>
@@ -9355,7 +9355,7 @@
         <v>2.08</v>
       </c>
       <c r="V66" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9373,10 +9373,10 @@
         <v>29</v>
       </c>
       <c r="AB66" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD66" t="n">
         <v>13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,37 +691,37 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
         <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>19.5</v>
@@ -733,16 +733,16 @@
         <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
         <v>12.5</v>
@@ -763,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>80</v>
@@ -772,7 +772,7 @@
         <v>10.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
@@ -832,10 +832,10 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
         <v>1.77</v>
@@ -847,7 +847,7 @@
         <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -892,7 +892,7 @@
         <v>44</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="I4" t="n">
         <v>1.09</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -967,52 +967,52 @@
         <v>1.08</v>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="S4" t="n">
         <v>1.64</v>
       </c>
       <c r="T4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5</v>
+        <v>1.99</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB4" t="n">
         <v>200</v>
       </c>
       <c r="AC4" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1024,7 +1024,7 @@
         <v>120</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="G5" t="n">
         <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="I5" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>2.78</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
         <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
         <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1135,7 +1135,7 @@
         <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AB5" t="n">
         <v>970</v>
@@ -1159,7 +1159,7 @@
         <v>970</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AJ5" t="n">
         <v>70</v>
@@ -1168,13 +1168,13 @@
         <v>970</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AO5" t="n">
         <v>970</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1240,13 +1240,13 @@
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1345,7 +1345,7 @@
         <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>1.49</v>
@@ -1354,7 +1354,7 @@
         <v>1.61</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -1393,7 +1393,7 @@
         <v>2.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.32</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1537,10 +1537,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="n">
         <v>34</v>
@@ -1567,22 +1567,22 @@
         <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AM8" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1642,10 +1642,10 @@
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>1.05</v>
@@ -1660,52 +1660,52 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96</v>
+        <v>2.76</v>
       </c>
       <c r="X9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>1.08</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" t="n">
         <v>85</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
         <v>1.12</v>
@@ -1780,10 +1780,10 @@
         <v>4.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="S10" t="n">
         <v>1.65</v>
@@ -1798,7 +1798,7 @@
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC10" t="n">
         <v>980</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>140</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>110</v>
@@ -1891,7 +1891,7 @@
         <v>2.54</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1930,7 +1930,7 @@
         <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.48</v>
@@ -2032,7 +2032,7 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2194,7 +2194,7 @@
         <v>2.42</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
         <v>2.44</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
@@ -2350,10 +2350,10 @@
         <v>18</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2374,7 +2374,7 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
@@ -2392,7 +2392,7 @@
         <v>19.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G15" t="n">
         <v>2.92</v>
@@ -2431,7 +2431,7 @@
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2440,7 +2440,7 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
@@ -2458,7 +2458,7 @@
         <v>2.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
         <v>5.7</v>
@@ -2476,13 +2476,13 @@
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y15" t="n">
         <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
@@ -2560,10 +2560,10 @@
         <v>2.52</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I16" t="n">
         <v>3.1</v>
@@ -2584,22 +2584,22 @@
         <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q16" t="n">
         <v>1.87</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
         <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
@@ -2608,7 +2608,7 @@
         <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
@@ -2722,10 +2722,10 @@
         <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.31</v>
@@ -2740,13 +2740,13 @@
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
         <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2773,7 +2773,7 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
         <v>980</v>
@@ -2845,7 +2845,7 @@
         <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
         <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,34 +3121,34 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q20" t="n">
         <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
         <v>2.02</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V20" t="n">
         <v>1.05</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3247,7 +3247,7 @@
         <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>5.2</v>
@@ -3517,7 +3517,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.55</v>
@@ -3526,7 +3526,7 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O23" t="n">
         <v>1.51</v>
@@ -3538,7 +3538,7 @@
         <v>2.52</v>
       </c>
       <c r="R23" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
         <v>5.2</v>
@@ -3547,16 +3547,16 @@
         <v>2.22</v>
       </c>
       <c r="U23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
@@ -3601,7 +3601,7 @@
         <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G24" t="n">
         <v>2.76</v>
@@ -3652,7 +3652,7 @@
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
         <v>1.53</v>
@@ -3661,16 +3661,16 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
         <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
         <v>1.24</v>
@@ -3679,7 +3679,7 @@
         <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
         <v>1.92</v>
@@ -3688,13 +3688,13 @@
         <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>980</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>2.68</v>
@@ -3784,13 +3784,13 @@
         <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3811,7 +3811,7 @@
         <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T25" t="n">
         <v>1.81</v>
@@ -3820,10 +3820,10 @@
         <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
         <v>14.5</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="J26" t="n">
         <v>4.2</v>
@@ -3931,7 +3931,7 @@
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
@@ -3946,16 +3946,16 @@
         <v>1.61</v>
       </c>
       <c r="S26" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T26" t="n">
         <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V26" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="W26" t="n">
         <v>1.3</v>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB26" t="n">
         <v>22</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4075,16 +4075,16 @@
         <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T27" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U27" t="n">
         <v>2.38</v>
@@ -4102,7 +4102,7 @@
         <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AA27" t="n">
         <v>60</v>
@@ -4135,10 +4135,10 @@
         <v>980</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
@@ -4147,7 +4147,7 @@
         <v>14.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -4231,7 +4231,7 @@
         <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>14</v>
@@ -4246,10 +4246,10 @@
         <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>80</v>
@@ -4258,10 +4258,10 @@
         <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>110</v>
@@ -4273,7 +4273,7 @@
         <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>200</v>
@@ -4315,28 +4315,28 @@
         <v>2.74</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>2.8</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O29" t="n">
         <v>1.41</v>
@@ -4345,25 +4345,25 @@
         <v>1.67</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
         <v>13</v>
@@ -4465,7 +4465,7 @@
         <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4489,7 +4489,7 @@
         <v>3.85</v>
       </c>
       <c r="T30" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U30" t="n">
         <v>1.59</v>
@@ -4588,7 +4588,7 @@
         <v>4.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I31" t="n">
         <v>2.34</v>
@@ -4600,7 +4600,7 @@
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4624,10 +4624,10 @@
         <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
         <v>1.75</v>
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="H32" t="n">
         <v>4.3</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
         <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
         <v>2.9</v>
@@ -4750,7 +4750,7 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
@@ -4768,37 +4768,37 @@
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
         <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
         <v>980</v>
@@ -4813,7 +4813,7 @@
         <v>980</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
         <v>190</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
         <v>1.5</v>
@@ -4879,16 +4879,16 @@
         <v>3.55</v>
       </c>
       <c r="O33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="Q33" t="n">
         <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S33" t="n">
         <v>3.55</v>
@@ -4897,10 +4897,10 @@
         <v>2.16</v>
       </c>
       <c r="U33" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V33" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="W33" t="n">
         <v>1.12</v>
@@ -4918,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
@@ -4936,7 +4936,7 @@
         <v>34</v>
       </c>
       <c r="AH33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
         <v>46</v>
@@ -4954,7 +4954,7 @@
         <v>200</v>
       </c>
       <c r="AN33" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AO33" t="n">
         <v>9</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="G34" t="n">
         <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
         <v>3.05</v>
@@ -5002,7 +5002,7 @@
         <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
         <v>1.49</v>
@@ -5017,7 +5017,7 @@
         <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="Q34" t="n">
         <v>2.26</v>
@@ -5128,10 +5128,10 @@
         <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5152,31 +5152,31 @@
         <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T35" t="n">
         <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W35" t="n">
         <v>1.34</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H36" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I36" t="n">
         <v>6.6</v>
@@ -5287,10 +5287,10 @@
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>1.33</v>
@@ -5299,10 +5299,10 @@
         <v>3.35</v>
       </c>
       <c r="T36" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
         <v>1.18</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G37" t="n">
         <v>3.95</v>
       </c>
       <c r="H37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L37" t="n">
         <v>1.31</v>
@@ -5416,19 +5416,19 @@
         <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q37" t="n">
         <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S37" t="n">
         <v>3.2</v>
@@ -5440,13 +5440,13 @@
         <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W37" t="n">
         <v>1.34</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
         <v>10.5</v>
@@ -5458,13 +5458,13 @@
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
         <v>23</v>
@@ -5479,13 +5479,13 @@
         <v>17</v>
       </c>
       <c r="AI37" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ37" t="n">
         <v>75</v>
       </c>
       <c r="AK37" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
         <v>55</v>
@@ -5497,7 +5497,7 @@
         <v>42</v>
       </c>
       <c r="AO37" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -5530,13 +5530,13 @@
         <v>1.93</v>
       </c>
       <c r="G38" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.85</v>
@@ -5557,19 +5557,19 @@
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R38" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
         <v>2.18</v>
@@ -5578,10 +5578,10 @@
         <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
         <v>17</v>
@@ -5593,7 +5593,7 @@
         <v>95</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>8.4</v>
@@ -5617,19 +5617,19 @@
         <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
         <v>95</v>
       </c>
       <c r="AN38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO38" t="n">
         <v>50</v>
@@ -5671,7 +5671,7 @@
         <v>1.44</v>
       </c>
       <c r="I39" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="J39" t="n">
         <v>3.75</v>
@@ -5686,22 +5686,22 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>1.69</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
         <v>1.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W39" t="n">
         <v>1.04</v>
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>4.6</v>
@@ -5821,22 +5821,22 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="O40" t="n">
         <v>1.06</v>
       </c>
       <c r="P40" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="T40" t="n">
         <v>1.01</v>
@@ -5848,7 +5848,7 @@
         <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G41" t="n">
         <v>15.5</v>
@@ -5947,10 +5947,10 @@
         <v>5.2</v>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -5965,7 +5965,7 @@
         <v>1.86</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
         <v>1.32</v>
@@ -5974,13 +5974,13 @@
         <v>3.55</v>
       </c>
       <c r="T41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U41" t="n">
         <v>1.55</v>
       </c>
       <c r="V41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="W41" t="n">
         <v>1.07</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G42" t="n">
         <v>2.34</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I42" t="n">
         <v>3.85</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>3.4</v>
@@ -6094,16 +6094,16 @@
         <v>3.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q42" t="n">
         <v>2.16</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -6112,7 +6112,7 @@
         <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>1.35</v>
@@ -6124,7 +6124,7 @@
         <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z42" t="n">
         <v>28</v>
@@ -6139,10 +6139,10 @@
         <v>7.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
         <v>14</v>
@@ -6151,16 +6151,16 @@
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ42" t="n">
         <v>34</v>
       </c>
       <c r="AK42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL42" t="n">
         <v>980</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G43" t="n">
         <v>3.35</v>
       </c>
       <c r="H43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I43" t="n">
         <v>2.46</v>
@@ -6223,7 +6223,7 @@
         <v>1.46</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.45</v>
@@ -6232,7 +6232,7 @@
         <v>1.38</v>
       </c>
       <c r="P43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q43" t="n">
         <v>2.18</v>
@@ -6295,7 +6295,7 @@
         <v>60</v>
       </c>
       <c r="AK43" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL43" t="n">
         <v>55</v>
@@ -6349,7 +6349,7 @@
         <v>2.48</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
         <v>3.6</v>
@@ -6361,7 +6361,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
@@ -6370,16 +6370,16 @@
         <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S44" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T44" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="n">
         <v>2.28</v>
@@ -6388,10 +6388,10 @@
         <v>1.67</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X44" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -6406,10 +6406,10 @@
         <v>15</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE44" t="n">
         <v>26</v>
@@ -6421,7 +6421,7 @@
         <v>14.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
         <v>38</v>
@@ -6436,13 +6436,13 @@
         <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AN44" t="n">
         <v>32</v>
       </c>
       <c r="AO44" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G45" t="n">
         <v>3.45</v>
       </c>
       <c r="H45" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J45" t="n">
         <v>3.05</v>
@@ -6502,25 +6502,25 @@
         <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R45" t="n">
         <v>1.27</v>
       </c>
       <c r="S45" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6538,7 +6538,7 @@
         <v>40</v>
       </c>
       <c r="AB45" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC45" t="n">
         <v>7.4</v>
@@ -6574,10 +6574,10 @@
         <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO45" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -6613,13 +6613,13 @@
         <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
       </c>
       <c r="J46" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>3.1</v>
@@ -6628,10 +6628,10 @@
         <v>1.59</v>
       </c>
       <c r="M46" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O46" t="n">
         <v>1.55</v>
@@ -6646,7 +6646,7 @@
         <v>1.2</v>
       </c>
       <c r="S46" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T46" t="n">
         <v>2.14</v>
@@ -6661,7 +6661,7 @@
         <v>1.51</v>
       </c>
       <c r="X46" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y46" t="n">
         <v>9</v>
@@ -6691,7 +6691,7 @@
         <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
         <v>75</v>
@@ -6703,7 +6703,7 @@
         <v>42</v>
       </c>
       <c r="AL46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
         <v>200</v>
@@ -6745,7 +6745,7 @@
         <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>2.32</v>
@@ -6757,10 +6757,10 @@
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L47" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -6772,19 +6772,19 @@
         <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R47" t="n">
         <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U47" t="n">
         <v>2</v>
@@ -6793,10 +6793,10 @@
         <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y47" t="n">
         <v>11.5</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G48" t="n">
         <v>1.88</v>
       </c>
       <c r="H48" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I48" t="n">
         <v>4.7</v>
@@ -6892,7 +6892,7 @@
         <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L48" t="n">
         <v>1.3</v>
@@ -6925,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W48" t="n">
         <v>2.12</v>
@@ -6934,16 +6934,16 @@
         <v>29</v>
       </c>
       <c r="Y48" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z48" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
         <v>100</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC48" t="n">
         <v>10.5</v>
@@ -6952,7 +6952,7 @@
         <v>18.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF48" t="n">
         <v>14</v>
@@ -6964,7 +6964,7 @@
         <v>16.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ48" t="n">
         <v>21</v>
@@ -6973,7 +6973,7 @@
         <v>17.5</v>
       </c>
       <c r="AL48" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AM48" t="n">
         <v>80</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G49" t="n">
         <v>4.8</v>
@@ -7021,7 +7021,7 @@
         <v>2.02</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
@@ -7030,7 +7030,7 @@
         <v>3.45</v>
       </c>
       <c r="L49" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M49" t="n">
         <v>1.09</v>
@@ -7042,28 +7042,28 @@
         <v>1.42</v>
       </c>
       <c r="P49" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
         <v>1.27</v>
       </c>
       <c r="S49" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="n">
         <v>1.92</v>
       </c>
       <c r="V49" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W49" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X49" t="n">
         <v>11</v>
@@ -7075,7 +7075,7 @@
         <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AB49" t="n">
         <v>1000</v>
@@ -7084,31 +7084,31 @@
         <v>7.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG49" t="n">
         <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI49" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL49" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM49" t="n">
         <v>170</v>
@@ -7117,7 +7117,7 @@
         <v>110</v>
       </c>
       <c r="AO49" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -7180,7 +7180,7 @@
         <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R50" t="n">
         <v>1.42</v>
@@ -7291,10 +7291,10 @@
         <v>6.2</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
@@ -7426,13 +7426,13 @@
         <v>1.79</v>
       </c>
       <c r="I52" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7447,7 +7447,7 @@
         <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q52" t="n">
         <v>1.81</v>
@@ -7465,13 +7465,13 @@
         <v>2.18</v>
       </c>
       <c r="V52" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W52" t="n">
         <v>1.24</v>
       </c>
       <c r="X52" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y52" t="n">
         <v>9.800000000000001</v>
@@ -7492,7 +7492,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE52" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF52" t="n">
         <v>40</v>
@@ -7504,7 +7504,7 @@
         <v>19</v>
       </c>
       <c r="AI52" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ52" t="n">
         <v>120</v>
@@ -7516,7 +7516,7 @@
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN52" t="n">
         <v>65</v>
@@ -7609,10 +7609,10 @@
         <v>9.4</v>
       </c>
       <c r="Y53" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z53" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA53" t="n">
         <v>95</v>
@@ -7624,19 +7624,19 @@
         <v>8.4</v>
       </c>
       <c r="AD53" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>75</v>
       </c>
       <c r="AF53" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG53" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH53" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AI53" t="n">
         <v>110</v>
@@ -7645,7 +7645,7 @@
         <v>55</v>
       </c>
       <c r="AK53" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL53" t="n">
         <v>90</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="G54" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="H54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K54" t="n">
         <v>12</v>
-      </c>
-      <c r="K54" t="n">
-        <v>13</v>
       </c>
       <c r="L54" t="n">
         <v>1.14</v>
@@ -7717,7 +7717,7 @@
         <v>1.06</v>
       </c>
       <c r="P54" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q54" t="n">
         <v>1.21</v>
@@ -7732,67 +7732,67 @@
         <v>1.9</v>
       </c>
       <c r="U54" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V54" t="n">
         <v>1.03</v>
       </c>
       <c r="W54" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="X54" t="n">
         <v>80</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z54" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AE54" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AF54" t="n">
         <v>13.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ54" t="n">
         <v>10.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="n">
         <v>2.12</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55">
@@ -7831,10 +7831,10 @@
         <v>1.92</v>
       </c>
       <c r="I55" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K55" t="n">
         <v>3.75</v>
@@ -7846,7 +7846,7 @@
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O55" t="n">
         <v>1.4</v>
@@ -7870,7 +7870,7 @@
         <v>1.86</v>
       </c>
       <c r="V55" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W55" t="n">
         <v>1.21</v>
@@ -7885,7 +7885,7 @@
         <v>14</v>
       </c>
       <c r="AA55" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AB55" t="n">
         <v>16.5</v>
@@ -7897,16 +7897,16 @@
         <v>13</v>
       </c>
       <c r="AE55" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF55" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AG55" t="n">
         <v>23</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI55" t="n">
         <v>55</v>
@@ -7957,7 +7957,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="G56" t="n">
         <v>1.7</v>
@@ -7987,7 +7987,7 @@
         <v>1.38</v>
       </c>
       <c r="P56" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q56" t="n">
         <v>2.14</v>
@@ -7999,10 +7999,10 @@
         <v>3.55</v>
       </c>
       <c r="T56" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V56" t="n">
         <v>1.12</v>
@@ -8158,7 +8158,7 @@
         <v>36</v>
       </c>
       <c r="AB57" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
         <v>5.7</v>
@@ -8239,7 +8239,7 @@
         <v>1.94</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
         <v>3.75</v>
@@ -8314,7 +8314,7 @@
         <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ58" t="n">
         <v>170</v>
@@ -8380,7 +8380,7 @@
         <v>3.75</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -8515,7 +8515,7 @@
         <v>4.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -8539,7 +8539,7 @@
         <v>3.5</v>
       </c>
       <c r="T60" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U60" t="n">
         <v>1.78</v>
@@ -8569,7 +8569,7 @@
         <v>10.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE60" t="n">
         <v>160</v>
@@ -8581,7 +8581,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI60" t="n">
         <v>150</v>
@@ -8593,7 +8593,7 @@
         <v>18</v>
       </c>
       <c r="AL60" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM60" t="n">
         <v>210</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G61" t="n">
         <v>2.16</v>
@@ -8641,7 +8641,7 @@
         <v>4.4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.25</v>
@@ -8662,7 +8662,7 @@
         <v>1.44</v>
       </c>
       <c r="P61" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q61" t="n">
         <v>2.3</v>
@@ -8677,7 +8677,7 @@
         <v>1.96</v>
       </c>
       <c r="U61" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V61" t="n">
         <v>1.27</v>
@@ -8695,10 +8695,10 @@
         <v>32</v>
       </c>
       <c r="AA61" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB61" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC61" t="n">
         <v>7.4</v>
@@ -8707,7 +8707,7 @@
         <v>18</v>
       </c>
       <c r="AE61" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF61" t="n">
         <v>12.5</v>
@@ -8716,7 +8716,7 @@
         <v>11</v>
       </c>
       <c r="AH61" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI61" t="n">
         <v>85</v>
@@ -8734,10 +8734,10 @@
         <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO61" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
@@ -8770,13 +8770,13 @@
         <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H62" t="n">
         <v>2.42</v>
       </c>
       <c r="I62" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J62" t="n">
         <v>3.05</v>
@@ -8785,7 +8785,7 @@
         <v>3.6</v>
       </c>
       <c r="L62" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M62" t="n">
         <v>1.09</v>
@@ -8806,7 +8806,7 @@
         <v>1.26</v>
       </c>
       <c r="S62" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T62" t="n">
         <v>1.84</v>
@@ -8815,22 +8815,22 @@
         <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W62" t="n">
         <v>1.36</v>
       </c>
       <c r="X62" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y62" t="n">
         <v>11.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA62" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB62" t="n">
         <v>13</v>
@@ -8839,13 +8839,13 @@
         <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE62" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF62" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG62" t="n">
         <v>17</v>
@@ -8872,7 +8872,7 @@
         <v>60</v>
       </c>
       <c r="AO62" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="63">
@@ -8905,19 +8905,19 @@
         <v>1.16</v>
       </c>
       <c r="G63" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>21</v>
       </c>
       <c r="I63" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J63" t="n">
         <v>8.6</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
@@ -8944,19 +8944,19 @@
         <v>2.4</v>
       </c>
       <c r="T63" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U63" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="V63" t="n">
         <v>1.04</v>
       </c>
       <c r="W63" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X63" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y63" t="n">
         <v>65</v>
@@ -8983,7 +8983,7 @@
         <v>7.2</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH63" t="n">
         <v>65</v>
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G64" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>3.05</v>
@@ -9055,19 +9055,19 @@
         <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="O64" t="n">
         <v>1.48</v>
       </c>
       <c r="P64" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q64" t="n">
         <v>2.24</v>
@@ -9088,7 +9088,7 @@
         <v>1.34</v>
       </c>
       <c r="W64" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X64" t="n">
         <v>970</v>
@@ -9172,22 +9172,22 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G65" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H65" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I65" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J65" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K65" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L65" t="n">
         <v>1.45</v>
@@ -9205,7 +9205,7 @@
         <v>1.86</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R65" t="n">
         <v>1.32</v>
@@ -9214,7 +9214,7 @@
         <v>3.85</v>
       </c>
       <c r="T65" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>1.95</v>
@@ -9223,7 +9223,7 @@
         <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -9241,7 +9241,7 @@
         <v>7.8</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD65" t="n">
         <v>22</v>
@@ -9259,22 +9259,22 @@
         <v>22</v>
       </c>
       <c r="AI65" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AK65" t="n">
         <v>19.5</v>
       </c>
       <c r="AL65" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM65" t="n">
         <v>140</v>
       </c>
       <c r="AN65" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO65" t="n">
         <v>110</v>
@@ -9316,13 +9316,13 @@
         <v>1.98</v>
       </c>
       <c r="I66" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J66" t="n">
         <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9334,28 +9334,28 @@
         <v>3.7</v>
       </c>
       <c r="O66" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q66" t="n">
         <v>1.94</v>
       </c>
-      <c r="Q66" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R66" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S66" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T66" t="n">
         <v>1.79</v>
       </c>
       <c r="U66" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V66" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.1</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
         <v>4.7</v>
@@ -820,7 +820,7 @@
         <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -832,28 +832,28 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X3" t="n">
         <v>34</v>
@@ -901,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
         <v>6.6</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
         <v>80</v>
@@ -946,7 +946,7 @@
         <v>1.07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J4" t="n">
         <v>1.09</v>
@@ -964,25 +964,25 @@
         <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="R4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="T4" t="n">
         <v>2.72</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V4" t="n">
         <v>1.99</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AH4" t="n">
         <v>120</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.78</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.02</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1162,7 +1162,7 @@
         <v>970</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
         <v>970</v>
@@ -1171,7 +1171,7 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
         <v>970</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>1.49</v>
       </c>
       <c r="I7" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1390,7 +1390,7 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W7" t="n">
         <v>1.12</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1501,34 +1501,34 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
         <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="W8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1537,13 +1537,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
@@ -1552,37 +1552,37 @@
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="n">
         <v>95</v>
       </c>
       <c r="AG8" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
         <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>390</v>
+        <v>490</v>
       </c>
       <c r="AK8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AL8" t="n">
         <v>190</v>
       </c>
-      <c r="AL8" t="n">
-        <v>160</v>
-      </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN8" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H9" t="n">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -1627,7 +1627,7 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>1.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G10" t="n">
         <v>1.08</v>
       </c>
       <c r="H10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J10" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L10" t="n">
         <v>1.12</v>
@@ -1783,7 +1783,7 @@
         <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="S10" t="n">
         <v>1.65</v>
@@ -1801,7 +1801,7 @@
         <v>14.5</v>
       </c>
       <c r="X10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="n">
         <v>220</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1888,10 +1888,10 @@
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
         <v>3.45</v>
@@ -1930,7 +1930,7 @@
         <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W11" t="n">
         <v>1.48</v>
@@ -2032,7 +2032,7 @@
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2053,7 +2053,7 @@
         <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
         <v>3.2</v>
@@ -2077,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
         <v>14.5</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
         <v>18</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
         <v>2.06</v>
@@ -2176,25 +2176,25 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.58</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.56</v>
       </c>
       <c r="U13" t="n">
         <v>2.44</v>
@@ -2209,16 +2209,16 @@
         <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
         <v>12</v>
@@ -2230,13 +2230,13 @@
         <v>980</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
         <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2248,7 +2248,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>75</v>
@@ -2290,7 +2290,7 @@
         <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
         <v>2.26</v>
@@ -2326,10 +2326,10 @@
         <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
         <v>2.66</v>
@@ -2347,13 +2347,13 @@
         <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2374,7 +2374,7 @@
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
@@ -2425,13 +2425,13 @@
         <v>2.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.05</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2446,22 +2446,22 @@
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P15" t="n">
         <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="T15" t="n">
         <v>2.16</v>
@@ -2476,7 +2476,7 @@
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y15" t="n">
         <v>8.6</v>
@@ -2524,7 +2524,7 @@
         <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO15" t="n">
         <v>60</v>
@@ -2611,7 +2611,7 @@
         <v>1.51</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
         <v>14.5</v>
@@ -2626,7 +2626,7 @@
         <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
         <v>15.5</v>
@@ -2707,7 +2707,7 @@
         <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2845,7 +2845,7 @@
         <v>4.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J20" t="n">
         <v>6.4</v>
@@ -3121,40 +3121,40 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="T20" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="V20" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G21" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>970</v>
+        <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -3265,13 +3265,13 @@
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R21" t="n">
         <v>1.09</v>
       </c>
       <c r="S21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W21" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I22" t="n">
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
         <v>950</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3529,7 +3529,7 @@
         <v>2.86</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
         <v>1.62</v>
@@ -3556,7 +3556,7 @@
         <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3577,7 +3577,7 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
@@ -3601,7 +3601,7 @@
         <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3640,7 +3640,7 @@
         <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
@@ -3652,7 +3652,7 @@
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.53</v>
@@ -3688,7 +3688,7 @@
         <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
@@ -3781,13 +3781,13 @@
         <v>2.68</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.45</v>
@@ -3814,7 +3814,7 @@
         <v>3.85</v>
       </c>
       <c r="T25" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U25" t="n">
         <v>2.02</v>
@@ -3910,13 +3910,13 @@
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J26" t="n">
         <v>4.2</v>
@@ -3934,13 +3934,13 @@
         <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
         <v>2.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R26" t="n">
         <v>1.61</v>
@@ -3949,16 +3949,16 @@
         <v>2.48</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X26" t="n">
         <v>24</v>
@@ -3997,7 +3997,7 @@
         <v>28</v>
       </c>
       <c r="AJ26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
         <v>44</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.24</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.3</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
         <v>3.45</v>
@@ -4057,7 +4057,7 @@
         <v>3.85</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -4069,10 +4069,10 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
         <v>1.75</v>
@@ -4081,19 +4081,19 @@
         <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
         <v>2.38</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
         <v>23</v>
@@ -4111,10 +4111,10 @@
         <v>13</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
         <v>38</v>
@@ -4147,7 +4147,7 @@
         <v>14.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G28" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H28" t="n">
         <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -4216,7 +4216,7 @@
         <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -4225,10 +4225,10 @@
         <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X28" t="n">
         <v>11</v>
@@ -4315,16 +4315,16 @@
         <v>2.74</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
         <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
         <v>3.5</v>
@@ -4360,7 +4360,7 @@
         <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
         <v>1.45</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="G30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4477,16 +4477,16 @@
         <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
         <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T30" t="n">
         <v>2.38</v>
@@ -4498,13 +4498,13 @@
         <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>110</v>
@@ -4516,7 +4516,7 @@
         <v>7.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD30" t="n">
         <v>980</v>
@@ -4540,7 +4540,7 @@
         <v>14.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4621,7 +4621,7 @@
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
         <v>2.08</v>
@@ -4636,10 +4636,10 @@
         <v>1.31</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z31" t="n">
         <v>16</v>
@@ -4648,25 +4648,25 @@
         <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
         <v>34</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>65</v>
@@ -4675,10 +4675,10 @@
         <v>110</v>
       </c>
       <c r="AK31" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
         <v>200</v>
@@ -4687,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
         <v>5.3</v>
@@ -4741,7 +4741,7 @@
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
         <v>1.42</v>
@@ -4753,7 +4753,7 @@
         <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
         <v>3.85</v>
@@ -4762,13 +4762,13 @@
         <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V32" t="n">
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="X32" t="n">
         <v>13</v>
@@ -4783,7 +4783,7 @@
         <v>140</v>
       </c>
       <c r="AB32" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AC32" t="n">
         <v>1000</v>
@@ -4855,19 +4855,19 @@
         <v>8.6</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>1.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J33" t="n">
         <v>4.5</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
         <v>1.4</v>
@@ -4897,10 +4897,10 @@
         <v>2.16</v>
       </c>
       <c r="U33" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V33" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="W33" t="n">
         <v>1.12</v>
@@ -4915,10 +4915,10 @@
         <v>8</v>
       </c>
       <c r="AA33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
@@ -4957,7 +4957,7 @@
         <v>240</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="34">
@@ -5029,7 +5029,7 @@
         <v>3.85</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
         <v>1.95</v>
@@ -5128,10 +5128,10 @@
         <v>3.9</v>
       </c>
       <c r="H35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.22</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.24</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5161,13 +5161,13 @@
         <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T35" t="n">
         <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
         <v>1.81</v>
@@ -5179,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z35" t="n">
         <v>12.5</v>
@@ -5269,19 +5269,19 @@
         <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
@@ -5296,13 +5296,13 @@
         <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="V36" t="n">
         <v>1.18</v>
@@ -5311,55 +5311,55 @@
         <v>2.3</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA36" t="n">
         <v>200</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG36" t="n">
         <v>11</v>
       </c>
-      <c r="AD36" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12</v>
-      </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
         <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="n">
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM36" t="n">
         <v>160</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="G37" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H37" t="n">
         <v>2.14</v>
       </c>
       <c r="I37" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
         <v>3.7</v>
@@ -5413,7 +5413,7 @@
         <v>1.31</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
         <v>4.1</v>
@@ -5422,7 +5422,7 @@
         <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q37" t="n">
         <v>1.9</v>
@@ -5443,13 +5443,13 @@
         <v>1.84</v>
       </c>
       <c r="W37" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X37" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
         <v>14.5</v>
@@ -5458,13 +5458,13 @@
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE37" t="n">
         <v>23</v>
@@ -5476,28 +5476,28 @@
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ37" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM37" t="n">
         <v>90</v>
       </c>
       <c r="AN37" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G38" t="n">
         <v>1.95</v>
@@ -5536,16 +5536,16 @@
         <v>4.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5572,7 +5572,7 @@
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
         <v>1.28</v>
@@ -5581,7 +5581,7 @@
         <v>2.04</v>
       </c>
       <c r="X38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y38" t="n">
         <v>17</v>
@@ -5626,7 +5626,7 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN38" t="n">
         <v>12.5</v>
@@ -5668,31 +5668,31 @@
         <v>970</v>
       </c>
       <c r="H39" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="I39" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
         <v>1.01</v>
@@ -5710,10 +5710,10 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W39" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5806,7 +5806,7 @@
         <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="J40" t="n">
         <v>3.6</v>
@@ -5821,10 +5821,10 @@
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
         <v>1.97</v>
@@ -5833,19 +5833,19 @@
         <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S40" t="n">
-        <v>1.9</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
         <v>2.1</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
         <v>15.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="I41" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="J41" t="n">
         <v>5.2</v>
@@ -5950,7 +5950,7 @@
         <v>5.9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
@@ -5959,7 +5959,7 @@
         <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P41" t="n">
         <v>1.86</v>
@@ -5977,10 +5977,10 @@
         <v>2.48</v>
       </c>
       <c r="U41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V41" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="W41" t="n">
         <v>1.07</v>
@@ -6028,7 +6028,7 @@
         <v>340</v>
       </c>
       <c r="AL41" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AM41" t="n">
         <v>330</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G42" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
         <v>3.65</v>
       </c>
       <c r="I42" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
         <v>1.47</v>
@@ -6091,16 +6091,16 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
         <v>1.79</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R42" t="n">
         <v>1.29</v>
@@ -6115,10 +6115,10 @@
         <v>2.02</v>
       </c>
       <c r="V42" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W42" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X42" t="n">
         <v>12</v>
@@ -6127,13 +6127,13 @@
         <v>12.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA42" t="n">
         <v>95</v>
       </c>
       <c r="AB42" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
         <v>7.6</v>
@@ -6148,31 +6148,31 @@
         <v>14</v>
       </c>
       <c r="AG42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
         <v>65</v>
       </c>
       <c r="AJ42" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK42" t="n">
         <v>26</v>
       </c>
       <c r="AL42" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
         <v>2.44</v>
       </c>
       <c r="I43" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
         <v>3.5</v>
@@ -6250,7 +6250,7 @@
         <v>2.08</v>
       </c>
       <c r="V43" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W43" t="n">
         <v>1.42</v>
@@ -6373,7 +6373,7 @@
         <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S44" t="n">
         <v>3.15</v>
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="I45" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>3.2</v>
@@ -6502,7 +6502,7 @@
         <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q45" t="n">
         <v>2.2</v>
@@ -6517,13 +6517,13 @@
         <v>1.83</v>
       </c>
       <c r="U45" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>1.59</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X45" t="n">
         <v>13</v>
@@ -6541,7 +6541,7 @@
         <v>11.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD45" t="n">
         <v>12.5</v>
@@ -6565,7 +6565,7 @@
         <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL45" t="n">
         <v>60</v>
@@ -6610,10 +6610,10 @@
         <v>2.82</v>
       </c>
       <c r="G46" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H46" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
@@ -6628,31 +6628,31 @@
         <v>1.59</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="O46" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="R46" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S46" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T46" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V46" t="n">
         <v>1.47</v>
@@ -6664,7 +6664,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z46" t="n">
         <v>18</v>
@@ -6691,7 +6691,7 @@
         <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI46" t="n">
         <v>75</v>
@@ -6700,19 +6700,19 @@
         <v>48</v>
       </c>
       <c r="AK46" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL46" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM46" t="n">
         <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -6745,16 +6745,16 @@
         <v>3.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I47" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K47" t="n">
         <v>3.6</v>
@@ -6775,7 +6775,7 @@
         <v>1.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R47" t="n">
         <v>1.29</v>
@@ -6790,10 +6790,10 @@
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W47" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X47" t="n">
         <v>14.5</v>
@@ -6877,19 +6877,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G48" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I48" t="n">
         <v>4.7</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K48" t="n">
         <v>4.2</v>
@@ -6910,16 +6910,16 @@
         <v>2.48</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R48" t="n">
         <v>1.6</v>
       </c>
       <c r="S48" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -6928,16 +6928,16 @@
         <v>1.27</v>
       </c>
       <c r="W48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y48" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="n">
         <v>100</v>
@@ -6946,43 +6946,43 @@
         <v>12.5</v>
       </c>
       <c r="AC48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD48" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>11</v>
-      </c>
       <c r="AH48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI48" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ48" t="n">
         <v>21</v>
       </c>
       <c r="AK48" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL48" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM48" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN48" t="n">
         <v>8.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49">
@@ -7033,7 +7033,7 @@
         <v>1.49</v>
       </c>
       <c r="M49" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
         <v>3.1</v>
@@ -7048,7 +7048,7 @@
         <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S49" t="n">
         <v>4.3</v>
@@ -7057,7 +7057,7 @@
         <v>1.98</v>
       </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V49" t="n">
         <v>1.92</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G50" t="n">
         <v>1.34</v>
       </c>
       <c r="H50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="I50" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
         <v>5.5</v>
@@ -7177,16 +7177,16 @@
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R50" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S50" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
         <v>2.34</v>
@@ -7195,7 +7195,7 @@
         <v>1.6</v>
       </c>
       <c r="V50" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="W50" t="n">
         <v>3.9</v>
@@ -7204,25 +7204,25 @@
         <v>23</v>
       </c>
       <c r="Y50" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z50" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC50" t="n">
         <v>16.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE50" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="n">
         <v>8.6</v>
@@ -7234,7 +7234,7 @@
         <v>48</v>
       </c>
       <c r="AI50" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ50" t="n">
         <v>11.5</v>
@@ -7291,10 +7291,10 @@
         <v>6.2</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
@@ -7309,7 +7309,7 @@
         <v>2.98</v>
       </c>
       <c r="O51" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
         <v>1.68</v>
@@ -7330,7 +7330,7 @@
         <v>1.71</v>
       </c>
       <c r="V51" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W51" t="n">
         <v>2.34</v>
@@ -7339,7 +7339,7 @@
         <v>14.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="n">
         <v>70</v>
@@ -7348,7 +7348,7 @@
         <v>300</v>
       </c>
       <c r="AB51" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AC51" t="n">
         <v>11</v>
@@ -7363,7 +7363,7 @@
         <v>11</v>
       </c>
       <c r="AG51" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
         <v>32</v>
@@ -7372,19 +7372,19 @@
         <v>160</v>
       </c>
       <c r="AJ51" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL51" t="n">
         <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN51" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO51" t="n">
         <v>260</v>
@@ -7423,13 +7423,13 @@
         <v>5.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I52" t="n">
         <v>1.81</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K52" t="n">
         <v>4.1</v>
@@ -7495,10 +7495,10 @@
         <v>17.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AG52" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH52" t="n">
         <v>19</v>
@@ -7516,10 +7516,10 @@
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
         <v>10.5</v>
@@ -7594,7 +7594,7 @@
         <v>5.2</v>
       </c>
       <c r="T53" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U53" t="n">
         <v>1.71</v>
@@ -7642,7 +7642,7 @@
         <v>110</v>
       </c>
       <c r="AJ53" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK53" t="n">
         <v>980</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="G54" t="n">
         <v>1.15</v>
@@ -7696,13 +7696,13 @@
         <v>25</v>
       </c>
       <c r="I54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
         <v>1.14</v>
@@ -7711,34 +7711,34 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P54" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="R54" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="S54" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="T54" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U54" t="n">
         <v>2.06</v>
       </c>
       <c r="V54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W54" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X54" t="n">
         <v>80</v>
@@ -7753,25 +7753,25 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD54" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AE54" t="n">
         <v>380</v>
       </c>
       <c r="AF54" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG54" t="n">
         <v>16.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI54" t="n">
         <v>190</v>
@@ -7780,16 +7780,16 @@
         <v>10.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL54" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM54" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN54" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AO54" t="n">
         <v>310</v>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G55" t="n">
         <v>5.7</v>
@@ -7852,7 +7852,7 @@
         <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q55" t="n">
         <v>2.2</v>
@@ -7888,7 +7888,7 @@
         <v>980</v>
       </c>
       <c r="AB55" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC55" t="n">
         <v>9.4</v>
@@ -7909,7 +7909,7 @@
         <v>980</v>
       </c>
       <c r="AI55" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ55" t="n">
         <v>140</v>
@@ -7927,7 +7927,7 @@
         <v>120</v>
       </c>
       <c r="AO55" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56">
@@ -7957,10 +7957,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H56" t="n">
         <v>6.6</v>
@@ -7969,10 +7969,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L56" t="n">
         <v>1.44</v>
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G57" t="n">
         <v>3.55</v>
       </c>
-      <c r="G57" t="n">
-        <v>3.6</v>
-      </c>
       <c r="H57" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I57" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J57" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3.15</v>
       </c>
       <c r="L57" t="n">
         <v>1.57</v>
@@ -8119,37 +8119,37 @@
         <v>2.76</v>
       </c>
       <c r="O57" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P57" t="n">
         <v>1.59</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
       </c>
       <c r="S57" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U57" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V57" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W57" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X57" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z57" t="n">
         <v>14</v>
@@ -8164,7 +8164,7 @@
         <v>7</v>
       </c>
       <c r="AD57" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE57" t="n">
         <v>34</v>
@@ -8176,7 +8176,7 @@
         <v>16</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
         <v>60</v>
@@ -8233,16 +8233,16 @@
         <v>5.7</v>
       </c>
       <c r="H58" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="I58" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="J58" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L58" t="n">
         <v>1.48</v>
@@ -8251,49 +8251,49 @@
         <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O58" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P58" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S58" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U58" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V58" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W58" t="n">
         <v>1.21</v>
       </c>
       <c r="X58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y58" t="n">
         <v>7.4</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB58" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC58" t="n">
         <v>8.4</v>
@@ -8305,13 +8305,13 @@
         <v>25</v>
       </c>
       <c r="AF58" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG58" t="n">
         <v>23</v>
       </c>
       <c r="AH58" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
@@ -8326,13 +8326,13 @@
         <v>120</v>
       </c>
       <c r="AM58" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AO58" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="59">
@@ -8368,10 +8368,10 @@
         <v>3.15</v>
       </c>
       <c r="H59" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="I59" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J59" t="n">
         <v>3.3</v>
@@ -8395,7 +8395,7 @@
         <v>1.86</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="R59" t="n">
         <v>1.33</v>
@@ -8410,7 +8410,7 @@
         <v>2.1</v>
       </c>
       <c r="V59" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W59" t="n">
         <v>1.47</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G60" t="n">
         <v>1.55</v>
@@ -8506,7 +8506,7 @@
         <v>7.8</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J60" t="n">
         <v>4.3</v>
@@ -8521,13 +8521,13 @@
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q60" t="n">
         <v>1.98</v>
@@ -8542,10 +8542,10 @@
         <v>2.12</v>
       </c>
       <c r="U60" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V60" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W60" t="n">
         <v>2.8</v>
@@ -8566,7 +8566,7 @@
         <v>7.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD60" t="n">
         <v>980</v>
@@ -8581,7 +8581,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI60" t="n">
         <v>150</v>
@@ -8593,13 +8593,13 @@
         <v>18</v>
       </c>
       <c r="AL60" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM60" t="n">
         <v>210</v>
       </c>
       <c r="AN60" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO60" t="n">
         <v>260</v>
@@ -8635,13 +8635,13 @@
         <v>2.08</v>
       </c>
       <c r="G61" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H61" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.25</v>
@@ -8662,19 +8662,19 @@
         <v>1.44</v>
       </c>
       <c r="P61" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S61" t="n">
         <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U61" t="n">
         <v>1.94</v>
@@ -8683,7 +8683,7 @@
         <v>1.27</v>
       </c>
       <c r="W61" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="X61" t="n">
         <v>10.5</v>
@@ -8710,7 +8710,7 @@
         <v>70</v>
       </c>
       <c r="AF61" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG61" t="n">
         <v>11</v>
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G62" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I62" t="n">
         <v>2.74</v>
@@ -8782,16 +8782,16 @@
         <v>3.05</v>
       </c>
       <c r="K62" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L62" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="M62" t="n">
         <v>1.09</v>
       </c>
       <c r="N62" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O62" t="n">
         <v>1.4</v>
@@ -8806,7 +8806,7 @@
         <v>1.26</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T62" t="n">
         <v>1.84</v>
@@ -8818,7 +8818,7 @@
         <v>1.57</v>
       </c>
       <c r="W62" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X62" t="n">
         <v>13.5</v>
@@ -8839,7 +8839,7 @@
         <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE62" t="n">
         <v>980</v>
@@ -8860,7 +8860,7 @@
         <v>75</v>
       </c>
       <c r="AK62" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL62" t="n">
         <v>70</v>
@@ -8869,7 +8869,7 @@
         <v>150</v>
       </c>
       <c r="AN62" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO62" t="n">
         <v>980</v>
@@ -8905,19 +8905,19 @@
         <v>1.16</v>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H63" t="n">
         <v>21</v>
       </c>
       <c r="I63" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J63" t="n">
         <v>8.6</v>
       </c>
       <c r="K63" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
@@ -8947,13 +8947,13 @@
         <v>2.58</v>
       </c>
       <c r="U63" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="V63" t="n">
         <v>1.04</v>
       </c>
       <c r="W63" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X63" t="n">
         <v>36</v>
@@ -9046,7 +9046,7 @@
         <v>3.05</v>
       </c>
       <c r="I64" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J64" t="n">
         <v>2.94</v>
@@ -9085,52 +9085,52 @@
         <v>1.83</v>
       </c>
       <c r="V64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W64" t="n">
         <v>1.59</v>
       </c>
       <c r="X64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA64" t="n">
         <v>85</v>
       </c>
       <c r="AB64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
         <v>65</v>
       </c>
       <c r="AF64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH64" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI64" t="n">
         <v>85</v>
       </c>
       <c r="AJ64" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AK64" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL64" t="n">
         <v>70</v>
@@ -9139,7 +9139,7 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO64" t="n">
         <v>80</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G65" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H65" t="n">
         <v>5.8</v>
@@ -9184,7 +9184,7 @@
         <v>5.9</v>
       </c>
       <c r="J65" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
         <v>3.85</v>
@@ -9193,37 +9193,37 @@
         <v>1.45</v>
       </c>
       <c r="M65" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O65" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P65" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R65" t="n">
         <v>1.32</v>
       </c>
       <c r="S65" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V65" t="n">
         <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -9238,10 +9238,10 @@
         <v>160</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD65" t="n">
         <v>22</v>
@@ -9250,13 +9250,13 @@
         <v>85</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG65" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH65" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
         <v>95</v>
@@ -9271,13 +9271,13 @@
         <v>42</v>
       </c>
       <c r="AM65" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN65" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO65" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G66" t="n">
         <v>4.4</v>
@@ -9319,7 +9319,7 @@
         <v>2.06</v>
       </c>
       <c r="J66" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K66" t="n">
         <v>3.85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -691,61 +691,61 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.71</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
@@ -754,13 +754,13 @@
         <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL2" t="n">
         <v>32</v>
@@ -769,10 +769,10 @@
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -814,10 +814,10 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -832,34 +832,34 @@
         <v>1.16</v>
       </c>
       <c r="P3" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S3" t="n">
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>44</v>
@@ -868,31 +868,31 @@
         <v>110</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
         <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -901,13 +901,13 @@
         <v>25</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>6.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
         <v>1.07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>12.5</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -967,25 +967,25 @@
         <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="T4" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
         <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
@@ -1003,28 +1003,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AH4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1036,13 +1036,13 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="5">
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>970</v>
       </c>
       <c r="H5" t="n">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.92</v>
+        <v>1.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
@@ -1114,16 +1114,16 @@
         <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1162,7 +1162,7 @@
         <v>970</v>
       </c>
       <c r="AJ5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK5" t="n">
         <v>970</v>
@@ -1171,7 +1171,7 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
         <v>970</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
         <v>970</v>
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>85</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.31</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="G8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>970</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>2.9</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
         <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AF8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AJ8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="G9" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="K9" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
         <v>1.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R9" t="n">
         <v>1.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1663,7 +1663,7 @@
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1753,16 +1753,16 @@
         <v>1.08</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
         <v>18.5</v>
       </c>
       <c r="K10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="n">
         <v>1.12</v>
@@ -1777,34 +1777,34 @@
         <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.46</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
         <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>2.86</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>14.5</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,34 +1813,34 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AD10" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
         <v>110</v>
@@ -1888,7 +1888,7 @@
         <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I11" t="n">
         <v>2.74</v>
@@ -1897,10 +1897,10 @@
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1918,16 +1918,16 @@
         <v>1.89</v>
       </c>
       <c r="R11" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
         <v>1.58</v>
@@ -1936,58 +1936,58 @@
         <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
         <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
@@ -2035,16 +2035,16 @@
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>1.98</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="P12" t="n">
         <v>1.98</v>
@@ -2053,55 +2053,55 @@
         <v>1.92</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>1.92</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.24</v>
@@ -2176,85 +2176,85 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.17</v>
       </c>
       <c r="R13" t="n">
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="T13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V13" t="n">
         <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="I14" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.26</v>
@@ -2311,13 +2311,13 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
@@ -2332,13 +2332,13 @@
         <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V14" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
@@ -2347,13 +2347,13 @@
         <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2362,37 +2362,37 @@
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>2.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
         <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
@@ -2470,10 +2470,10 @@
         <v>1.81</v>
       </c>
       <c r="V15" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X15" t="n">
         <v>8.6</v>
@@ -2482,7 +2482,7 @@
         <v>8.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
         <v>55</v>
@@ -2506,13 +2506,13 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK15" t="n">
         <v>44</v>
@@ -2557,79 +2557,79 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>1.37</v>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>970</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>1.37</v>
       </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>970</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1.31</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
@@ -2638,25 +2638,25 @@
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
@@ -2692,34 +2692,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>110</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>1.82</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
         <v>1.82</v>
@@ -2728,25 +2728,25 @@
         <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>2.04</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2773,31 +2773,31 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>970</v>
       </c>
       <c r="L18" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>1.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2890,7 +2890,7 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,34 +2902,34 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2965,22 +2965,22 @@
         <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
@@ -2992,16 +2992,16 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.25</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.84</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3016,58 +3016,58 @@
         <v>2.3</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>970</v>
       </c>
       <c r="H20" t="n">
         <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>970</v>
@@ -3121,40 +3121,40 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>1.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>2.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="R20" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U20" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="V20" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3193,13 +3193,13 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.6</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="R21" t="n">
         <v>1.09</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
@@ -3382,7 +3382,7 @@
         <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3406,7 +3406,7 @@
         <v>1.08</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
         <v>1.98</v>
@@ -3517,19 +3517,19 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P23" t="n">
         <v>1.62</v>
@@ -3556,7 +3556,7 @@
         <v>2.02</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3607,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AO23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3640,10 +3640,10 @@
         <v>2.68</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I24" t="n">
         <v>3.3</v>
@@ -3652,37 +3652,37 @@
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
         <v>1.44</v>
@@ -3691,22 +3691,22 @@
         <v>1.58</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3715,31 +3715,31 @@
         <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>980</v>
@@ -3775,109 +3775,109 @@
         <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="I25" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.15</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="R25" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="X25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
         <v>60</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.91</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.93</v>
       </c>
       <c r="J26" t="n">
         <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.29</v>
@@ -3943,37 +3943,37 @@
         <v>1.61</v>
       </c>
       <c r="R26" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
         <v>2.48</v>
       </c>
       <c r="T26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U26" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V26" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X26" t="n">
         <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4045,16 +4045,16 @@
         <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
@@ -4069,7 +4069,7 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
         <v>2.2</v>
@@ -4081,10 +4081,10 @@
         <v>1.48</v>
       </c>
       <c r="S27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T27" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
         <v>2.38</v>
@@ -4093,7 +4093,7 @@
         <v>1.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
         <v>23</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>1.04</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>1.88</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>970</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.3</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>4.4</v>
+        <v>1.73</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>1.44</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>970</v>
       </c>
       <c r="H29" t="n">
-        <v>2.66</v>
+        <v>1.09</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>970</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>970</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>2.98</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>1.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,109 +4447,109 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.44</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H30" t="n">
-        <v>8.800000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>970</v>
       </c>
       <c r="L30" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U30" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
         <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J31" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.52</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.51</v>
       </c>
       <c r="P31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q31" t="n">
         <v>1.52</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.46</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="T31" t="n">
         <v>2.08</v>
@@ -4630,64 +4630,64 @@
         <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W31" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X31" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
         <v>65</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>70</v>
-      </c>
       <c r="AL31" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4717,61 +4717,61 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.92</v>
+        <v>1.22</v>
       </c>
       <c r="G32" t="n">
         <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>1.92</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>970</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>1.96</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>970</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
         <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>2.26</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
         <v>1.92</v>
       </c>
       <c r="X32" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
         <v>1000</v>
@@ -4780,10 +4780,10 @@
         <v>980</v>
       </c>
       <c r="AA32" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
         <v>1000</v>
@@ -4792,7 +4792,7 @@
         <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
@@ -4804,25 +4804,25 @@
         <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>980</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
         <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,31 +4852,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I33" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4888,25 +4888,25 @@
         <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>2.02</v>
       </c>
       <c r="T33" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="V33" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="W33" t="n">
         <v>1.12</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
         <v>7.4</v>
@@ -4918,46 +4918,46 @@
         <v>12.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC33" t="n">
         <v>10.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
         <v>80</v>
       </c>
       <c r="AG33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AH33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="AK33" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AL33" t="n">
         <v>160</v>
       </c>
       <c r="AM33" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4990,7 +4990,7 @@
         <v>2.92</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>2.88</v>
@@ -4999,22 +4999,22 @@
         <v>3.05</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
         <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>1.68</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="P34" t="n">
         <v>1.68</v>
@@ -5023,16 +5023,16 @@
         <v>2.26</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="S34" t="n">
-        <v>3.85</v>
+        <v>2.26</v>
       </c>
       <c r="T34" t="n">
         <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
         <v>1.5</v>
@@ -5041,58 +5041,58 @@
         <v>1.48</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>55</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO34" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35">
@@ -5128,10 +5128,10 @@
         <v>3.9</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="J35" t="n">
         <v>3.45</v>
@@ -5152,7 +5152,7 @@
         <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
         <v>2.12</v>
@@ -5164,19 +5164,19 @@
         <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V35" t="n">
         <v>1.81</v>
       </c>
       <c r="W35" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
         <v>9.199999999999999</v>
@@ -5197,7 +5197,7 @@
         <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF35" t="n">
         <v>27</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
         <v>5.7</v>
@@ -5269,7 +5269,7 @@
         <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5308,25 +5308,25 @@
         <v>1.18</v>
       </c>
       <c r="W36" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA36" t="n">
         <v>200</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
         <v>25</v>
@@ -5341,25 +5341,25 @@
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
         <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>160</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G37" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
         <v>2.14</v>
       </c>
       <c r="I37" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>3.7</v>
@@ -5431,7 +5431,7 @@
         <v>1.41</v>
       </c>
       <c r="S37" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="T37" t="n">
         <v>1.73</v>
@@ -5446,49 +5446,49 @@
         <v>1.35</v>
       </c>
       <c r="X37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
         <v>23</v>
       </c>
       <c r="AF37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ37" t="n">
         <v>70</v>
       </c>
       <c r="AK37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL37" t="n">
         <v>55</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>60</v>
       </c>
       <c r="AM37" t="n">
         <v>90</v>
@@ -5497,7 +5497,7 @@
         <v>40</v>
       </c>
       <c r="AO37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
         <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K38" t="n">
         <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5560,7 +5560,7 @@
         <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
@@ -5569,13 +5569,13 @@
         <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W38" t="n">
         <v>2.04</v>
@@ -5602,7 +5602,7 @@
         <v>17</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF38" t="n">
         <v>12</v>
@@ -5617,7 +5617,7 @@
         <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK38" t="n">
         <v>19</v>
@@ -5632,7 +5632,7 @@
         <v>12.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5668,31 +5668,31 @@
         <v>970</v>
       </c>
       <c r="H39" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="I39" t="n">
-        <v>1.71</v>
+        <v>970</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K39" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="L39" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
         <v>1.74</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
         <v>1.01</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
         <v>1.01</v>
@@ -5797,70 +5797,70 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="J40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N40" t="n">
         <v>3.6</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.7</v>
-      </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R40" t="n">
         <v>1.35</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W40" t="n">
         <v>2</v>
       </c>
-      <c r="V40" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X40" t="n">
         <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
         <v>11</v>
@@ -5872,7 +5872,7 @@
         <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="n">
         <v>970</v>
@@ -5884,7 +5884,7 @@
         <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="n">
         <v>980</v>
@@ -5902,7 +5902,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -5932,61 +5932,61 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="I41" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="J41" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="L41" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R41" t="n">
         <v>1.35</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S41" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T41" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="U41" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="V41" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="W41" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X41" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
         <v>7.4</v>
@@ -5995,25 +5995,25 @@
         <v>7.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AB41" t="n">
         <v>980</v>
       </c>
       <c r="AC41" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD41" t="n">
         <v>12.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AG41" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AH41" t="n">
         <v>980</v>
@@ -6025,19 +6025,19 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="AM41" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="42">
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G42" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
         <v>3.65</v>
@@ -6079,22 +6079,22 @@
         <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P42" t="n">
         <v>1.79</v>
@@ -6103,73 +6103,73 @@
         <v>2.12</v>
       </c>
       <c r="R42" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="T42" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V42" t="n">
         <v>1.34</v>
       </c>
       <c r="W42" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Z42" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AA42" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AO42" t="n">
         <v>55</v>
@@ -6205,7 +6205,7 @@
         <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H43" t="n">
         <v>2.44</v>
@@ -6220,13 +6220,13 @@
         <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.38</v>
@@ -6244,7 +6244,7 @@
         <v>4.1</v>
       </c>
       <c r="T43" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
         <v>2.08</v>
@@ -6286,7 +6286,7 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
         <v>44</v>
@@ -6304,7 +6304,7 @@
         <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO43" t="n">
         <v>24</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G44" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>2.4</v>
@@ -6355,13 +6355,13 @@
         <v>3.6</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
@@ -6370,79 +6370,79 @@
         <v>2.08</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U44" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W44" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG44" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ44" t="n">
         <v>55</v>
       </c>
       <c r="AK44" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AO44" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
         <v>2.62</v>
@@ -6484,10 +6484,10 @@
         <v>2.7</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L45" t="n">
         <v>1.47</v>
@@ -6505,37 +6505,37 @@
         <v>1.73</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2.22</v>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V45" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W45" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z45" t="n">
         <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB45" t="n">
         <v>11.5</v>
@@ -6559,22 +6559,22 @@
         <v>19</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="n">
         <v>44</v>
       </c>
       <c r="AL45" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
         <v>140</v>
       </c>
       <c r="AN45" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO45" t="n">
         <v>30</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="G46" t="n">
         <v>2.96</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -6640,31 +6640,31 @@
         <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R46" t="n">
         <v>1.19</v>
       </c>
       <c r="S46" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U46" t="n">
         <v>1.79</v>
       </c>
       <c r="V46" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W46" t="n">
         <v>1.51</v>
       </c>
       <c r="X46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
         <v>18</v>
@@ -6673,13 +6673,13 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC46" t="n">
         <v>7</v>
       </c>
       <c r="AD46" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
         <v>46</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47">
@@ -6751,25 +6751,25 @@
         <v>2.38</v>
       </c>
       <c r="I47" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J47" t="n">
         <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>1.76</v>
       </c>
       <c r="O47" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
         <v>1.76</v>
@@ -6778,76 +6778,76 @@
         <v>2.12</v>
       </c>
       <c r="R47" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="V47" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF47" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
         <v>70</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO47" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="48">
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G48" t="n">
         <v>1.87</v>
@@ -6907,10 +6907,10 @@
         <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R48" t="n">
         <v>1.6</v>
@@ -6919,7 +6919,7 @@
         <v>2.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -6931,7 +6931,7 @@
         <v>2.14</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y48" t="n">
         <v>23</v>
@@ -6982,7 +6982,7 @@
         <v>8.4</v>
       </c>
       <c r="AO48" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
@@ -7015,10 +7015,10 @@
         <v>4.5</v>
       </c>
       <c r="G49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I49" t="n">
         <v>2.08</v>
@@ -7027,10 +7027,10 @@
         <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
@@ -7042,22 +7042,22 @@
         <v>1.42</v>
       </c>
       <c r="P49" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S49" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="T49" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U49" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V49" t="n">
         <v>1.92</v>
@@ -7117,7 +7117,7 @@
         <v>110</v>
       </c>
       <c r="AO49" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7150,7 +7150,7 @@
         <v>1.28</v>
       </c>
       <c r="G50" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>13.5</v>
@@ -7159,97 +7159,97 @@
         <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="K50" t="n">
         <v>6.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>1.02</v>
       </c>
       <c r="O50" t="n">
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="R50" t="n">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="T50" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="U50" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V50" t="n">
         <v>1.07</v>
       </c>
       <c r="W50" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI50" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7282,112 +7282,112 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="G51" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H51" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="J51" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>2.98</v>
+        <v>1.79</v>
       </c>
       <c r="O51" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S51" t="n">
-        <v>3.6</v>
+        <v>1.96</v>
       </c>
       <c r="T51" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U51" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="W51" t="n">
-        <v>2.34</v>
+        <v>2.72</v>
       </c>
       <c r="X51" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,22 +7417,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G52" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H52" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I52" t="n">
         <v>1.81</v>
       </c>
       <c r="J52" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
         <v>1.35</v>
@@ -7444,7 +7444,7 @@
         <v>4.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P52" t="n">
         <v>2.12</v>
@@ -7456,7 +7456,7 @@
         <v>1.43</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="T52" t="n">
         <v>1.77</v>
@@ -7465,25 +7465,25 @@
         <v>2.18</v>
       </c>
       <c r="V52" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="W52" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X52" t="n">
         <v>16.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA52" t="n">
         <v>19</v>
       </c>
       <c r="AB52" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AC52" t="n">
         <v>9</v>
@@ -7492,16 +7492,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE52" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AG52" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH52" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI52" t="n">
         <v>32</v>
@@ -7522,7 +7522,7 @@
         <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>10.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -7552,82 +7552,82 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="G53" t="n">
-        <v>2.82</v>
+        <v>970</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I53" t="n">
-        <v>3.9</v>
+        <v>970</v>
       </c>
       <c r="J53" t="n">
-        <v>2.78</v>
+        <v>2.5</v>
       </c>
       <c r="K53" t="n">
-        <v>3.2</v>
+        <v>970</v>
       </c>
       <c r="L53" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.58</v>
       </c>
       <c r="P53" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="R53" t="n">
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="T53" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="U53" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W53" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="X53" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z53" t="n">
         <v>980</v>
       </c>
       <c r="AA53" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
         <v>1000</v>
@@ -7639,7 +7639,7 @@
         <v>980</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ53" t="n">
         <v>980</v>
@@ -7648,16 +7648,16 @@
         <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
         <v>1000</v>
       </c>
       <c r="AN53" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
@@ -7690,22 +7690,22 @@
         <v>1.13</v>
       </c>
       <c r="G54" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="H54" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J54" t="n">
         <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
@@ -7723,7 +7723,7 @@
         <v>1.22</v>
       </c>
       <c r="R54" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="S54" t="n">
         <v>1.58</v>
@@ -7732,22 +7732,22 @@
         <v>1.91</v>
       </c>
       <c r="U54" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W54" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X54" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="Y54" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
@@ -7756,13 +7756,13 @@
         <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD54" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
         <v>13</v>
@@ -7771,10 +7771,10 @@
         <v>16.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AI54" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
         <v>10.5</v>
@@ -7786,13 +7786,13 @@
         <v>36</v>
       </c>
       <c r="AM54" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
         <v>2.14</v>
       </c>
       <c r="AO54" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="G55" t="n">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="I55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="J55" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="K55" t="n">
-        <v>3.75</v>
+        <v>950</v>
       </c>
       <c r="L55" t="n">
         <v>1.38</v>
@@ -7846,43 +7846,43 @@
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="P55" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>4.1</v>
+        <v>1.42</v>
       </c>
       <c r="T55" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="V55" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W55" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="X55" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z55" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA55" t="n">
         <v>980</v>
@@ -7891,10 +7891,10 @@
         <v>1000</v>
       </c>
       <c r="AC55" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD55" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE55" t="n">
         <v>980</v>
@@ -7903,7 +7903,7 @@
         <v>980</v>
       </c>
       <c r="AG55" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AH55" t="n">
         <v>980</v>
@@ -7912,22 +7912,22 @@
         <v>980</v>
       </c>
       <c r="AJ55" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM55" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7957,112 +7957,112 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.59</v>
+        <v>1.32</v>
       </c>
       <c r="G56" t="n">
-        <v>1.69</v>
+        <v>970</v>
       </c>
       <c r="H56" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="I56" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K56" t="n">
-        <v>4.2</v>
+        <v>970</v>
       </c>
       <c r="L56" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M56" t="n">
         <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="O56" t="n">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="P56" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.14</v>
+        <v>1.42</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S56" t="n">
-        <v>3.55</v>
+        <v>1.42</v>
       </c>
       <c r="T56" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W56" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="X56" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA56" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE56" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI56" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL56" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM56" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -8092,10 +8092,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G57" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>2.52</v>
@@ -8107,7 +8107,7 @@
         <v>3.05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L57" t="n">
         <v>1.57</v>
@@ -8116,7 +8116,7 @@
         <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O57" t="n">
         <v>1.55</v>
@@ -8134,16 +8134,16 @@
         <v>5.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U57" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V57" t="n">
         <v>1.64</v>
       </c>
       <c r="W57" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X57" t="n">
         <v>8.4</v>
@@ -8158,7 +8158,7 @@
         <v>36</v>
       </c>
       <c r="AB57" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8170,7 +8170,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG57" t="n">
         <v>16</v>
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H58" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I58" t="n">
         <v>1.9</v>
       </c>
       <c r="J58" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
         <v>3.7</v>
@@ -8251,7 +8251,7 @@
         <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>2.98</v>
+        <v>2.24</v>
       </c>
       <c r="O58" t="n">
         <v>1.43</v>
@@ -8263,10 +8263,10 @@
         <v>2.3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S58" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="T58" t="n">
         <v>2.04</v>
@@ -8317,7 +8317,7 @@
         <v>50</v>
       </c>
       <c r="AJ58" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK58" t="n">
         <v>110</v>
@@ -8362,13 +8362,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I59" t="n">
         <v>2.84</v>
@@ -8377,10 +8377,10 @@
         <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -8395,19 +8395,19 @@
         <v>1.86</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="R59" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="S59" t="n">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="T59" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="U59" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V59" t="n">
         <v>1.54</v>
@@ -8416,58 +8416,58 @@
         <v>1.47</v>
       </c>
       <c r="X59" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AA59" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AB59" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC59" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD59" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE59" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF59" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AG59" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK59" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL59" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM59" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO59" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
     </row>
     <row r="60">
@@ -8500,109 +8500,109 @@
         <v>1.52</v>
       </c>
       <c r="G60" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H60" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="I60" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.65</v>
+        <v>1.92</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Q60" t="n">
         <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T60" t="n">
         <v>2.12</v>
       </c>
       <c r="U60" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V60" t="n">
         <v>1.13</v>
       </c>
       <c r="W60" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="X60" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y60" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z60" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA60" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD60" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE60" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH60" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI60" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK60" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL60" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM60" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO60" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G61" t="n">
         <v>2.14</v>
@@ -8641,7 +8641,7 @@
         <v>4.5</v>
       </c>
       <c r="I61" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J61" t="n">
         <v>3.25</v>
@@ -8656,25 +8656,25 @@
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="O61" t="n">
         <v>1.44</v>
       </c>
       <c r="P61" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R61" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S61" t="n">
-        <v>4.4</v>
+        <v>2.36</v>
       </c>
       <c r="T61" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U61" t="n">
         <v>1.94</v>
@@ -8716,7 +8716,7 @@
         <v>11</v>
       </c>
       <c r="AH61" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI61" t="n">
         <v>85</v>
@@ -8770,61 +8770,61 @@
         <v>3.1</v>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>2.5</v>
       </c>
       <c r="I62" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J62" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="K62" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>3.05</v>
+        <v>1.27</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="P62" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="R62" t="n">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="S62" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T62" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="U62" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V62" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W62" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="X62" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y62" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z62" t="n">
         <v>1000</v>
@@ -8833,13 +8833,13 @@
         <v>980</v>
       </c>
       <c r="AB62" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD62" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE62" t="n">
         <v>980</v>
@@ -8848,28 +8848,28 @@
         <v>980</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH62" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI62" t="n">
         <v>60</v>
       </c>
       <c r="AJ62" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK62" t="n">
         <v>980</v>
       </c>
       <c r="AL62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM62" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN62" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO62" t="n">
         <v>980</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G63" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>21</v>
       </c>
       <c r="I63" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="J63" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
@@ -8932,13 +8932,13 @@
         <v>1.19</v>
       </c>
       <c r="P63" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R63" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="S63" t="n">
         <v>2.4</v>
@@ -8953,58 +8953,58 @@
         <v>1.04</v>
       </c>
       <c r="W63" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X63" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y63" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z63" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC63" t="n">
         <v>980</v>
       </c>
       <c r="AD63" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AG63" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH63" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI63" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AK63" t="n">
         <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM63" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9055,16 +9055,16 @@
         <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N64" t="n">
-        <v>2.48</v>
+        <v>1.24</v>
       </c>
       <c r="O64" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="P64" t="n">
         <v>1.58</v>
@@ -9079,13 +9079,13 @@
         <v>4.3</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="U64" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V64" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W64" t="n">
         <v>1.59</v>
@@ -9100,7 +9100,7 @@
         <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
         <v>1000</v>
@@ -9112,7 +9112,7 @@
         <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF64" t="n">
         <v>1000</v>
@@ -9124,7 +9124,7 @@
         <v>980</v>
       </c>
       <c r="AI64" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
         <v>980</v>
@@ -9142,7 +9142,7 @@
         <v>980</v>
       </c>
       <c r="AO64" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
@@ -9187,43 +9187,43 @@
         <v>3.75</v>
       </c>
       <c r="K65" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N65" t="n">
         <v>3.45</v>
       </c>
       <c r="O65" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P65" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q65" t="n">
         <v>2.16</v>
       </c>
       <c r="R65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S65" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T65" t="n">
         <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V65" t="n">
         <v>1.2</v>
       </c>
       <c r="W65" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -9238,10 +9238,10 @@
         <v>160</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD65" t="n">
         <v>22</v>
@@ -9250,7 +9250,7 @@
         <v>85</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG65" t="n">
         <v>9.800000000000001</v>
@@ -9259,7 +9259,7 @@
         <v>23</v>
       </c>
       <c r="AI65" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="n">
         <v>17.5</v>
@@ -9274,10 +9274,10 @@
         <v>150</v>
       </c>
       <c r="AN65" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G66" t="n">
         <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I66" t="n">
         <v>2.06</v>
@@ -9322,7 +9322,7 @@
         <v>3.65</v>
       </c>
       <c r="K66" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
@@ -9331,28 +9331,28 @@
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.7</v>
+        <v>1.96</v>
       </c>
       <c r="O66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R66" t="n">
         <v>1.32</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R66" t="n">
-        <v>1.37</v>
       </c>
       <c r="S66" t="n">
         <v>3.4</v>
       </c>
       <c r="T66" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="U66" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="V66" t="n">
         <v>1.94</v>
@@ -9361,58 +9361,58 @@
         <v>1.3</v>
       </c>
       <c r="X66" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y66" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z66" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA66" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AB66" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC66" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD66" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE66" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG66" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH66" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI66" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ66" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK66" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN66" t="n">
         <v>65</v>
       </c>
-      <c r="AL66" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM66" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>70</v>
-      </c>
       <c r="AO66" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2.04</v>
       </c>
       <c r="H2" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -700,40 +700,40 @@
         <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -742,7 +742,7 @@
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
         <v>13.5</v>
@@ -751,10 +751,10 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -763,16 +763,16 @@
         <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>85</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -814,7 +814,7 @@
         <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
         <v>4.8</v>
@@ -826,28 +826,28 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P3" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
@@ -856,28 +856,28 @@
         <v>2.26</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
         <v>44</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>46</v>
       </c>
       <c r="AF3" t="n">
         <v>15.5</v>
@@ -886,28 +886,28 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="n">
         <v>1.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
         <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Y4" t="n">
         <v>17</v>
@@ -1000,16 +1000,16 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>180</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>38</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>18.5</v>
@@ -1018,13 +1018,13 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1036,7 +1036,7 @@
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>970</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="J5" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
         <v>1.79</v>
@@ -1111,19 +1111,19 @@
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1141,7 +1141,7 @@
         <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>970</v>
@@ -1156,28 +1156,28 @@
         <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>970</v>
       </c>
       <c r="AJ5" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>970</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN5" t="n">
         <v>970</v>
       </c>
       <c r="AO5" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
@@ -1240,13 +1240,13 @@
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>1.02</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1270,49 +1270,49 @@
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -1342,94 +1342,94 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="G7" t="n">
-        <v>85</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="I8" t="n">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>970</v>
+        <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="W8" t="n">
         <v>1.12</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
         <v>970</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AO8" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.38</v>
+        <v>1.55</v>
       </c>
       <c r="G9" t="n">
-        <v>1.61</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>1.23</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -1660,10 +1660,10 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>2.62</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,64 +1747,64 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I10" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="K10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
         <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,37 +1813,37 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G11" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="I11" t="n">
         <v>2.74</v>
       </c>
       <c r="J11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.45</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1909,85 +1909,85 @@
         <v>3.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -2020,109 +2020,109 @@
         <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.98</v>
+        <v>3.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R12" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="V12" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2155,43 +2155,43 @@
         <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
         <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2203,58 +2203,58 @@
         <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2326,16 +2326,16 @@
         <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
         <v>1.5</v>
@@ -2353,7 +2353,7 @@
         <v>32</v>
       </c>
       <c r="AB14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2377,7 +2377,7 @@
         <v>28</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="n">
         <v>28</v>
@@ -2392,7 +2392,7 @@
         <v>17.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G15" t="n">
         <v>2.94</v>
@@ -2446,28 +2446,28 @@
         <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O15" t="n">
         <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="R15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="T15" t="n">
         <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,10 +2476,10 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z15" t="n">
         <v>17.5</v>
@@ -2494,22 +2494,22 @@
         <v>6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>48</v>
@@ -2518,10 +2518,10 @@
         <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
         <v>50</v>
@@ -2557,106 +2557,106 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.37</v>
+        <v>2.64</v>
       </c>
       <c r="G16" t="n">
-        <v>970</v>
+        <v>3.15</v>
       </c>
       <c r="H16" t="n">
-        <v>1.37</v>
+        <v>2.58</v>
       </c>
       <c r="I16" t="n">
-        <v>970</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>980</v>
       </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="n">
         <v>980</v>
       </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
@@ -2692,34 +2692,34 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>110</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
         <v>1.82</v>
@@ -2728,28 +2728,28 @@
         <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="S17" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2773,31 +2773,31 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18">
@@ -2830,43 +2830,43 @@
         <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="I18" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="O18" t="n">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2890,7 +2890,7 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,37 +2902,37 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="H19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1000</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -2992,16 +2992,16 @@
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3013,61 +3013,61 @@
         <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
         <v>25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>30</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB19" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="G20" t="n">
-        <v>970</v>
+        <v>1.17</v>
       </c>
       <c r="H20" t="n">
         <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,40 +3121,40 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.8</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>1.8</v>
+        <v>2.96</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.89</v>
       </c>
       <c r="S20" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="T20" t="n">
         <v>2.36</v>
       </c>
       <c r="U20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3181,10 +3181,10 @@
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3193,13 +3193,13 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G21" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
         <v>3.6</v>
@@ -3253,91 +3253,91 @@
         <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R21" t="n">
-        <v>1.09</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>1.96</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
         <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Q22" t="n">
         <v>1.01</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="G23" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I23" t="n">
         <v>5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3520,7 +3520,7 @@
         <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M23" t="n">
         <v>1.11</v>
@@ -3529,13 +3529,13 @@
         <v>2.88</v>
       </c>
       <c r="O23" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
@@ -3544,37 +3544,37 @@
         <v>5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>36</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3583,13 +3583,13 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
@@ -3601,7 +3601,7 @@
         <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P24" t="n">
         <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
         <v>2</v>
@@ -3688,58 +3688,58 @@
         <v>1.44</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y24" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB24" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
         <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN24" t="n">
         <v>980</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
       </c>
       <c r="AO24" t="n">
         <v>980</v>
@@ -3772,31 +3772,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
@@ -3805,7 +3805,7 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.39</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3814,16 +3814,16 @@
         <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U25" t="n">
         <v>1.83</v>
       </c>
       <c r="V25" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.45</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3841,7 +3841,7 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
@@ -3859,19 +3859,19 @@
         <v>980</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AK25" t="n">
         <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
         <v>980</v>
@@ -3913,7 +3913,7 @@
         <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I26" t="n">
         <v>1.91</v>
@@ -3925,34 +3925,34 @@
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S26" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T26" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V26" t="n">
         <v>2.1</v>
@@ -3964,16 +3964,16 @@
         <v>24</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AB26" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
         <v>10</v>
@@ -3994,7 +3994,7 @@
         <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>85</v>
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM26" t="n">
         <v>65</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
@@ -4057,7 +4057,7 @@
         <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.33</v>
@@ -4069,25 +4069,25 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V27" t="n">
         <v>1.4</v>
@@ -4096,58 +4096,58 @@
         <v>1.79</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
         <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="n">
         <v>14.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>970</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
@@ -4312,112 +4312,112 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.44</v>
+        <v>2.74</v>
       </c>
       <c r="G29" t="n">
-        <v>970</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>1.09</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>970</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>2.76</v>
       </c>
       <c r="K29" t="n">
-        <v>970</v>
+        <v>3.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
         <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
@@ -4447,109 +4447,109 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="G30" t="n">
         <v>1.44</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>9.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K30" t="n">
-        <v>970</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="T30" t="n">
         <v>2.34</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
         <v>1.09</v>
       </c>
       <c r="W30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4585,7 +4585,7 @@
         <v>3.7</v>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>2.22</v>
@@ -4603,31 +4603,31 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="O31" t="n">
         <v>1.51</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.52</v>
+        <v>2.48</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>1.52</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
         <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V31" t="n">
         <v>1.78</v>
@@ -4636,58 +4636,58 @@
         <v>1.35</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -4717,112 +4717,112 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="G32" t="n">
         <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>1.92</v>
+        <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>970</v>
+        <v>5.6</v>
       </c>
       <c r="J32" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>970</v>
+        <v>3.65</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="Q32" t="n">
         <v>2.26</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>2.26</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>1.92</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL32" t="n">
         <v>980</v>
       </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN32" t="n">
         <v>980</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33">
@@ -4852,31 +4852,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="I33" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4888,46 +4888,46 @@
         <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S33" t="n">
-        <v>2.02</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="W33" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z33" t="n">
         <v>8</v>
       </c>
       <c r="AA33" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF33" t="n">
         <v>80</v>
@@ -4936,28 +4936,28 @@
         <v>32</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ33" t="n">
         <v>320</v>
       </c>
       <c r="AK33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM33" t="n">
         <v>180</v>
       </c>
-      <c r="AL33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>190</v>
-      </c>
       <c r="AN33" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -4993,106 +4993,106 @@
         <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.68</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
         <v>1.68</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>2.26</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
         <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V34" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>55</v>
       </c>
-      <c r="AB34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>980</v>
-      </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN34" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO34" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="G35" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H35" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="J35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" t="n">
         <v>3.45</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
@@ -5149,7 +5149,7 @@
         <v>3.55</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
         <v>1.87</v>
@@ -5158,22 +5158,22 @@
         <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S35" t="n">
         <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="W35" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X35" t="n">
         <v>12.5</v>
@@ -5182,40 +5182,40 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB35" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD35" t="n">
         <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI35" t="n">
         <v>40</v>
       </c>
       <c r="AJ35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="36">
@@ -5275,7 +5275,7 @@
         <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5293,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S36" t="n">
         <v>3.4</v>
@@ -5302,7 +5302,7 @@
         <v>1.93</v>
       </c>
       <c r="U36" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
         <v>1.18</v>
@@ -5311,7 +5311,7 @@
         <v>2.32</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
         <v>23</v>
@@ -5320,10 +5320,10 @@
         <v>60</v>
       </c>
       <c r="AA36" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC36" t="n">
         <v>11</v>
@@ -5332,7 +5332,7 @@
         <v>25</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF36" t="n">
         <v>10.5</v>
@@ -5344,22 +5344,22 @@
         <v>27</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="n">
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G37" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H37" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I37" t="n">
         <v>2.14</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.18</v>
-      </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5419,73 +5419,73 @@
         <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
         <v>2.02</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S37" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T37" t="n">
         <v>1.73</v>
       </c>
       <c r="U37" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V37" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W37" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA37" t="n">
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF37" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="n">
         <v>55</v>
@@ -5494,10 +5494,10 @@
         <v>90</v>
       </c>
       <c r="AN37" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.94</v>
       </c>
-      <c r="G38" t="n">
-        <v>1.96</v>
-      </c>
       <c r="H38" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J38" t="n">
         <v>3.85</v>
@@ -5545,7 +5545,7 @@
         <v>3.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5560,28 +5560,28 @@
         <v>2.08</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W38" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y38" t="n">
         <v>17</v>
@@ -5614,13 +5614,13 @@
         <v>18</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ38" t="n">
         <v>22</v>
       </c>
       <c r="AK38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL38" t="n">
         <v>34</v>
@@ -5629,7 +5629,7 @@
         <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO38" t="n">
         <v>55</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G39" t="n">
         <v>970</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="I39" t="n">
-        <v>970</v>
+        <v>1.71</v>
       </c>
       <c r="J39" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -5689,19 +5689,19 @@
         <v>1.02</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P39" t="n">
         <v>1.74</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R39" t="n">
         <v>1.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,22 +5710,22 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB39" t="n">
         <v>1000</v>
@@ -5734,10 +5734,10 @@
         <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF39" t="n">
         <v>1000</v>
@@ -5749,7 +5749,7 @@
         <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ39" t="n">
         <v>1000</v>
@@ -5767,7 +5767,7 @@
         <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H40" t="n">
         <v>4.2</v>
@@ -5815,37 +5815,37 @@
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P40" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="R40" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="S40" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
@@ -5860,7 +5860,7 @@
         <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AB40" t="n">
         <v>11</v>
@@ -5872,10 +5872,10 @@
         <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AF40" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
@@ -5884,7 +5884,7 @@
         <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AJ40" t="n">
         <v>980</v>
@@ -5896,13 +5896,13 @@
         <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN40" t="n">
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -5932,55 +5932,55 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="I41" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K41" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q41" t="n">
         <v>1.92</v>
       </c>
       <c r="R41" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S41" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T41" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V41" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="W41" t="n">
         <v>1.06</v>
@@ -5989,46 +5989,46 @@
         <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA41" t="n">
         <v>11</v>
       </c>
       <c r="AB41" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AC41" t="n">
         <v>18.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AG41" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AH41" t="n">
         <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AJ41" t="n">
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AL41" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="n">
         <v>1000</v>
@@ -6070,19 +6070,19 @@
         <v>2.2</v>
       </c>
       <c r="G42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H42" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J42" t="n">
         <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.46</v>
@@ -6091,88 +6091,88 @@
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P42" t="n">
         <v>1.79</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W42" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
@@ -6205,13 +6205,13 @@
         <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I43" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J43" t="n">
         <v>3.4</v>
@@ -6232,16 +6232,16 @@
         <v>1.38</v>
       </c>
       <c r="P43" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S43" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
         <v>1.87</v>
@@ -6250,10 +6250,10 @@
         <v>2.08</v>
       </c>
       <c r="V43" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W43" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -6286,7 +6286,7 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI43" t="n">
         <v>44</v>
@@ -6304,10 +6304,10 @@
         <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -6337,112 +6337,112 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I44" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T44" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U44" t="n">
         <v>2.3</v>
       </c>
       <c r="V44" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="W44" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X44" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG44" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI44" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK44" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J45" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
         <v>3.15</v>
@@ -6502,82 +6502,82 @@
         <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="S45" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA45" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AB45" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC45" t="n">
         <v>7.2</v>
       </c>
       <c r="AD45" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO45" t="n">
         <v>32</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="G46" t="n">
         <v>2.96</v>
@@ -6616,7 +6616,7 @@
         <v>2.96</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>3</v>
@@ -6637,7 +6637,7 @@
         <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q46" t="n">
         <v>2.74</v>
@@ -6646,13 +6646,13 @@
         <v>1.19</v>
       </c>
       <c r="S46" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T46" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V46" t="n">
         <v>1.48</v>
@@ -6661,10 +6661,10 @@
         <v>1.51</v>
       </c>
       <c r="X46" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y46" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>1000</v>
       </c>
       <c r="Z46" t="n">
         <v>18</v>
@@ -6673,10 +6673,10 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD46" t="n">
         <v>14.5</v>
@@ -6703,10 +6703,10 @@
         <v>44</v>
       </c>
       <c r="AL46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="n">
         <v>55</v>
@@ -6742,55 +6742,55 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="G47" t="n">
         <v>3.5</v>
       </c>
       <c r="H47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J47" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>1.76</v>
+        <v>1.02</v>
       </c>
       <c r="O47" t="n">
         <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R47" t="n">
         <v>1.23</v>
       </c>
       <c r="S47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T47" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U47" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V47" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="W47" t="n">
         <v>1.41</v>
@@ -6832,16 +6832,16 @@
         <v>980</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK47" t="n">
         <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN47" t="n">
         <v>980</v>
@@ -6880,46 +6880,46 @@
         <v>1.86</v>
       </c>
       <c r="G48" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H48" t="n">
         <v>4.5</v>
       </c>
       <c r="I48" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.1</v>
       </c>
-      <c r="K48" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="n">
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O48" t="n">
         <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S48" t="n">
         <v>2.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -6928,25 +6928,25 @@
         <v>1.27</v>
       </c>
       <c r="W48" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X48" t="n">
         <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z48" t="n">
         <v>38</v>
       </c>
       <c r="AA48" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB48" t="n">
         <v>12.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD48" t="n">
         <v>18</v>
@@ -6961,7 +6961,7 @@
         <v>10.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI48" t="n">
         <v>48</v>
@@ -6973,16 +6973,16 @@
         <v>17</v>
       </c>
       <c r="AL48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM48" t="n">
         <v>70</v>
       </c>
       <c r="AN48" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO48" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
@@ -7024,7 +7024,7 @@
         <v>2.08</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
@@ -7042,22 +7042,22 @@
         <v>1.42</v>
       </c>
       <c r="P49" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="R49" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S49" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="U49" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V49" t="n">
         <v>1.92</v>
@@ -7066,19 +7066,19 @@
         <v>1.26</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y49" t="n">
         <v>7.8</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC49" t="n">
         <v>7.6</v>
@@ -7087,22 +7087,22 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF49" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH49" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ49" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="n">
         <v>70</v>
@@ -7111,13 +7111,13 @@
         <v>95</v>
       </c>
       <c r="AM49" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G50" t="n">
         <v>1.3</v>
@@ -7156,100 +7156,100 @@
         <v>13.5</v>
       </c>
       <c r="I50" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="J50" t="n">
         <v>6.2</v>
       </c>
       <c r="K50" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="O50" t="n">
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q50" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S50" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="V50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W50" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN50" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO50" t="n">
         <v>1000</v>
@@ -7285,13 +7285,13 @@
         <v>1.47</v>
       </c>
       <c r="G51" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H51" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I51" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -7300,94 +7300,94 @@
         <v>4.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>1.79</v>
+        <v>3.25</v>
       </c>
       <c r="O51" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q51" t="n">
         <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S51" t="n">
-        <v>1.96</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V51" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="W51" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
@@ -7417,25 +7417,25 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G52" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I52" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K52" t="n">
         <v>3.9</v>
       </c>
-      <c r="K52" t="n">
-        <v>4</v>
-      </c>
       <c r="L52" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M52" t="n">
         <v>1.06</v>
@@ -7444,22 +7444,22 @@
         <v>4.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R52" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S52" t="n">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U52" t="n">
         <v>2.18</v>
@@ -7468,61 +7468,61 @@
         <v>2.24</v>
       </c>
       <c r="W52" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X52" t="n">
         <v>16.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z52" t="n">
         <v>11</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB52" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD52" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF52" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI52" t="n">
         <v>32</v>
       </c>
       <c r="AJ52" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL52" t="n">
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN52" t="n">
         <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="G53" t="n">
         <v>970</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="I53" t="n">
         <v>970</v>
       </c>
       <c r="J53" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K53" t="n">
-        <v>970</v>
+        <v>3.45</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,7 +7576,7 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="O53" t="n">
         <v>1.58</v>
@@ -7600,10 +7600,10 @@
         <v>1.01</v>
       </c>
       <c r="V53" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W53" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X53" t="n">
         <v>1000</v>
@@ -7615,7 +7615,7 @@
         <v>980</v>
       </c>
       <c r="AA53" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB53" t="n">
         <v>1000</v>
@@ -7627,7 +7627,7 @@
         <v>1000</v>
       </c>
       <c r="AE53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF53" t="n">
         <v>1000</v>
@@ -7639,7 +7639,7 @@
         <v>980</v>
       </c>
       <c r="AI53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ53" t="n">
         <v>980</v>
@@ -7648,16 +7648,16 @@
         <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
@@ -7693,7 +7693,7 @@
         <v>1.14</v>
       </c>
       <c r="H54" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I54" t="n">
         <v>29</v>
@@ -7705,13 +7705,13 @@
         <v>12.5</v>
       </c>
       <c r="L54" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.07</v>
@@ -7720,7 +7720,7 @@
         <v>5.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="R54" t="n">
         <v>2.64</v>
@@ -7729,7 +7729,7 @@
         <v>1.58</v>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U54" t="n">
         <v>2.04</v>
@@ -7738,40 +7738,40 @@
         <v>1.03</v>
       </c>
       <c r="W54" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X54" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC54" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AF54" t="n">
         <v>13</v>
       </c>
       <c r="AG54" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
@@ -7780,19 +7780,19 @@
         <v>10.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55">
@@ -7822,13 +7822,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="G55" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I55" t="n">
         <v>2.08</v>
@@ -7837,43 +7837,43 @@
         <v>2.84</v>
       </c>
       <c r="K55" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L55" t="n">
         <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N55" t="n">
         <v>1.02</v>
       </c>
       <c r="O55" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
       <c r="R55" t="n">
         <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="T55" t="n">
         <v>1.01</v>
       </c>
       <c r="U55" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V55" t="n">
         <v>1.92</v>
       </c>
       <c r="W55" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X55" t="n">
         <v>1000</v>
@@ -7912,19 +7912,19 @@
         <v>980</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7957,34 +7957,34 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="G56" t="n">
-        <v>970</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
-        <v>1.04</v>
+        <v>5.7</v>
       </c>
       <c r="I56" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K56" t="n">
-        <v>970</v>
+        <v>4.8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
         <v>1.02</v>
       </c>
       <c r="O56" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="P56" t="n">
         <v>1.25</v>
@@ -8005,16 +8005,16 @@
         <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="X56" t="n">
         <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z56" t="n">
         <v>70</v>
@@ -8029,7 +8029,7 @@
         <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
@@ -8041,7 +8041,7 @@
         <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8053,7 +8053,7 @@
         <v>980</v>
       </c>
       <c r="AL56" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
@@ -8110,7 +8110,7 @@
         <v>3.15</v>
       </c>
       <c r="L57" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M57" t="n">
         <v>1.13</v>
@@ -8119,13 +8119,13 @@
         <v>2.72</v>
       </c>
       <c r="O57" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P57" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8134,10 +8134,10 @@
         <v>5.5</v>
       </c>
       <c r="T57" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U57" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V57" t="n">
         <v>1.64</v>
@@ -8170,7 +8170,7 @@
         <v>34</v>
       </c>
       <c r="AF57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG57" t="n">
         <v>16</v>
@@ -8230,13 +8230,13 @@
         <v>5.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H58" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I58" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J58" t="n">
         <v>3.5</v>
@@ -8251,31 +8251,31 @@
         <v>1.09</v>
       </c>
       <c r="N58" t="n">
-        <v>2.24</v>
+        <v>3.05</v>
       </c>
       <c r="O58" t="n">
         <v>1.43</v>
       </c>
       <c r="P58" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R58" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S58" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="T58" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U58" t="n">
         <v>1.81</v>
       </c>
       <c r="V58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W58" t="n">
         <v>1.21</v>
@@ -8290,49 +8290,49 @@
         <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB58" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC58" t="n">
         <v>8.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF58" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AG58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH58" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ58" t="n">
         <v>180</v>
       </c>
       <c r="AK58" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL58" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="n">
         <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AO58" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -8368,19 +8368,19 @@
         <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="I59" t="n">
         <v>2.84</v>
       </c>
       <c r="J59" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K59" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L59" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
@@ -8389,7 +8389,7 @@
         <v>3.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P59" t="n">
         <v>1.86</v>
@@ -8398,16 +8398,16 @@
         <v>2.02</v>
       </c>
       <c r="R59" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="T59" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U59" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V59" t="n">
         <v>1.54</v>
@@ -8416,58 +8416,58 @@
         <v>1.47</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AA59" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB59" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC59" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE59" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF59" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI59" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ59" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL59" t="n">
         <v>55</v>
       </c>
-      <c r="AK59" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>980</v>
-      </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN59" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO59" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -8497,112 +8497,112 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="G60" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H60" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K60" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L60" t="n">
         <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>1.92</v>
+        <v>3.65</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R60" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="S60" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T60" t="n">
         <v>2.12</v>
       </c>
       <c r="U60" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V60" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W60" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X60" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z60" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AB60" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC60" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD60" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF60" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK60" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL60" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO60" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61">
@@ -8656,28 +8656,28 @@
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
         <v>1.68</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>2.36</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U61" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V61" t="n">
         <v>1.27</v>
@@ -8686,7 +8686,7 @@
         <v>1.88</v>
       </c>
       <c r="X61" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y61" t="n">
         <v>13.5</v>
@@ -8728,10 +8728,10 @@
         <v>26</v>
       </c>
       <c r="AL61" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN61" t="n">
         <v>21</v>
@@ -8767,61 +8767,61 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I62" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="J62" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K62" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M62" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N62" t="n">
-        <v>1.27</v>
+        <v>3</v>
       </c>
       <c r="O62" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="P62" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R62" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S62" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="U62" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W62" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y62" t="n">
         <v>1000</v>
@@ -8833,10 +8833,10 @@
         <v>980</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD62" t="n">
         <v>1000</v>
@@ -8845,7 +8845,7 @@
         <v>980</v>
       </c>
       <c r="AF62" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AG62" t="n">
         <v>1000</v>
@@ -8854,19 +8854,19 @@
         <v>980</v>
       </c>
       <c r="AI62" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AK62" t="n">
         <v>980</v>
       </c>
       <c r="AL62" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN62" t="n">
         <v>980</v>
@@ -8908,43 +8908,43 @@
         <v>1.2</v>
       </c>
       <c r="H63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I63" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K63" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O63" t="n">
         <v>1.19</v>
       </c>
       <c r="P63" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q63" t="n">
         <v>1.56</v>
       </c>
       <c r="R63" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="S63" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T63" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="U63" t="n">
         <v>1.58</v>
@@ -8956,55 +8956,55 @@
         <v>6</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC63" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE63" t="n">
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9037,58 +9037,58 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="G64" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H64" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="K64" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>1.24</v>
+        <v>2.5</v>
       </c>
       <c r="O64" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P64" t="n">
         <v>1.58</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R64" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S64" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T64" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U64" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V64" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W64" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="X64" t="n">
         <v>1000</v>
@@ -9100,19 +9100,19 @@
         <v>980</v>
       </c>
       <c r="AA64" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB64" t="n">
         <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD64" t="n">
         <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AF64" t="n">
         <v>1000</v>
@@ -9124,7 +9124,7 @@
         <v>980</v>
       </c>
       <c r="AI64" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ64" t="n">
         <v>980</v>
@@ -9133,16 +9133,16 @@
         <v>980</v>
       </c>
       <c r="AL64" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM64" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN64" t="n">
         <v>980</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65">
@@ -9172,25 +9172,25 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="G65" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="H65" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J65" t="n">
         <v>3.75</v>
       </c>
       <c r="K65" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L65" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
@@ -9199,19 +9199,19 @@
         <v>3.45</v>
       </c>
       <c r="O65" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P65" t="n">
         <v>1.82</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R65" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T65" t="n">
         <v>2.04</v>
@@ -9220,16 +9220,16 @@
         <v>1.9</v>
       </c>
       <c r="V65" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W65" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z65" t="n">
         <v>42</v>
@@ -9238,34 +9238,34 @@
         <v>160</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG65" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH65" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI65" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ65" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL65" t="n">
         <v>42</v>
@@ -9274,7 +9274,7 @@
         <v>150</v>
       </c>
       <c r="AN65" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO65" t="n">
         <v>110</v>
@@ -9307,13 +9307,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G66" t="n">
         <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I66" t="n">
         <v>2.06</v>
@@ -9322,31 +9322,31 @@
         <v>3.65</v>
       </c>
       <c r="K66" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N66" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="O66" t="n">
         <v>1.3</v>
       </c>
       <c r="P66" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R66" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S66" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="T66" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
@@ -703,7 +703,7 @@
         <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -712,13 +712,13 @@
         <v>1.72</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
@@ -727,13 +727,13 @@
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>8.800000000000001</v>
@@ -742,7 +742,7 @@
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
         <v>13.5</v>
@@ -751,28 +751,28 @@
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>20</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>960</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>4.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -826,61 +826,61 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
         <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
         <v>44</v>
       </c>
       <c r="AF3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -889,7 +889,7 @@
         <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>21</v>
@@ -898,16 +898,16 @@
         <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H4" t="n">
         <v>1.08</v>
@@ -949,31 +949,31 @@
         <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.16</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S4" t="n">
         <v>1.74</v>
@@ -982,7 +982,7 @@
         <v>2.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -991,16 +991,16 @@
         <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1024,7 +1024,7 @@
         <v>330</v>
       </c>
       <c r="AI4" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,16 +1033,16 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AM4" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I5" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1177,7 +1177,7 @@
         <v>970</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="G6" t="n">
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>44</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>44</v>
@@ -1228,37 +1228,37 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.02</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,19 +1348,19 @@
         <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="I7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1375,7 +1375,7 @@
         <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>1.35</v>
@@ -1390,7 +1390,7 @@
         <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1399,7 +1399,7 @@
         <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
         <v>9.6</v>
@@ -1480,10 +1480,10 @@
         <v>6.8</v>
       </c>
       <c r="G8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="I8" t="n">
         <v>1.55</v>
@@ -1492,7 +1492,7 @@
         <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.37</v>
@@ -1504,7 +1504,7 @@
         <v>3.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
         <v>1.88</v>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA8" t="n">
         <v>14</v>
@@ -1546,13 +1546,13 @@
         <v>30</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>110</v>
@@ -1561,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>970</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.37</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>1.32</v>
+        <v>2.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>5.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H10" t="n">
         <v>40</v>
@@ -1759,7 +1759,7 @@
         <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
         <v>15</v>
@@ -1774,37 +1774,37 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P10" t="n">
         <v>4.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="U10" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X10" t="n">
         <v>70</v>
       </c>
       <c r="Y10" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC10" t="n">
         <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>210</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1840,7 +1840,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
         <v>85</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
         <v>3.1</v>
@@ -1900,31 +1900,31 @@
         <v>3.45</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.3</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
         <v>2.2</v>
@@ -1936,7 +1936,7 @@
         <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>14</v>
@@ -1987,7 +1987,7 @@
         <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -2050,7 +2050,7 @@
         <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
@@ -2071,10 +2071,10 @@
         <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
         <v>16</v>
@@ -2083,10 +2083,10 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
@@ -2101,16 +2101,16 @@
         <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>130</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AK12" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
@@ -2164,7 +2164,7 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
@@ -2176,40 +2176,40 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
         <v>1.51</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z13" t="n">
         <v>980</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="G14" t="n">
         <v>3.05</v>
@@ -2296,7 +2296,7 @@
         <v>2.36</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2308,16 +2308,16 @@
         <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
         <v>1.57</v>
@@ -2326,7 +2326,7 @@
         <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.55</v>
@@ -2335,10 +2335,10 @@
         <v>2.74</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X14" t="n">
         <v>25</v>
@@ -2356,7 +2356,7 @@
         <v>18.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
@@ -2440,10 +2440,10 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
         <v>2.72</v>
@@ -2455,10 +2455,10 @@
         <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S15" t="n">
         <v>5.6</v>
@@ -2476,7 +2476,7 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y15" t="n">
         <v>8.4</v>
@@ -2527,7 +2527,7 @@
         <v>50</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.64</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.58</v>
-      </c>
       <c r="I16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
         <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.3</v>
@@ -2590,25 +2590,25 @@
         <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
         <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>18</v>
@@ -2620,28 +2620,28 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>240</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
         <v>19.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
         <v>980</v>
@@ -2650,7 +2650,7 @@
         <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2662,7 +2662,7 @@
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="G17" t="n">
         <v>2.48</v>
@@ -2701,22 +2701,22 @@
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.34</v>
@@ -2725,22 +2725,22 @@
         <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
         <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
         <v>1.67</v>
@@ -2749,16 +2749,16 @@
         <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
@@ -2773,7 +2773,7 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,7 +2782,7 @@
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2797,7 +2797,7 @@
         <v>980</v>
       </c>
       <c r="AO17" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2827,61 +2827,61 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.26</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y18" t="n">
         <v>1000</v>
@@ -2896,10 +2896,10 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
@@ -2908,7 +2908,7 @@
         <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
@@ -2917,19 +2917,19 @@
         <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
         <v>200</v>
       </c>
       <c r="AL18" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
         <v>85</v>
@@ -2965,67 +2965,67 @@
         <v>1.63</v>
       </c>
       <c r="G19" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I19" t="n">
         <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
         <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
         <v>2.86</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
         <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
@@ -3034,19 +3034,19 @@
         <v>18</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>200</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>190</v>
@@ -3067,7 +3067,7 @@
         <v>11</v>
       </c>
       <c r="AO19" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="G20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H20" t="n">
         <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.45</v>
+        <v>1.02</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P20" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R20" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="T20" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="V20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
         <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3184,7 +3184,7 @@
         <v>980</v>
       </c>
       <c r="AI20" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>2.78</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
         <v>2.28</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
         <v>4.3</v>
@@ -3250,16 +3250,16 @@
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P21" t="n">
         <v>1.72</v>
@@ -3271,73 +3271,73 @@
         <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
         <v>1.31</v>
       </c>
       <c r="W21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X21" t="n">
         <v>19.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
         <v>240</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>380</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AM21" t="n">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H22" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="I22" t="n">
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="K22" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,19 +3391,19 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3433,10 +3433,10 @@
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
@@ -3445,31 +3445,31 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3511,13 +3511,13 @@
         <v>4.9</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.55</v>
@@ -3526,16 +3526,16 @@
         <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
@@ -3544,13 +3544,13 @@
         <v>5.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
@@ -3568,13 +3568,13 @@
         <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC23" t="n">
         <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3583,13 +3583,13 @@
         <v>10</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
@@ -3601,7 +3601,7 @@
         <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G24" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
         <v>3.1</v>
@@ -3661,7 +3661,7 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O24" t="n">
         <v>1.49</v>
@@ -3670,7 +3670,7 @@
         <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R24" t="n">
         <v>1.23</v>
@@ -3682,40 +3682,40 @@
         <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
         <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
@@ -3724,25 +3724,25 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL24" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -3772,52 +3772,52 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.39</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S25" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
         <v>1.51</v>
@@ -3826,58 +3826,58 @@
         <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>42</v>
+        <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AJ25" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3910,16 +3910,16 @@
         <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I26" t="n">
         <v>1.91</v>
       </c>
       <c r="J26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
@@ -3955,10 +3955,10 @@
         <v>2.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
         <v>24</v>
@@ -3970,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
@@ -3997,13 +3997,13 @@
         <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AM26" t="n">
         <v>65</v>
@@ -4012,7 +4012,7 @@
         <v>34</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="27">
@@ -4045,13 +4045,13 @@
         <v>2.2</v>
       </c>
       <c r="G27" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J27" t="n">
         <v>3.75</v>
@@ -4069,10 +4069,10 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
         <v>1.77</v>
@@ -4084,34 +4084,34 @@
         <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U27" t="n">
         <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD27" t="n">
         <v>15</v>
@@ -4126,28 +4126,28 @@
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
         <v>14.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G28" t="n">
         <v>2.16</v>
@@ -4186,13 +4186,13 @@
         <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
         <v>1.5</v>
@@ -4222,7 +4222,7 @@
         <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
         <v>1.24</v>
@@ -4234,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
         <v>42</v>
@@ -4252,7 +4252,7 @@
         <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AF28" t="n">
         <v>14</v>
@@ -4270,7 +4270,7 @@
         <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
         <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I29" t="n">
         <v>3.15</v>
@@ -4327,13 +4327,13 @@
         <v>2.76</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L29" t="n">
         <v>1.47</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
         <v>3.1</v>
@@ -4369,7 +4369,7 @@
         <v>14</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
         <v>22</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.43</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H30" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I30" t="n">
         <v>13.5</v>
@@ -4465,7 +4465,7 @@
         <v>4.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M30" t="n">
         <v>1.08</v>
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G31" t="n">
         <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I31" t="n">
         <v>2.28</v>
@@ -4609,7 +4609,7 @@
         <v>2.48</v>
       </c>
       <c r="O31" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="P31" t="n">
         <v>1.51</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G32" t="n">
         <v>2.08</v>
@@ -4726,10 +4726,10 @@
         <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>3.65</v>
@@ -4750,7 +4750,7 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
@@ -4765,7 +4765,7 @@
         <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
         <v>1.92</v>
@@ -4801,7 +4801,7 @@
         <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>500</v>
@@ -4819,7 +4819,7 @@
         <v>500</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
         <v>500</v>
@@ -4855,19 +4855,19 @@
         <v>8.4</v>
       </c>
       <c r="G33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H33" t="n">
         <v>1.51</v>
       </c>
       <c r="I33" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L33" t="n">
         <v>1.4</v>
@@ -4876,19 +4876,19 @@
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q33" t="n">
         <v>2.02</v>
       </c>
       <c r="R33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S33" t="n">
         <v>3.5</v>
@@ -4897,13 +4897,13 @@
         <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V33" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="W33" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X33" t="n">
         <v>13.5</v>
@@ -4912,7 +4912,7 @@
         <v>7.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
@@ -4921,7 +4921,7 @@
         <v>25</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
         <v>10.5</v>
@@ -4936,10 +4936,10 @@
         <v>32</v>
       </c>
       <c r="AH33" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ33" t="n">
         <v>320</v>
@@ -4951,7 +4951,7 @@
         <v>140</v>
       </c>
       <c r="AM33" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
         <v>220</v>
@@ -4993,19 +4993,19 @@
         <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
         <v>3.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K34" t="n">
         <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
@@ -5029,7 +5029,7 @@
         <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
         <v>1.96</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H35" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.26</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.3</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5164,16 +5164,16 @@
         <v>3.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
         <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="W35" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X35" t="n">
         <v>12.5</v>
@@ -5185,7 +5185,7 @@
         <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB35" t="n">
         <v>13</v>
@@ -5200,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="AF35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG35" t="n">
         <v>15</v>
@@ -5227,7 +5227,7 @@
         <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I36" t="n">
         <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
@@ -5281,19 +5281,19 @@
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O36" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S36" t="n">
         <v>3.4</v>
@@ -5305,19 +5305,19 @@
         <v>1.9</v>
       </c>
       <c r="V36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W36" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA36" t="n">
         <v>210</v>
@@ -5338,28 +5338,28 @@
         <v>10.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
         <v>330</v>
       </c>
       <c r="AJ36" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AM36" t="n">
         <v>580</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G37" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I37" t="n">
         <v>2.14</v>
@@ -5410,7 +5410,7 @@
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5419,16 +5419,16 @@
         <v>4.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q37" t="n">
         <v>1.87</v>
       </c>
       <c r="R37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S37" t="n">
         <v>3.2</v>
@@ -5443,10 +5443,10 @@
         <v>1.87</v>
       </c>
       <c r="W37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y37" t="n">
         <v>10.5</v>
@@ -5458,7 +5458,7 @@
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
@@ -5476,13 +5476,13 @@
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI37" t="n">
         <v>70</v>
       </c>
       <c r="AJ37" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AK37" t="n">
         <v>46</v>
@@ -5497,7 +5497,7 @@
         <v>44</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="38">
@@ -5530,19 +5530,19 @@
         <v>1.93</v>
       </c>
       <c r="G38" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
         <v>4.4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.85</v>
       </c>
       <c r="K38" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L38" t="n">
         <v>1.38</v>
@@ -5557,10 +5557,10 @@
         <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R38" t="n">
         <v>1.43</v>
@@ -5581,7 +5581,7 @@
         <v>2.06</v>
       </c>
       <c r="X38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y38" t="n">
         <v>17</v>
@@ -5689,7 +5689,7 @@
         <v>1.02</v>
       </c>
       <c r="O39" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
         <v>1.74</v>
@@ -5701,13 +5701,13 @@
         <v>1.08</v>
       </c>
       <c r="S39" t="n">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V39" t="n">
         <v>2.4</v>
@@ -5716,37 +5716,37 @@
         <v>1.09</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y39" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="Z39" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AA39" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
         <v>500</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AI39" t="n">
         <v>500</v>
@@ -5755,10 +5755,10 @@
         <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G40" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H40" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I40" t="n">
         <v>4.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L40" t="n">
         <v>1.31</v>
@@ -5821,37 +5821,37 @@
         <v>1.07</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V40" t="n">
         <v>1.26</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y40" t="n">
         <v>1000</v>
@@ -5860,7 +5860,7 @@
         <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AB40" t="n">
         <v>11</v>
@@ -5878,28 +5878,28 @@
         <v>14.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AH40" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AI40" t="n">
         <v>500</v>
       </c>
       <c r="AJ40" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL40" t="n">
         <v>980</v>
       </c>
       <c r="AM40" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO40" t="n">
         <v>500</v>
@@ -5932,19 +5932,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="G41" t="n">
         <v>18.5</v>
       </c>
       <c r="H41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I41" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="J41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
         <v>7</v>
@@ -5980,7 +5980,7 @@
         <v>1.55</v>
       </c>
       <c r="V41" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="W41" t="n">
         <v>1.06</v>
@@ -6025,7 +6025,7 @@
         <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AL41" t="n">
         <v>340</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G42" t="n">
         <v>2.22</v>
@@ -6082,7 +6082,7 @@
         <v>3.35</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L42" t="n">
         <v>1.46</v>
@@ -6109,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
@@ -6121,7 +6121,7 @@
         <v>1.81</v>
       </c>
       <c r="X42" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y42" t="n">
         <v>13</v>
@@ -6145,13 +6145,13 @@
         <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG42" t="n">
         <v>11</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
         <v>75</v>
@@ -6160,7 +6160,7 @@
         <v>30</v>
       </c>
       <c r="AK42" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL42" t="n">
         <v>48</v>
@@ -6169,7 +6169,7 @@
         <v>130</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO42" t="n">
         <v>60</v>
@@ -6205,10 +6205,10 @@
         <v>3.3</v>
       </c>
       <c r="G43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H43" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I43" t="n">
         <v>2.46</v>
@@ -6217,16 +6217,16 @@
         <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L43" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O43" t="n">
         <v>1.38</v>
@@ -6253,7 +6253,7 @@
         <v>1.68</v>
       </c>
       <c r="W43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -6307,7 +6307,7 @@
         <v>42</v>
       </c>
       <c r="AO43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -6340,16 +6340,16 @@
         <v>3.15</v>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I44" t="n">
         <v>2.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
         <v>3.55</v>
@@ -6370,7 +6370,7 @@
         <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
@@ -6388,7 +6388,7 @@
         <v>1.66</v>
       </c>
       <c r="W44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
         <v>18.5</v>
@@ -6436,7 +6436,7 @@
         <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="n">
         <v>36</v>
@@ -6472,19 +6472,19 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H45" t="n">
         <v>2.52</v>
       </c>
       <c r="I45" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
         <v>3.15</v>
@@ -6520,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6532,13 +6532,13 @@
         <v>11.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA45" t="n">
         <v>42</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC45" t="n">
         <v>7.2</v>
@@ -6553,10 +6553,10 @@
         <v>22</v>
       </c>
       <c r="AG45" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
         <v>55</v>
@@ -6577,7 +6577,7 @@
         <v>55</v>
       </c>
       <c r="AO45" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G46" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
@@ -6631,7 +6631,7 @@
         <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O46" t="n">
         <v>1.57</v>
@@ -6640,7 +6640,7 @@
         <v>1.53</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R46" t="n">
         <v>1.19</v>
@@ -6649,13 +6649,13 @@
         <v>5.7</v>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U46" t="n">
         <v>1.81</v>
       </c>
       <c r="V46" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W46" t="n">
         <v>1.51</v>
@@ -6703,7 +6703,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM46" t="n">
         <v>180</v>
@@ -6712,7 +6712,7 @@
         <v>55</v>
       </c>
       <c r="AO46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
@@ -6742,19 +6742,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>2.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>3.35</v>
@@ -6763,91 +6763,91 @@
         <v>1.36</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P47" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="Q47" t="n">
         <v>2.16</v>
       </c>
       <c r="R47" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="T47" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U47" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="V47" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W47" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA47" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF47" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG47" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>900</v>
+        <v>220</v>
       </c>
       <c r="AK47" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AL47" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN47" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AO47" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -7015,7 +7015,7 @@
         <v>4.5</v>
       </c>
       <c r="G49" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H49" t="n">
         <v>2.04</v>
@@ -7024,28 +7024,28 @@
         <v>2.08</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
         <v>3.4</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M49" t="n">
         <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P49" t="n">
         <v>1.74</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R49" t="n">
         <v>1.26</v>
@@ -7054,10 +7054,10 @@
         <v>4.3</v>
       </c>
       <c r="T49" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U49" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V49" t="n">
         <v>1.92</v>
@@ -7096,7 +7096,7 @@
         <v>19</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AI49" t="n">
         <v>48</v>
@@ -7147,25 +7147,25 @@
         </is>
       </c>
       <c r="F50" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G50" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>13.5</v>
       </c>
       <c r="I50" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J50" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K50" t="n">
         <v>6.8</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
@@ -7177,22 +7177,22 @@
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="R50" t="n">
         <v>1.42</v>
       </c>
       <c r="S50" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="T50" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="U50" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
         <v>1.06</v>
@@ -7201,13 +7201,13 @@
         <v>4.7</v>
       </c>
       <c r="X50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y50" t="n">
         <v>48</v>
       </c>
       <c r="Z50" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7219,34 +7219,34 @@
         <v>16.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE50" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AI50" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ50" t="n">
         <v>11.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL50" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AM50" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN50" t="n">
         <v>6.6</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G51" t="n">
         <v>1.56</v>
@@ -7300,7 +7300,7 @@
         <v>4.8</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -7312,19 +7312,19 @@
         <v>1.36</v>
       </c>
       <c r="P51" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R51" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T51" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U51" t="n">
         <v>1.69</v>
@@ -7336,10 +7336,10 @@
         <v>2.78</v>
       </c>
       <c r="X51" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z51" t="n">
         <v>80</v>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G52" t="n">
         <v>5.4</v>
       </c>
-      <c r="G52" t="n">
-        <v>5.7</v>
-      </c>
       <c r="H52" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I52" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
         <v>3.9</v>
@@ -7441,7 +7441,7 @@
         <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O52" t="n">
         <v>1.27</v>
@@ -7450,37 +7450,37 @@
         <v>2.08</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R52" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S52" t="n">
         <v>3.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U52" t="n">
         <v>2.18</v>
       </c>
       <c r="V52" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W52" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X52" t="n">
         <v>16.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z52" t="n">
         <v>11</v>
       </c>
       <c r="AA52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB52" t="n">
         <v>21</v>
@@ -7516,13 +7516,13 @@
         <v>70</v>
       </c>
       <c r="AM52" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
         <v>1000</v>
       </c>
       <c r="AO52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -7558,7 +7558,7 @@
         <v>970</v>
       </c>
       <c r="H53" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="I53" t="n">
         <v>970</v>
@@ -7567,7 +7567,7 @@
         <v>2.52</v>
       </c>
       <c r="K53" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
@@ -7576,7 +7576,7 @@
         <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.58</v>
@@ -7621,7 +7621,7 @@
         <v>1000</v>
       </c>
       <c r="AC53" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
@@ -7693,16 +7693,16 @@
         <v>1.14</v>
       </c>
       <c r="H54" t="n">
+        <v>27</v>
+      </c>
+      <c r="I54" t="n">
         <v>28</v>
-      </c>
-      <c r="I54" t="n">
-        <v>29</v>
       </c>
       <c r="J54" t="n">
         <v>12</v>
       </c>
       <c r="K54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="L54" t="n">
         <v>1.15</v>
@@ -7711,7 +7711,7 @@
         <v>1.01</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.07</v>
@@ -7723,7 +7723,7 @@
         <v>1.23</v>
       </c>
       <c r="R54" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="S54" t="n">
         <v>1.58</v>
@@ -7738,7 +7738,7 @@
         <v>1.03</v>
       </c>
       <c r="W54" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X54" t="n">
         <v>85</v>
@@ -7756,7 +7756,7 @@
         <v>22</v>
       </c>
       <c r="AC54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD54" t="n">
         <v>95</v>
@@ -7771,7 +7771,7 @@
         <v>15.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="n">
         <v>1000</v>
@@ -7780,7 +7780,7 @@
         <v>10.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL54" t="n">
         <v>34</v>
@@ -7825,16 +7825,16 @@
         <v>4.3</v>
       </c>
       <c r="G55" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="H55" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="I55" t="n">
         <v>2.08</v>
       </c>
       <c r="J55" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="K55" t="n">
         <v>3.7</v>
@@ -7843,76 +7843,76 @@
         <v>1.38</v>
       </c>
       <c r="M55" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="O55" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.05</v>
+        <v>2.2</v>
       </c>
       <c r="R55" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>1.43</v>
+        <v>4.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U55" t="n">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="V55" t="n">
         <v>1.92</v>
       </c>
       <c r="W55" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="X55" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA55" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AB55" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC55" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD55" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE55" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AF55" t="n">
         <v>980</v>
       </c>
       <c r="AG55" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AH55" t="n">
         <v>980</v>
       </c>
       <c r="AI55" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AJ55" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK55" t="n">
         <v>500</v>
@@ -7921,13 +7921,13 @@
         <v>500</v>
       </c>
       <c r="AM55" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN55" t="n">
         <v>500</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56">
@@ -7957,112 +7957,112 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="H56" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I56" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J56" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K56" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="L56" t="n">
         <v>1.39</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="P56" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R56" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q56" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S56" t="n">
-        <v>1.42</v>
+        <v>3.7</v>
       </c>
       <c r="T56" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="U56" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="V56" t="n">
         <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="X56" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y56" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z56" t="n">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB56" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC56" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG56" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK56" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL56" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57">
@@ -8092,22 +8092,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="I57" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J57" t="n">
         <v>3.05</v>
       </c>
       <c r="K57" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L57" t="n">
         <v>1.58</v>
@@ -8125,7 +8125,7 @@
         <v>1.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8140,16 +8140,16 @@
         <v>1.84</v>
       </c>
       <c r="V57" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W57" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X57" t="n">
         <v>8.4</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z57" t="n">
         <v>14</v>
@@ -8158,7 +8158,7 @@
         <v>36</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC57" t="n">
         <v>7</v>
@@ -8194,7 +8194,7 @@
         <v>170</v>
       </c>
       <c r="AN57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO57" t="n">
         <v>36</v>
@@ -8230,16 +8230,16 @@
         <v>5.2</v>
       </c>
       <c r="G58" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="H58" t="n">
         <v>1.81</v>
       </c>
       <c r="I58" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K58" t="n">
         <v>3.7</v>
@@ -8260,7 +8260,7 @@
         <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R58" t="n">
         <v>1.25</v>
@@ -8272,13 +8272,13 @@
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V58" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W58" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X58" t="n">
         <v>13</v>
@@ -8290,7 +8290,7 @@
         <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB58" t="n">
         <v>18.5</v>
@@ -8302,7 +8302,7 @@
         <v>12.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AF58" t="n">
         <v>55</v>
@@ -8314,7 +8314,7 @@
         <v>28</v>
       </c>
       <c r="AI58" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ58" t="n">
         <v>180</v>
@@ -8329,7 +8329,7 @@
         <v>200</v>
       </c>
       <c r="AN58" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AO58" t="n">
         <v>20</v>
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G60" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H60" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I60" t="n">
         <v>8.800000000000001</v>
@@ -8515,7 +8515,7 @@
         <v>4.8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M60" t="n">
         <v>1.06</v>
@@ -8527,7 +8527,7 @@
         <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q60" t="n">
         <v>1.99</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G61" t="n">
         <v>2.14</v>
@@ -8671,10 +8671,10 @@
         <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T61" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>1.9</v>
@@ -8770,22 +8770,22 @@
         <v>3.3</v>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H62" t="n">
         <v>2.48</v>
       </c>
       <c r="I62" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J62" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K62" t="n">
         <v>3.35</v>
       </c>
       <c r="L62" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -8815,10 +8815,10 @@
         <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W62" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X62" t="n">
         <v>970</v>
@@ -8833,10 +8833,10 @@
         <v>980</v>
       </c>
       <c r="AB62" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC62" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD62" t="n">
         <v>1000</v>
@@ -8845,7 +8845,7 @@
         <v>980</v>
       </c>
       <c r="AF62" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AG62" t="n">
         <v>1000</v>
@@ -8857,13 +8857,13 @@
         <v>500</v>
       </c>
       <c r="AJ62" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="AK62" t="n">
         <v>980</v>
       </c>
       <c r="AL62" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="n">
         <v>500</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G63" t="n">
         <v>1.2</v>
@@ -8911,13 +8911,13 @@
         <v>22</v>
       </c>
       <c r="I63" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J63" t="n">
         <v>8.4</v>
       </c>
       <c r="K63" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L63" t="n">
         <v>1.27</v>
@@ -8935,7 +8935,7 @@
         <v>2.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
         <v>1.59</v>
@@ -9037,37 +9037,37 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G64" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="H64" t="n">
         <v>3.1</v>
       </c>
       <c r="I64" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="K64" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L64" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
       </c>
       <c r="N64" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O64" t="n">
         <v>1.45</v>
       </c>
       <c r="P64" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q64" t="n">
         <v>2.16</v>
@@ -9085,7 +9085,7 @@
         <v>1.87</v>
       </c>
       <c r="V64" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W64" t="n">
         <v>1.54</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G65" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H65" t="n">
         <v>5.5</v>
@@ -9184,10 +9184,10 @@
         <v>5.6</v>
       </c>
       <c r="J65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K65" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3.85</v>
       </c>
       <c r="L65" t="n">
         <v>1.46</v>
@@ -9196,16 +9196,16 @@
         <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R65" t="n">
         <v>1.3</v>
@@ -9223,7 +9223,7 @@
         <v>1.21</v>
       </c>
       <c r="W65" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -9250,7 +9250,7 @@
         <v>90</v>
       </c>
       <c r="AF65" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG65" t="n">
         <v>9.800000000000001</v>
@@ -9262,13 +9262,13 @@
         <v>90</v>
       </c>
       <c r="AJ65" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK65" t="n">
         <v>20</v>
       </c>
       <c r="AL65" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM65" t="n">
         <v>150</v>
@@ -9313,61 +9313,61 @@
         <v>4.4</v>
       </c>
       <c r="H66" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I66" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="J66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K66" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L66" t="n">
         <v>1.01</v>
       </c>
       <c r="M66" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>1.89</v>
+        <v>3.75</v>
       </c>
       <c r="O66" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P66" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="R66" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S66" t="n">
-        <v>2.66</v>
+        <v>3.4</v>
       </c>
       <c r="T66" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="U66" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V66" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
       </c>
       <c r="X66" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y66" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z66" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA66" t="n">
         <v>980</v>
@@ -9376,10 +9376,10 @@
         <v>1000</v>
       </c>
       <c r="AC66" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD66" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE66" t="n">
         <v>980</v>
@@ -9388,7 +9388,7 @@
         <v>980</v>
       </c>
       <c r="AG66" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH66" t="n">
         <v>980</v>
@@ -9397,22 +9397,22 @@
         <v>980</v>
       </c>
       <c r="AJ66" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK66" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL66" t="n">
         <v>60</v>
       </c>
-      <c r="AL66" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM66" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN66" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO66" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="H2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P2" t="n">
         <v>1.37</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.14</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>3.55</v>
       </c>
       <c r="R2" t="n">
-        <v>1.45</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>8.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>990</v>
+        <v>130</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK2" t="n">
         <v>48</v>
       </c>
-      <c r="AF2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>20</v>
-      </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
         <v>4.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.26</v>
@@ -832,28 +832,28 @@
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
         <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
         <v>1.28</v>
       </c>
       <c r="W3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
         <v>29</v>
@@ -874,16 +874,16 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF3" t="n">
         <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
         <v>18.5</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.1</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.29</v>
@@ -982,7 +982,7 @@
         <v>2.66</v>
       </c>
       <c r="U4" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V4" t="n">
         <v>11</v>
@@ -1009,19 +1009,19 @@
         <v>38</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="n">
         <v>65</v>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AM4" t="n">
         <v>410</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
         <v>2.34</v>
@@ -1087,10 +1087,10 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,49 +1102,49 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V5" t="n">
         <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>970</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>970</v>
@@ -1153,7 +1153,7 @@
         <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>60</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>2.18</v>
       </c>
       <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>44</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K6" t="n">
-        <v>44</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL6" t="n">
         <v>42</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>500</v>
-      </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -1348,7 +1348,7 @@
         <v>8.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I7" t="n">
         <v>1.63</v>
@@ -1366,7 +1366,7 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1390,7 +1390,7 @@
         <v>1.82</v>
       </c>
       <c r="V7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W7" t="n">
         <v>1.13</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>10.5</v>
@@ -1486,10 +1486,10 @@
         <v>1.43</v>
       </c>
       <c r="I8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>5.2</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1510,7 +1510,7 @@
         <v>1.88</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
         <v>1.34</v>
@@ -1612,97 +1612,97 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="G9" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="H9" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="X9" t="n">
         <v>24</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>180</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1711,13 +1711,13 @@
         <v>42</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
@@ -1765,31 +1765,31 @@
         <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.08</v>
       </c>
       <c r="P10" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="R10" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -1798,10 +1798,10 @@
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
@@ -1813,10 +1813,10 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1825,31 +1825,31 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1921,13 +1921,13 @@
         <v>1.36</v>
       </c>
       <c r="S11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.57</v>
@@ -1972,7 +1972,7 @@
         <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="n">
         <v>40</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G12" t="n">
         <v>3.65</v>
@@ -2026,10 +2026,10 @@
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
         <v>3.45</v>
@@ -2041,7 +2041,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2050,28 +2050,28 @@
         <v>1.98</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R12" t="n">
         <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="W12" t="n">
         <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>11</v>
@@ -2083,10 +2083,10 @@
         <v>32</v>
       </c>
       <c r="AB12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
@@ -2095,28 +2095,28 @@
         <v>29</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AK12" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>40</v>
@@ -2155,7 +2155,7 @@
         <v>1.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
@@ -2164,16 +2164,16 @@
         <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>5.3</v>
@@ -2182,10 +2182,10 @@
         <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="n">
         <v>1.58</v>
@@ -2194,70 +2194,70 @@
         <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AB13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>130</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
         <v>150</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2293,79 +2293,79 @@
         <v>3.05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I14" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.57</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.55</v>
-      </c>
       <c r="U14" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="V14" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="W14" t="n">
         <v>1.48</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>13.5</v>
@@ -2383,16 +2383,16 @@
         <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>2.92</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2443,7 +2443,7 @@
         <v>1.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
         <v>2.72</v>
@@ -2455,7 +2455,7 @@
         <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R15" t="n">
         <v>1.19</v>
@@ -2467,7 +2467,7 @@
         <v>2.16</v>
       </c>
       <c r="U15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.48</v>
@@ -2476,10 +2476,10 @@
         <v>1.51</v>
       </c>
       <c r="X15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z15" t="n">
         <v>17.5</v>
@@ -2497,7 +2497,7 @@
         <v>13.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
         <v>16.5</v>
@@ -2566,10 +2566,10 @@
         <v>2.64</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
         <v>3.65</v>
@@ -2578,7 +2578,7 @@
         <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>3.9</v>
@@ -2590,7 +2590,7 @@
         <v>1.97</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
         <v>1.39</v>
@@ -2605,31 +2605,31 @@
         <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>980</v>
@@ -2638,10 +2638,10 @@
         <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>980</v>
@@ -2653,13 +2653,13 @@
         <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -2749,22 +2749,22 @@
         <v>27</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2773,16 +2773,16 @@
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
         <v>980</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>1.98</v>
@@ -2839,7 +2839,7 @@
         <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -2860,7 +2860,7 @@
         <v>1.85</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>1.33</v>
@@ -2884,7 +2884,7 @@
         <v>500</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2908,7 +2908,7 @@
         <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>980</v>
@@ -2920,7 +2920,7 @@
         <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AL18" t="n">
         <v>400</v>
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
@@ -3007,7 +3007,7 @@
         <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V19" t="n">
         <v>1.2</v>
@@ -3019,16 +3019,16 @@
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AA19" t="n">
         <v>900</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
         <v>18</v>
@@ -3043,10 +3043,10 @@
         <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
         <v>190</v>
@@ -3103,7 +3103,7 @@
         <v>1.18</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>13.5</v>
       </c>
       <c r="I20" t="n">
         <v>40</v>
@@ -3112,7 +3112,7 @@
         <v>7.2</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>23</v>
       </c>
       <c r="L20" t="n">
         <v>1.19</v>
@@ -3121,7 +3121,7 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.1</v>
@@ -3136,7 +3136,7 @@
         <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="T20" t="n">
         <v>2.2</v>
@@ -3154,7 +3154,7 @@
         <v>980</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
@@ -3169,7 +3169,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.78</v>
+        <v>3.4</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
@@ -3250,7 +3250,7 @@
         <v>3.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.09</v>
@@ -3262,7 +3262,7 @@
         <v>1.39</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
         <v>2.12</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="G22" t="n">
-        <v>44</v>
+        <v>1.82</v>
       </c>
       <c r="H22" t="n">
         <v>2.88</v>
@@ -3379,7 +3379,7 @@
         <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="K22" t="n">
         <v>44</v>
@@ -3391,13 +3391,13 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="Q22" t="n">
         <v>1.3</v>
@@ -3409,22 +3409,22 @@
         <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="W22" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3439,7 +3439,7 @@
         <v>42</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
@@ -3451,7 +3451,7 @@
         <v>970</v>
       </c>
       <c r="AH22" t="n">
-        <v>190</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3523,19 +3523,19 @@
         <v>1.55</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N23" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P23" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="R23" t="n">
         <v>1.22</v>
@@ -3556,7 +3556,7 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y23" t="n">
         <v>13</v>
@@ -3568,13 +3568,13 @@
         <v>140</v>
       </c>
       <c r="AB23" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3604,7 +3604,7 @@
         <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>140</v>
@@ -3643,7 +3643,7 @@
         <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.35</v>
@@ -3661,10 +3661,10 @@
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.64</v>
@@ -3679,10 +3679,10 @@
         <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
         <v>1.43</v>
@@ -3706,13 +3706,13 @@
         <v>8.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
         <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
         <v>16</v>
@@ -3724,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
         <v>42</v>
@@ -3736,13 +3736,13 @@
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN24" t="n">
         <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3775,16 +3775,16 @@
         <v>2.74</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>2.7</v>
       </c>
       <c r="I25" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
@@ -3814,10 +3814,10 @@
         <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.51</v>
@@ -3868,7 +3868,7 @@
         <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
         <v>580</v>
@@ -3913,46 +3913,46 @@
         <v>4.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.63</v>
       </c>
-      <c r="S26" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="V26" t="n">
         <v>2.08</v>
@@ -3961,31 +3961,31 @@
         <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
         <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AB26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD26" t="n">
         <v>10</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>17.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -3994,25 +3994,25 @@
         <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
         <v>90</v>
       </c>
       <c r="AK26" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="27">
@@ -4060,7 +4060,7 @@
         <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4069,34 +4069,34 @@
         <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S27" t="n">
         <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U27" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
         <v>1.39</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Y27" t="n">
         <v>16</v>
@@ -4135,16 +4135,16 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>30</v>
@@ -4177,25 +4177,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G28" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H28" t="n">
         <v>4.3</v>
       </c>
       <c r="I28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -4207,16 +4207,16 @@
         <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R28" t="n">
         <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T28" t="n">
         <v>2.02</v>
@@ -4225,13 +4225,13 @@
         <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
         <v>13.5</v>
@@ -4246,7 +4246,7 @@
         <v>7.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>21</v>
@@ -4258,7 +4258,7 @@
         <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>28</v>
@@ -4267,7 +4267,7 @@
         <v>110</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK28" t="n">
         <v>27</v>
@@ -4279,10 +4279,10 @@
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4312,31 +4312,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I29" t="n">
         <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
         <v>3.15</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
         <v>1.38</v>
@@ -4345,7 +4345,7 @@
         <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>1.27</v>
@@ -4354,16 +4354,16 @@
         <v>3.95</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
         <v>14</v>
@@ -4378,22 +4378,22 @@
         <v>150</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
         <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4402,7 +4402,7 @@
         <v>500</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="AK29" t="n">
         <v>46</v>
@@ -4456,7 +4456,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J30" t="n">
         <v>4.5</v>
@@ -4477,7 +4477,7 @@
         <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
         <v>2.06</v>
@@ -4489,7 +4489,7 @@
         <v>3.8</v>
       </c>
       <c r="T30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U30" t="n">
         <v>1.6</v>
@@ -4504,7 +4504,7 @@
         <v>15.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z30" t="n">
         <v>130</v>
@@ -4537,7 +4537,7 @@
         <v>250</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK30" t="n">
         <v>22</v>
@@ -4582,79 +4582,79 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G31" t="n">
         <v>4.2</v>
       </c>
       <c r="H31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="I31" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O31" t="n">
         <v>1.54</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="R31" t="n">
         <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
         <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W31" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>36</v>
@@ -4663,22 +4663,22 @@
         <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
         <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>95</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AM31" t="n">
         <v>580</v>
@@ -4687,7 +4687,7 @@
         <v>110</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4726,16 +4726,16 @@
         <v>4.4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -4750,13 +4750,13 @@
         <v>1.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T32" t="n">
         <v>1.98</v>
@@ -4765,7 +4765,7 @@
         <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
         <v>1.92</v>
@@ -4810,19 +4810,19 @@
         <v>75</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL32" t="n">
         <v>980</v>
       </c>
       <c r="AM32" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,55 +4852,55 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G33" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H33" t="n">
         <v>1.51</v>
       </c>
       <c r="I33" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="J33" t="n">
         <v>4.3</v>
       </c>
       <c r="K33" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
         <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
       </c>
       <c r="P33" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
         <v>1.35</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T33" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="U33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="W33" t="n">
         <v>1.12</v>
@@ -4909,16 +4909,16 @@
         <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA33" t="n">
         <v>13</v>
       </c>
       <c r="AB33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
         <v>9.6</v>
@@ -4927,10 +4927,10 @@
         <v>10.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="n">
         <v>32</v>
@@ -4939,7 +4939,7 @@
         <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
         <v>320</v>
@@ -4993,10 +4993,10 @@
         <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J34" t="n">
         <v>2.94</v>
@@ -5005,13 +5005,13 @@
         <v>3.15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="M34" t="n">
         <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="n">
         <v>1.43</v>
@@ -5029,10 +5029,10 @@
         <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
         <v>1.48</v>
@@ -5128,7 +5128,7 @@
         <v>3.85</v>
       </c>
       <c r="H35" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I35" t="n">
         <v>2.26</v>
@@ -5140,34 +5140,34 @@
         <v>3.45</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S35" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V35" t="n">
         <v>1.79</v>
@@ -5176,16 +5176,16 @@
         <v>1.35</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z35" t="n">
         <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB35" t="n">
         <v>13</v>
@@ -5197,37 +5197,37 @@
         <v>11</v>
       </c>
       <c r="AE35" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF35" t="n">
         <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI35" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ35" t="n">
         <v>75</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL35" t="n">
         <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
@@ -5263,25 +5263,25 @@
         <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K36" t="n">
         <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="n">
         <v>1.32</v>
@@ -5293,7 +5293,7 @@
         <v>1.98</v>
       </c>
       <c r="R36" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S36" t="n">
         <v>3.4</v>
@@ -5302,7 +5302,7 @@
         <v>1.93</v>
       </c>
       <c r="U36" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V36" t="n">
         <v>1.17</v>
@@ -5410,7 +5410,7 @@
         <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -5422,10 +5422,10 @@
         <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
         <v>1.41</v>
@@ -5434,7 +5434,7 @@
         <v>3.2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U37" t="n">
         <v>2.26</v>
@@ -5446,7 +5446,7 @@
         <v>1.33</v>
       </c>
       <c r="X37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y37" t="n">
         <v>10.5</v>
@@ -5458,7 +5458,7 @@
         <v>27</v>
       </c>
       <c r="AB37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC37" t="n">
         <v>8.199999999999999</v>
@@ -5572,7 +5572,7 @@
         <v>1.79</v>
       </c>
       <c r="U38" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V38" t="n">
         <v>1.28</v>
@@ -5662,112 +5662,112 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="G39" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="I39" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>4.4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P39" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.02</v>
+        <v>1.97</v>
       </c>
       <c r="R39" t="n">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="S39" t="n">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U39" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V39" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="W39" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="X39" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="Z39" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA39" t="n">
-        <v>900</v>
+        <v>16</v>
       </c>
       <c r="AB39" t="n">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>42</v>
+        <v>9.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AF39" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AG39" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AH39" t="n">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="AI39" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="AL39" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO39" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -5800,7 +5800,7 @@
         <v>1.94</v>
       </c>
       <c r="G40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>4.3</v>
@@ -5809,13 +5809,13 @@
         <v>4.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
         <v>3.9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
         <v>1.07</v>
@@ -5830,7 +5830,7 @@
         <v>1.9</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R40" t="n">
         <v>1.34</v>
@@ -5845,16 +5845,16 @@
         <v>2.02</v>
       </c>
       <c r="V40" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
@@ -5863,7 +5863,7 @@
         <v>900</v>
       </c>
       <c r="AB40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
         <v>10.5</v>
@@ -5878,10 +5878,10 @@
         <v>14.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI40" t="n">
         <v>500</v>
@@ -5902,7 +5902,7 @@
         <v>55</v>
       </c>
       <c r="AO40" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="H41" t="n">
         <v>1.26</v>
@@ -5950,22 +5950,22 @@
         <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M41" t="n">
         <v>1.05</v>
       </c>
       <c r="N41" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O41" t="n">
         <v>1.29</v>
       </c>
       <c r="P41" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
         <v>1.36</v>
@@ -5977,10 +5977,10 @@
         <v>2.52</v>
       </c>
       <c r="U41" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="W41" t="n">
         <v>1.06</v>
@@ -5992,19 +5992,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA41" t="n">
         <v>11</v>
       </c>
       <c r="AB41" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AC41" t="n">
         <v>18.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE41" t="n">
         <v>19</v>
@@ -6016,7 +6016,7 @@
         <v>170</v>
       </c>
       <c r="AH41" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AI41" t="n">
         <v>170</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G42" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.95</v>
       </c>
       <c r="J42" t="n">
         <v>3.35</v>
@@ -6085,10 +6085,10 @@
         <v>3.45</v>
       </c>
       <c r="L42" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
         <v>3.3</v>
@@ -6100,7 +6100,7 @@
         <v>1.79</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
         <v>1.29</v>
@@ -6109,25 +6109,25 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
         <v>13</v>
       </c>
       <c r="Z42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA42" t="n">
         <v>80</v>
@@ -6142,7 +6142,7 @@
         <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
         <v>13.5</v>
@@ -6166,7 +6166,7 @@
         <v>48</v>
       </c>
       <c r="AM42" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN42" t="n">
         <v>22</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I43" t="n">
         <v>2.44</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2.46</v>
       </c>
       <c r="J43" t="n">
         <v>3.4</v>
@@ -6226,13 +6226,13 @@
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P43" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q43" t="n">
         <v>2.16</v>
@@ -6244,16 +6244,16 @@
         <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U43" t="n">
         <v>2.08</v>
       </c>
       <c r="V43" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W43" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -6286,7 +6286,7 @@
         <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
         <v>44</v>
@@ -6307,7 +6307,7 @@
         <v>42</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -6370,13 +6370,13 @@
         <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R44" t="n">
         <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
         <v>1.69</v>
@@ -6391,7 +6391,7 @@
         <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -6400,7 +6400,7 @@
         <v>18</v>
       </c>
       <c r="AA44" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB44" t="n">
         <v>15</v>
@@ -6412,10 +6412,10 @@
         <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG44" t="n">
         <v>13.5</v>
@@ -6427,7 +6427,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="n">
         <v>36</v>
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H45" t="n">
         <v>2.52</v>
@@ -6490,7 +6490,7 @@
         <v>3.15</v>
       </c>
       <c r="L45" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M45" t="n">
         <v>1.09</v>
@@ -6502,22 +6502,22 @@
         <v>1.41</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q45" t="n">
         <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S45" t="n">
         <v>4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V45" t="n">
         <v>1.6</v>
@@ -6526,10 +6526,10 @@
         <v>1.4</v>
       </c>
       <c r="X45" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z45" t="n">
         <v>16</v>
@@ -6538,7 +6538,7 @@
         <v>42</v>
       </c>
       <c r="AB45" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
         <v>7.2</v>
@@ -6553,10 +6553,10 @@
         <v>22</v>
       </c>
       <c r="AG45" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI45" t="n">
         <v>55</v>
@@ -6574,7 +6574,7 @@
         <v>130</v>
       </c>
       <c r="AN45" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO45" t="n">
         <v>34</v>
@@ -6613,7 +6613,7 @@
         <v>2.94</v>
       </c>
       <c r="H46" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
         <v>3.1</v>
@@ -6625,19 +6625,19 @@
         <v>3.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O46" t="n">
         <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
         <v>2.72</v>
@@ -6703,7 +6703,7 @@
         <v>44</v>
       </c>
       <c r="AL46" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AM46" t="n">
         <v>180</v>
@@ -6748,7 +6748,7 @@
         <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I47" t="n">
         <v>2.54</v>
@@ -6760,7 +6760,7 @@
         <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M47" t="n">
         <v>1.08</v>
@@ -6778,16 +6778,16 @@
         <v>2.16</v>
       </c>
       <c r="R47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T47" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V47" t="n">
         <v>1.64</v>
@@ -6796,7 +6796,7 @@
         <v>1.38</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
         <v>9.800000000000001</v>
@@ -6820,7 +6820,7 @@
         <v>30</v>
       </c>
       <c r="AF47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG47" t="n">
         <v>15.5</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="G48" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H48" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I48" t="n">
         <v>4.8</v>
@@ -6901,7 +6901,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O48" t="n">
         <v>1.2</v>
@@ -6913,28 +6913,28 @@
         <v>1.63</v>
       </c>
       <c r="R48" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S48" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T48" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W48" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X48" t="n">
         <v>22</v>
       </c>
       <c r="Y48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z48" t="n">
         <v>38</v>
@@ -7015,19 +7015,19 @@
         <v>4.5</v>
       </c>
       <c r="G49" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="n">
         <v>2.04</v>
       </c>
       <c r="I49" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.4</v>
       </c>
       <c r="L49" t="n">
         <v>1.4</v>
@@ -7039,28 +7039,28 @@
         <v>3.15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P49" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T49" t="n">
         <v>1.98</v>
       </c>
       <c r="U49" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V49" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="W49" t="n">
         <v>1.26</v>
@@ -7087,7 +7087,7 @@
         <v>11</v>
       </c>
       <c r="AE49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF49" t="n">
         <v>32</v>
@@ -7099,7 +7099,7 @@
         <v>36</v>
       </c>
       <c r="AI49" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AJ49" t="n">
         <v>120</v>
@@ -7150,7 +7150,7 @@
         <v>1.26</v>
       </c>
       <c r="G50" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>13.5</v>
@@ -7159,7 +7159,7 @@
         <v>16.5</v>
       </c>
       <c r="J50" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="K50" t="n">
         <v>6.8</v>
@@ -7171,13 +7171,13 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.27</v>
       </c>
       <c r="P50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q50" t="n">
         <v>1.74</v>
@@ -7186,19 +7186,19 @@
         <v>1.42</v>
       </c>
       <c r="S50" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T50" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V50" t="n">
         <v>1.06</v>
       </c>
       <c r="W50" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="X50" t="n">
         <v>21</v>
@@ -7219,10 +7219,10 @@
         <v>16.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AE50" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="n">
         <v>8.4</v>
@@ -7234,19 +7234,19 @@
         <v>130</v>
       </c>
       <c r="AI50" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ50" t="n">
         <v>11.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN50" t="n">
         <v>6.6</v>
@@ -7423,16 +7423,16 @@
         <v>5.4</v>
       </c>
       <c r="H52" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I52" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L52" t="n">
         <v>1.36</v>
@@ -7447,25 +7447,25 @@
         <v>1.27</v>
       </c>
       <c r="P52" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R52" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S52" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T52" t="n">
         <v>1.77</v>
       </c>
       <c r="U52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V52" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W52" t="n">
         <v>1.22</v>
@@ -7480,19 +7480,19 @@
         <v>11</v>
       </c>
       <c r="AA52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC52" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD52" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF52" t="n">
         <v>44</v>
@@ -7519,7 +7519,7 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO52" t="n">
         <v>11</v>
@@ -7552,61 +7552,61 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.69</v>
+        <v>2.5</v>
       </c>
       <c r="G53" t="n">
-        <v>970</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>970</v>
+        <v>3.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N53" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="O53" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="P53" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R53" t="n">
         <v>1.18</v>
       </c>
       <c r="S53" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="T53" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U53" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V53" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W53" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="X53" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
         <v>1000</v>
@@ -7618,10 +7618,10 @@
         <v>900</v>
       </c>
       <c r="AB53" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC53" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD53" t="n">
         <v>1000</v>
@@ -7630,10 +7630,10 @@
         <v>500</v>
       </c>
       <c r="AF53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH53" t="n">
         <v>980</v>
@@ -7696,7 +7696,7 @@
         <v>27</v>
       </c>
       <c r="I54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J54" t="n">
         <v>12</v>
@@ -7717,13 +7717,13 @@
         <v>1.07</v>
       </c>
       <c r="P54" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R54" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="S54" t="n">
         <v>1.58</v>
@@ -7747,7 +7747,7 @@
         <v>140</v>
       </c>
       <c r="Z54" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AA54" t="n">
         <v>1000</v>
@@ -7759,10 +7759,10 @@
         <v>30</v>
       </c>
       <c r="AD54" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AE54" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AF54" t="n">
         <v>13</v>
@@ -7789,10 +7789,10 @@
         <v>150</v>
       </c>
       <c r="AN54" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="AO54" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55">
@@ -7825,34 +7825,34 @@
         <v>4.3</v>
       </c>
       <c r="G55" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H55" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I55" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J55" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L55" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="M55" t="n">
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P55" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q55" t="n">
         <v>2.2</v>
@@ -7870,16 +7870,16 @@
         <v>1.86</v>
       </c>
       <c r="V55" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W55" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X55" t="n">
         <v>22</v>
       </c>
       <c r="Y55" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="Z55" t="n">
         <v>27</v>
@@ -7891,7 +7891,7 @@
         <v>46</v>
       </c>
       <c r="AC55" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD55" t="n">
         <v>22</v>
@@ -7966,10 +7966,10 @@
         <v>6.4</v>
       </c>
       <c r="I56" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
         <v>4.1</v>
@@ -8005,10 +8005,10 @@
         <v>1.72</v>
       </c>
       <c r="V56" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W56" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X56" t="n">
         <v>14</v>
@@ -8029,7 +8029,7 @@
         <v>10.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AE56" t="n">
         <v>480</v>
@@ -8098,10 +8098,10 @@
         <v>3.7</v>
       </c>
       <c r="H57" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I57" t="n">
         <v>2.48</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2.5</v>
       </c>
       <c r="J57" t="n">
         <v>3.05</v>
@@ -8116,16 +8116,16 @@
         <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O57" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P57" t="n">
         <v>1.58</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="R57" t="n">
         <v>1.21</v>
@@ -8140,13 +8140,13 @@
         <v>1.84</v>
       </c>
       <c r="V57" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W57" t="n">
         <v>1.37</v>
       </c>
       <c r="X57" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y57" t="n">
         <v>7.4</v>
@@ -8158,10 +8158,10 @@
         <v>36</v>
       </c>
       <c r="AB57" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD57" t="n">
         <v>12.5</v>
@@ -8170,13 +8170,13 @@
         <v>34</v>
       </c>
       <c r="AF57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI57" t="n">
         <v>60</v>
@@ -8227,25 +8227,25 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H58" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="I58" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J58" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K58" t="n">
         <v>3.7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M58" t="n">
         <v>1.09</v>
@@ -8254,13 +8254,13 @@
         <v>3.05</v>
       </c>
       <c r="O58" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P58" t="n">
         <v>1.69</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R58" t="n">
         <v>1.25</v>
@@ -8275,13 +8275,13 @@
         <v>1.83</v>
       </c>
       <c r="V58" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W58" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y58" t="n">
         <v>7.4</v>
@@ -8290,16 +8290,16 @@
         <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB58" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE58" t="n">
         <v>24</v>
@@ -8308,10 +8308,10 @@
         <v>55</v>
       </c>
       <c r="AG58" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH58" t="n">
         <v>24</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>28</v>
       </c>
       <c r="AI58" t="n">
         <v>50</v>
@@ -8320,16 +8320,16 @@
         <v>180</v>
       </c>
       <c r="AK58" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AL58" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AM58" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN58" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AO58" t="n">
         <v>20</v>
@@ -8368,7 +8368,7 @@
         <v>3.1</v>
       </c>
       <c r="H59" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I59" t="n">
         <v>2.84</v>
@@ -8377,7 +8377,7 @@
         <v>3.25</v>
       </c>
       <c r="K59" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L59" t="n">
         <v>1.41</v>
@@ -8413,7 +8413,7 @@
         <v>1.54</v>
       </c>
       <c r="W59" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X59" t="n">
         <v>17</v>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G60" t="n">
         <v>1.52</v>
@@ -8536,7 +8536,7 @@
         <v>1.35</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T60" t="n">
         <v>2.12</v>
@@ -8551,7 +8551,7 @@
         <v>2.88</v>
       </c>
       <c r="X60" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y60" t="n">
         <v>28</v>
@@ -8581,13 +8581,13 @@
         <v>12</v>
       </c>
       <c r="AH60" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI60" t="n">
         <v>160</v>
       </c>
       <c r="AJ60" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK60" t="n">
         <v>17.5</v>
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G61" t="n">
         <v>2.14</v>
@@ -8662,7 +8662,7 @@
         <v>1.45</v>
       </c>
       <c r="P61" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
         <v>2.38</v>
@@ -8671,13 +8671,13 @@
         <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U61" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V61" t="n">
         <v>1.27</v>
@@ -8686,7 +8686,7 @@
         <v>1.88</v>
       </c>
       <c r="X61" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="n">
         <v>13.5</v>
@@ -8698,13 +8698,13 @@
         <v>110</v>
       </c>
       <c r="AB61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC61" t="n">
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE61" t="n">
         <v>70</v>
@@ -8719,7 +8719,7 @@
         <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AJ61" t="n">
         <v>26</v>
@@ -8728,7 +8728,7 @@
         <v>26</v>
       </c>
       <c r="AL61" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM61" t="n">
         <v>170</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G62" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H62" t="n">
         <v>2.48</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J62" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K62" t="n">
         <v>3.35</v>
@@ -8797,7 +8797,7 @@
         <v>1.42</v>
       </c>
       <c r="P62" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q62" t="n">
         <v>2.28</v>
@@ -8815,16 +8815,16 @@
         <v>1.94</v>
       </c>
       <c r="V62" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W62" t="n">
         <v>1.36</v>
       </c>
       <c r="X62" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z62" t="n">
         <v>1000</v>
@@ -8833,13 +8833,13 @@
         <v>980</v>
       </c>
       <c r="AB62" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC62" t="n">
         <v>7.4</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE62" t="n">
         <v>980</v>
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="G63" t="n">
         <v>1.2</v>
@@ -8911,40 +8911,40 @@
         <v>22</v>
       </c>
       <c r="I63" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J63" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="K63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="L63" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M63" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q63" t="n">
         <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S63" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T63" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="U63" t="n">
         <v>1.58</v>
@@ -8953,58 +8953,58 @@
         <v>1.04</v>
       </c>
       <c r="W63" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X63" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Y63" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z63" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AA63" t="n">
         <v>1000</v>
       </c>
       <c r="AB63" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD63" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AF63" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AG63" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH63" t="n">
         <v>70</v>
       </c>
       <c r="AI63" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AJ63" t="n">
         <v>9.6</v>
       </c>
       <c r="AK63" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM63" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AO63" t="n">
         <v>1000</v>
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G64" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H64" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I64" t="n">
         <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="K64" t="n">
         <v>3.1</v>
@@ -9064,13 +9064,13 @@
         <v>2.52</v>
       </c>
       <c r="O64" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P64" t="n">
         <v>1.59</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R64" t="n">
         <v>1.22</v>
@@ -9085,16 +9085,16 @@
         <v>1.87</v>
       </c>
       <c r="V64" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W64" t="n">
         <v>1.54</v>
       </c>
       <c r="X64" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y64" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z64" t="n">
         <v>980</v>
@@ -9103,7 +9103,7 @@
         <v>900</v>
       </c>
       <c r="AB64" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC64" t="n">
         <v>8.199999999999999</v>
@@ -9118,7 +9118,7 @@
         <v>1000</v>
       </c>
       <c r="AG64" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH64" t="n">
         <v>980</v>
@@ -9127,7 +9127,7 @@
         <v>500</v>
       </c>
       <c r="AJ64" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK64" t="n">
         <v>980</v>
@@ -9172,16 +9172,16 @@
         </is>
       </c>
       <c r="F65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G65" t="n">
         <v>1.81</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.82</v>
       </c>
       <c r="H65" t="n">
         <v>5.5</v>
       </c>
       <c r="I65" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J65" t="n">
         <v>3.7</v>
@@ -9190,40 +9190,40 @@
         <v>3.75</v>
       </c>
       <c r="L65" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O65" t="n">
         <v>1.4</v>
       </c>
       <c r="P65" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R65" t="n">
         <v>1.3</v>
       </c>
       <c r="S65" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T65" t="n">
         <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V65" t="n">
         <v>1.21</v>
       </c>
       <c r="W65" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -9235,10 +9235,10 @@
         <v>42</v>
       </c>
       <c r="AA65" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC65" t="n">
         <v>8</v>
@@ -9247,7 +9247,7 @@
         <v>21</v>
       </c>
       <c r="AE65" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="n">
         <v>9.800000000000001</v>
@@ -9265,16 +9265,16 @@
         <v>19</v>
       </c>
       <c r="AK65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL65" t="n">
         <v>44</v>
       </c>
       <c r="AM65" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN65" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO65" t="n">
         <v>110</v>
@@ -9307,37 +9307,37 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H66" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I66" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J66" t="n">
         <v>3.7</v>
       </c>
       <c r="K66" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L66" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M66" t="n">
         <v>1.07</v>
       </c>
       <c r="N66" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O66" t="n">
         <v>1.32</v>
       </c>
       <c r="P66" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q66" t="n">
         <v>1.96</v>
@@ -9355,7 +9355,7 @@
         <v>2.1</v>
       </c>
       <c r="V66" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W66" t="n">
         <v>1.3</v>
@@ -9391,7 +9391,7 @@
         <v>970</v>
       </c>
       <c r="AH66" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI66" t="n">
         <v>980</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Hong Kong Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>03:00:00</t>
+          <t>05:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Hong Kong FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Newcastle Jets</t>
+          <t>Kitchee SC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="H2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.07</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.11</v>
-      </c>
       <c r="J2" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>130</v>
+        <v>1.41</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.17</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -739,10 +739,10 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,22 +763,22 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hong Kong Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hong Kong FC</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Kitchee SC</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>550</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK3" t="n">
         <v>70</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>20</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X3" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>330</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AL3" t="n">
+        <v>550</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN3" t="n">
         <v>85</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>2.24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>1461 Trabzon</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="R4" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="n">
         <v>60</v>
       </c>
-      <c r="AI4" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>68 Aksaray Belediyespor</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1461 Trabzon</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.14</v>
+        <v>5.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.44</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="I5" t="n">
-        <v>3.85</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.33</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>2.3</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>160</v>
+        <v>16.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Sanliurfaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="G6" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sanliurfaspor</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.4</v>
+        <v>1.14</v>
       </c>
       <c r="G7" t="n">
-        <v>9.6</v>
+        <v>1.16</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
+        <v>42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.58</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="S7" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="W7" t="n">
-        <v>1.12</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK7" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>470</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>220</v>
-      </c>
       <c r="AL7" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>260</v>
+        <v>3.65</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>8.6</v>
+        <v>2.42</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.66</v>
       </c>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI8" t="n">
         <v>36</v>
       </c>
-      <c r="Z8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>520</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
-        <v>310</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1612,61 +1612,61 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="I9" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="L9" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="P9" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="V9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="X9" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="Y9" t="n">
         <v>970</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AD9" t="n">
         <v>970</v>
@@ -1690,31 +1690,31 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>3.35</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S10" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>29</v>
-      </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM10" t="n">
         <v>200</v>
       </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
       <c r="AN10" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Muangthong Utd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Ayutthaya United</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>2.34</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>3.35</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.74</v>
+        <v>1.35</v>
       </c>
       <c r="W11" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Muangthong Utd</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ayutthaya United</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.95</v>
+        <v>2.72</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="I12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="n">
         <v>38</v>
       </c>
-      <c r="Z12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>270</v>
-      </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="H13" t="n">
-        <v>2.48</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.54</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>2.66</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>2.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.19</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>5.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="U13" t="n">
-        <v>2.72</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.64</v>
+        <v>1.48</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X13" t="n">
-        <v>27</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>8.4</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB14" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>8</v>
-      </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO14" t="n">
         <v>44</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2413,109 +2413,109 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Livorno</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.76</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="Z15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>980</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AK15" t="n">
         <v>980</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>80</v>
       </c>
       <c r="AL15" t="n">
         <v>980</v>
@@ -2527,13 +2527,13 @@
         <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Livorno</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>1.99</v>
       </c>
       <c r="I16" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.3</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.67</v>
-      </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>28</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
       </c>
       <c r="AF16" t="n">
         <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>400</v>
       </c>
       <c r="AM16" t="n">
         <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2683,70 +2683,70 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Mersin Idman Yurdu</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>1.22</v>
       </c>
       <c r="H17" t="n">
-        <v>1.98</v>
+        <v>13</v>
       </c>
       <c r="I17" t="n">
-        <v>2.26</v>
+        <v>970</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>970</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.43</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="X17" t="n">
-        <v>500</v>
+        <v>980</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
@@ -2755,22 +2755,22 @@
         <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
         <v>1000</v>
@@ -2779,31 +2779,31 @@
         <v>980</v>
       </c>
       <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL17" t="n">
         <v>980</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>400</v>
-      </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Menemen Belediyespor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mersin Idman Yurdu</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="G18" t="n">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>22</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.2</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W18" t="n">
-        <v>6.4</v>
+        <v>2.44</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Farul Constanta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.35</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>2.42</v>
+        <v>1.51</v>
       </c>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>900</v>
       </c>
-      <c r="AB19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>17</v>
-      </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Farul Constanta</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Shamakhi FK</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.02</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="R20" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="n">
         <v>1.41</v>
@@ -3274,67 +3274,67 @@
         <v>3.95</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="U21" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W21" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
         <v>900</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>42</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE21" t="n">
         <v>240</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="n">
         <v>380</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>290</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>600</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="H22" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
         <v>1.38</v>
@@ -3391,22 +3391,22 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
         <v>1.04</v>
@@ -3415,10 +3415,10 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="X22" t="n">
         <v>970</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.96</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I23" t="n">
         <v>5.2</v>
       </c>
       <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.59</v>
@@ -3535,25 +3535,25 @@
         <v>1.61</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R23" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S23" t="n">
         <v>5.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U23" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X23" t="n">
         <v>9</v>
@@ -3565,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB23" t="n">
         <v>6.6</v>
@@ -3577,7 +3577,7 @@
         <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
         <v>10</v>
@@ -3601,7 +3601,7 @@
         <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
         <v>22</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
         <v>3.75</v>
@@ -3649,7 +3649,7 @@
         <v>3.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.2</v>
@@ -3658,7 +3658,7 @@
         <v>1.54</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
         <v>2.96</v>
@@ -3679,22 +3679,22 @@
         <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U24" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z24" t="n">
         <v>26</v>
@@ -3709,7 +3709,7 @@
         <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
         <v>60</v>
@@ -3724,13 +3724,13 @@
         <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
         <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
         <v>55</v>
@@ -3739,7 +3739,7 @@
         <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO24" t="n">
         <v>80</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="H25" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="I25" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J25" t="n">
         <v>3.2</v>
@@ -3793,7 +3793,7 @@
         <v>1.48</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
         <v>3.2</v>
@@ -3805,7 +3805,7 @@
         <v>1.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R25" t="n">
         <v>1.28</v>
@@ -3814,16 +3814,16 @@
         <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
@@ -3832,10 +3832,10 @@
         <v>10.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
@@ -3844,10 +3844,10 @@
         <v>7.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="n">
         <v>18.5</v>
@@ -3859,7 +3859,7 @@
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
         <v>200</v>
@@ -3874,16 +3874,16 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="H26" t="n">
-        <v>1.88</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.68</v>
+        <v>2.32</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>2.72</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.29</v>
+        <v>1.93</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>480</v>
+      </c>
+      <c r="AF26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>36</v>
-      </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN26" t="n">
         <v>46</v>
       </c>
-      <c r="AL26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>38</v>
-      </c>
       <c r="AO26" t="n">
-        <v>9.800000000000001</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Go Ahead Eagles</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T27" t="n">
         <v>2.16</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U27" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="W27" t="n">
-        <v>1.84</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG27" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
         <v>65</v>
       </c>
-      <c r="AB27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>42</v>
-      </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AL27" t="n">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>13.5</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Carpi</t>
+          <t>Catania</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.97</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>2.12</v>
+        <v>1.43</v>
       </c>
       <c r="H28" t="n">
+        <v>11</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
         <v>4.3</v>
       </c>
-      <c r="I28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="W28" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AA28" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AE28" t="n">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AF28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="AI28" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL28" t="n">
         <v>500</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
-      </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>790</v>
       </c>
       <c r="AN28" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>2.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="I29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.05</v>
       </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="T29" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.46</v>
+        <v>1.87</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB29" t="n">
         <v>11</v>
       </c>
-      <c r="Z29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AK29" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Catania</t>
+          <t>Carpi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.41</v>
+        <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="X30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y30" t="n">
         <v>13.5</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X30" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>29</v>
-      </c>
       <c r="Z30" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
-        <v>310</v>
+        <v>480</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AK30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL30" t="n">
         <v>65</v>
       </c>
-      <c r="AL30" t="n">
-        <v>500</v>
-      </c>
       <c r="AM30" t="n">
-        <v>390</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>SC Telstar</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="G31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
         <v>4.2</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.66</v>
+        <v>5.3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="S31" t="n">
-        <v>5.4</v>
+        <v>2.72</v>
       </c>
       <c r="T31" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="n">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="V31" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
         <v>13.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF31" t="n">
         <v>34</v>
       </c>
-      <c r="AB31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>27</v>
-      </c>
       <c r="AG31" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AI31" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AK31" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="n">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="n">
-        <v>580</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AO31" t="n">
-        <v>34</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="32">
@@ -4708,118 +4708,118 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.94</v>
+        <v>2.76</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>2.68</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>3.05</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
         <v>11</v>
       </c>
-      <c r="Y32" t="n">
-        <v>23</v>
-      </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA32" t="n">
         <v>900</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>17.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN32" t="n">
         <v>44</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>46</v>
       </c>
       <c r="AO32" t="n">
         <v>600</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.4</v>
+        <v>2.8</v>
       </c>
       <c r="G33" t="n">
-        <v>9.4</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>1.47</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R33" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="T33" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>2.88</v>
+        <v>1.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.13</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH33" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AI33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM33" t="n">
         <v>75</v>
       </c>
-      <c r="AG33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>300</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>150</v>
-      </c>
       <c r="AN33" t="n">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>7.6</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2.84</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
-        <v>3.05</v>
+        <v>1.56</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="K34" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="P34" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.48</v>
+        <v>2.78</v>
       </c>
       <c r="W34" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK34" t="n">
         <v>120</v>
       </c>
-      <c r="AB34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>40</v>
-      </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AM34" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AO34" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,19 +5122,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H35" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I35" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
         <v>3.65</v>
@@ -5143,16 +5143,16 @@
         <v>1.41</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
         <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q35" t="n">
         <v>1.94</v>
@@ -5164,16 +5164,16 @@
         <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U35" t="n">
         <v>2.22</v>
       </c>
       <c r="V35" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W35" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X35" t="n">
         <v>14.5</v>
@@ -5185,7 +5185,7 @@
         <v>13.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB35" t="n">
         <v>15.5</v>
@@ -5194,28 +5194,28 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE35" t="n">
         <v>22</v>
       </c>
       <c r="AF35" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG35" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI35" t="n">
         <v>36</v>
       </c>
       <c r="AJ35" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
@@ -5224,10 +5224,10 @@
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO35" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="36">
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H36" t="n">
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="U36" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V36" t="n">
         <v>1.17</v>
       </c>
       <c r="W36" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AA36" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG36" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AH36" t="n">
         <v>24</v>
       </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>22</v>
-      </c>
       <c r="AI36" t="n">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="AJ36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM36" t="n">
         <v>150</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>580</v>
       </c>
       <c r="AN36" t="n">
         <v>10.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5392,46 +5392,46 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="G37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>1.34</v>
       </c>
       <c r="I37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="J37" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.02</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="P37" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5440,10 +5440,10 @@
         <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5491,10 +5491,10 @@
         <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5545,55 +5545,55 @@
         <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S38" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.81</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.8</v>
       </c>
       <c r="W38" t="n">
         <v>1.35</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA38" t="n">
         <v>27</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
         <v>7.6</v>
@@ -5602,37 +5602,37 @@
         <v>10.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
         <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="n">
         <v>44</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
         <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO38" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G39" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H39" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I39" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J39" t="n">
         <v>3.85</v>
@@ -5686,13 +5686,13 @@
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
         <v>1.89</v>
@@ -5704,58 +5704,58 @@
         <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U39" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V39" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="X39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y39" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>17</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB39" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF39" t="n">
         <v>12</v>
       </c>
       <c r="AG39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ39" t="n">
         <v>22</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="n">
         <v>34</v>
@@ -5764,7 +5764,7 @@
         <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO39" t="n">
         <v>55</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K40" t="n">
         <v>4.4</v>
@@ -5818,19 +5818,19 @@
         <v>1.43</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
         <v>3.25</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R40" t="n">
         <v>1.29</v>
@@ -5932,64 +5932,64 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="G41" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L41" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M41" t="n">
         <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V41" t="n">
         <v>1.32</v>
       </c>
-      <c r="P41" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="X41" t="n">
         <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
         <v>980</v>
@@ -6001,7 +6001,7 @@
         <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD41" t="n">
         <v>980</v>
@@ -6025,16 +6025,16 @@
         <v>50</v>
       </c>
       <c r="AK41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL41" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AM41" t="n">
         <v>580</v>
       </c>
       <c r="AN41" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO41" t="n">
         <v>600</v>
@@ -6076,19 +6076,19 @@
         <v>1.28</v>
       </c>
       <c r="I42" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K42" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N42" t="n">
         <v>3.85</v>
@@ -6097,13 +6097,13 @@
         <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q42" t="n">
         <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S42" t="n">
         <v>3.35</v>
@@ -6115,37 +6115,37 @@
         <v>1.56</v>
       </c>
       <c r="V42" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="W42" t="n">
         <v>1.06</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Z42" t="n">
         <v>6.6</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AC42" t="n">
         <v>34</v>
       </c>
       <c r="AD42" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AG42" t="n">
         <v>170</v>
@@ -6166,13 +6166,13 @@
         <v>330</v>
       </c>
       <c r="AM42" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="43">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G43" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K43" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
@@ -6229,7 +6229,7 @@
         <v>3.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P43" t="n">
         <v>1.84</v>
@@ -6238,31 +6238,31 @@
         <v>2.16</v>
       </c>
       <c r="R43" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S43" t="n">
         <v>3.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V43" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
         <v>13</v>
       </c>
       <c r="Z43" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA43" t="n">
         <v>75</v>
@@ -6304,7 +6304,7 @@
         <v>110</v>
       </c>
       <c r="AN43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO43" t="n">
         <v>55</v>
@@ -6337,10 +6337,10 @@
         </is>
       </c>
       <c r="F44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G44" t="n">
         <v>3.35</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.4</v>
       </c>
       <c r="H44" t="n">
         <v>2.42</v>
@@ -6349,28 +6349,28 @@
         <v>2.46</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L44" t="n">
         <v>1.46</v>
       </c>
       <c r="M44" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
         <v>1.32</v>
@@ -6379,25 +6379,25 @@
         <v>3.9</v>
       </c>
       <c r="T44" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V44" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W44" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X44" t="n">
         <v>12.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA44" t="n">
         <v>34</v>
@@ -6409,13 +6409,13 @@
         <v>7.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF44" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG44" t="n">
         <v>14</v>
@@ -6427,7 +6427,7 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="n">
         <v>40</v>
@@ -6436,7 +6436,7 @@
         <v>55</v>
       </c>
       <c r="AM44" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN44" t="n">
         <v>40</v>
@@ -6481,103 +6481,103 @@
         <v>2.44</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="J45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P45" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R45" t="n">
         <v>1.38</v>
       </c>
       <c r="S45" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T45" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V45" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W45" t="n">
         <v>1.44</v>
       </c>
       <c r="X45" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y45" t="n">
         <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA45" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB45" t="n">
         <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG45" t="n">
         <v>13.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI45" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL45" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM45" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN45" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AO45" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H46" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="I46" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.51</v>
@@ -6631,67 +6631,67 @@
         <v>1.1</v>
       </c>
       <c r="N46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
         <v>1.43</v>
       </c>
       <c r="P46" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q46" t="n">
         <v>2.3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S46" t="n">
         <v>4.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V46" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="W46" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="n">
         <v>11</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>7</v>
       </c>
       <c r="AD46" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI46" t="n">
         <v>55</v>
@@ -6700,16 +6700,16 @@
         <v>60</v>
       </c>
       <c r="AK46" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM46" t="n">
         <v>130</v>
       </c>
       <c r="AN46" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AO46" t="n">
         <v>36</v>
@@ -6742,61 +6742,61 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G47" t="n">
         <v>2.96</v>
       </c>
       <c r="H47" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I47" t="n">
         <v>3</v>
       </c>
-      <c r="I47" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J47" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K47" t="n">
         <v>3.1</v>
       </c>
       <c r="L47" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M47" t="n">
         <v>1.14</v>
       </c>
       <c r="N47" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="O47" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="P47" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="R47" t="n">
         <v>1.18</v>
       </c>
       <c r="S47" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="T47" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V47" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
         <v>1.51</v>
       </c>
       <c r="X47" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y47" t="n">
         <v>8.4</v>
@@ -6808,46 +6808,46 @@
         <v>55</v>
       </c>
       <c r="AB47" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC47" t="n">
         <v>6.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE47" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG47" t="n">
         <v>14</v>
       </c>
       <c r="AH47" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="n">
         <v>55</v>
       </c>
       <c r="AK47" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL47" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM47" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO47" t="n">
         <v>60</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -6880,61 +6880,61 @@
         <v>3.2</v>
       </c>
       <c r="G48" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H48" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I48" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P48" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R48" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="S48" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U48" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W48" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X48" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z48" t="n">
         <v>16</v>
@@ -6943,13 +6943,13 @@
         <v>36</v>
       </c>
       <c r="AB48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD48" t="n">
         <v>12</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>12.5</v>
       </c>
       <c r="AE48" t="n">
         <v>30</v>
@@ -6958,19 +6958,19 @@
         <v>24</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI48" t="n">
         <v>120</v>
       </c>
       <c r="AJ48" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AK48" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL48" t="n">
         <v>150</v>
@@ -6979,10 +6979,10 @@
         <v>580</v>
       </c>
       <c r="AN48" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G49" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H49" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J49" t="n">
         <v>3.95</v>
@@ -7030,19 +7030,19 @@
         <v>4.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P49" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q49" t="n">
         <v>1.7</v>
@@ -7057,7 +7057,7 @@
         <v>1.68</v>
       </c>
       <c r="U49" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V49" t="n">
         <v>1.25</v>
@@ -7081,7 +7081,7 @@
         <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD49" t="n">
         <v>18</v>
@@ -7093,7 +7093,7 @@
         <v>12.5</v>
       </c>
       <c r="AG49" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH49" t="n">
         <v>16.5</v>
@@ -7114,7 +7114,7 @@
         <v>75</v>
       </c>
       <c r="AN49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO49" t="n">
         <v>46</v>
@@ -7147,112 +7147,112 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G50" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H50" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T50" t="n">
         <v>2.08</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2</v>
-      </c>
       <c r="U50" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V50" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W50" t="n">
         <v>1.27</v>
       </c>
       <c r="X50" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y50" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z50" t="n">
         <v>11.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD50" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF50" t="n">
         <v>32</v>
       </c>
       <c r="AG50" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI50" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ50" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM50" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AO50" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G51" t="n">
         <v>1.3</v>
@@ -7303,7 +7303,7 @@
         <v>1.35</v>
       </c>
       <c r="M51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
         <v>4.3</v>
@@ -7324,7 +7324,7 @@
         <v>2.88</v>
       </c>
       <c r="T51" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U51" t="n">
         <v>1.61</v>
@@ -7351,7 +7351,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC51" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD51" t="n">
         <v>200</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="G52" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K52" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="P52" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="Q52" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T52" t="n">
         <v>2.04</v>
       </c>
-      <c r="R52" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.06</v>
-      </c>
       <c r="U52" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="V52" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W52" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="X52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AA52" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE52" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF52" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG52" t="n">
         <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI52" t="n">
-        <v>140</v>
+        <v>290</v>
       </c>
       <c r="AJ52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL52" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM52" t="n">
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO52" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
@@ -7552,40 +7552,40 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G53" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I53" t="n">
         <v>1.88</v>
       </c>
-      <c r="I53" t="n">
-        <v>1.9</v>
-      </c>
       <c r="J53" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O53" t="n">
         <v>1.27</v>
       </c>
       <c r="P53" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R53" t="n">
         <v>1.44</v>
@@ -7597,16 +7597,16 @@
         <v>1.76</v>
       </c>
       <c r="U53" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V53" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="W53" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X53" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y53" t="n">
         <v>9.800000000000001</v>
@@ -7621,7 +7621,7 @@
         <v>18.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD53" t="n">
         <v>9.800000000000001</v>
@@ -7630,7 +7630,7 @@
         <v>18</v>
       </c>
       <c r="AF53" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG53" t="n">
         <v>18</v>
@@ -7642,22 +7642,22 @@
         <v>30</v>
       </c>
       <c r="AJ53" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL53" t="n">
         <v>60</v>
       </c>
-      <c r="AL53" t="n">
+      <c r="AM53" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN53" t="n">
         <v>55</v>
       </c>
-      <c r="AM53" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>60</v>
-      </c>
       <c r="AO53" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,25 +7687,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G54" t="n">
         <v>2.76</v>
       </c>
       <c r="H54" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I54" t="n">
         <v>3.75</v>
       </c>
       <c r="J54" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L54" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M54" t="n">
         <v>1.14</v>
@@ -7717,16 +7717,16 @@
         <v>1.6</v>
       </c>
       <c r="P54" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q54" t="n">
         <v>2.84</v>
       </c>
       <c r="R54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S54" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="T54" t="n">
         <v>2.16</v>
@@ -7828,16 +7828,16 @@
         <v>1.14</v>
       </c>
       <c r="H55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J55" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="K55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.15</v>
@@ -7852,19 +7852,19 @@
         <v>1.07</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Q55" t="n">
         <v>1.22</v>
       </c>
       <c r="R55" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="S55" t="n">
         <v>1.6</v>
       </c>
       <c r="T55" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U55" t="n">
         <v>2.04</v>
@@ -7873,7 +7873,7 @@
         <v>1.04</v>
       </c>
       <c r="W55" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="X55" t="n">
         <v>80</v>
@@ -7882,7 +7882,7 @@
         <v>120</v>
       </c>
       <c r="Z55" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AA55" t="n">
         <v>1000</v>
@@ -7891,43 +7891,43 @@
         <v>22</v>
       </c>
       <c r="AC55" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD55" t="n">
         <v>85</v>
       </c>
       <c r="AE55" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AF55" t="n">
         <v>13</v>
       </c>
       <c r="AG55" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH55" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="n">
         <v>190</v>
       </c>
       <c r="AJ55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL55" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM55" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AO55" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56">
@@ -7960,7 +7960,7 @@
         <v>4.1</v>
       </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H56" t="n">
         <v>2.02</v>
@@ -7972,13 +7972,13 @@
         <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
         <v>1.49</v>
       </c>
       <c r="M56" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N56" t="n">
         <v>3.1</v>
@@ -7987,10 +7987,10 @@
         <v>1.41</v>
       </c>
       <c r="P56" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R56" t="n">
         <v>1.25</v>
@@ -8011,37 +8011,37 @@
         <v>1.26</v>
       </c>
       <c r="X56" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y56" t="n">
         <v>8</v>
       </c>
       <c r="Z56" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AA56" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB56" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AC56" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD56" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="n">
         <v>500</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>980</v>
       </c>
       <c r="AI56" t="n">
         <v>980</v>
@@ -8098,7 +8098,7 @@
         <v>1.73</v>
       </c>
       <c r="H57" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I57" t="n">
         <v>7.6</v>
@@ -8107,25 +8107,25 @@
         <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L57" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M57" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="n">
         <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R57" t="n">
         <v>1.25</v>
@@ -8134,10 +8134,10 @@
         <v>4.2</v>
       </c>
       <c r="T57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U57" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V57" t="n">
         <v>1.15</v>
@@ -8149,19 +8149,19 @@
         <v>12.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z57" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="AA57" t="n">
         <v>900</v>
       </c>
       <c r="AB57" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
         <v>65</v>
@@ -8170,7 +8170,7 @@
         <v>480</v>
       </c>
       <c r="AF57" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
@@ -8188,7 +8188,7 @@
         <v>22</v>
       </c>
       <c r="AL57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
         <v>580</v>
@@ -8197,7 +8197,7 @@
         <v>14.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58">
@@ -8227,40 +8227,40 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>2.52</v>
       </c>
       <c r="I58" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J58" t="n">
+        <v>3</v>
+      </c>
+      <c r="K58" t="n">
         <v>3.05</v>
       </c>
-      <c r="K58" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M58" t="n">
         <v>1.15</v>
       </c>
       <c r="N58" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="O58" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P58" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="R58" t="n">
         <v>1.17</v>
@@ -8272,13 +8272,13 @@
         <v>2.3</v>
       </c>
       <c r="U58" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V58" t="n">
         <v>1.64</v>
       </c>
       <c r="W58" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X58" t="n">
         <v>7.6</v>
@@ -8287,13 +8287,13 @@
         <v>7</v>
       </c>
       <c r="Z58" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC58" t="n">
         <v>6.8</v>
@@ -8314,7 +8314,7 @@
         <v>26</v>
       </c>
       <c r="AI58" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ58" t="n">
         <v>75</v>
@@ -8332,7 +8332,7 @@
         <v>90</v>
       </c>
       <c r="AO58" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59">
@@ -8365,13 +8365,13 @@
         <v>5.1</v>
       </c>
       <c r="G59" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="I59" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J59" t="n">
         <v>3.45</v>
@@ -8395,7 +8395,7 @@
         <v>1.69</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R59" t="n">
         <v>1.25</v>
@@ -8407,13 +8407,13 @@
         <v>2.04</v>
       </c>
       <c r="U59" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V59" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W59" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X59" t="n">
         <v>11.5</v>
@@ -8449,7 +8449,7 @@
         <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ59" t="n">
         <v>170</v>
@@ -8464,10 +8464,10 @@
         <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AO59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="G60" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H60" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I60" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J60" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K60" t="n">
         <v>3.7</v>
@@ -8521,25 +8521,25 @@
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O60" t="n">
         <v>1.31</v>
       </c>
       <c r="P60" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R60" t="n">
         <v>1.37</v>
       </c>
       <c r="S60" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T60" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U60" t="n">
         <v>2.22</v>
@@ -8548,61 +8548,61 @@
         <v>1.55</v>
       </c>
       <c r="W60" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X60" t="n">
         <v>17</v>
       </c>
       <c r="Y60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA60" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="n">
         <v>50</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>55</v>
       </c>
       <c r="AM60" t="n">
         <v>120</v>
       </c>
       <c r="AN60" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AO60" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -8644,10 +8644,10 @@
         <v>7.6</v>
       </c>
       <c r="J61" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L61" t="n">
         <v>1.42</v>
@@ -8656,16 +8656,16 @@
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
       </c>
       <c r="P61" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R61" t="n">
         <v>1.34</v>
@@ -8686,31 +8686,31 @@
         <v>2.68</v>
       </c>
       <c r="X61" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y61" t="n">
         <v>21</v>
       </c>
       <c r="Z61" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA61" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="AB61" t="n">
         <v>7.2</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD61" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE61" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AF61" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG61" t="n">
         <v>10.5</v>
@@ -8722,22 +8722,22 @@
         <v>130</v>
       </c>
       <c r="AJ61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK61" t="n">
         <v>18</v>
       </c>
       <c r="AL61" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AM61" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN61" t="n">
         <v>10</v>
       </c>
       <c r="AO61" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62">
@@ -8773,19 +8773,19 @@
         <v>2.18</v>
       </c>
       <c r="H62" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I62" t="n">
         <v>4.3</v>
       </c>
-      <c r="I62" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J62" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L62" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M62" t="n">
         <v>1.1</v>
@@ -8794,34 +8794,34 @@
         <v>3.25</v>
       </c>
       <c r="O62" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P62" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S62" t="n">
         <v>4.3</v>
       </c>
       <c r="T62" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U62" t="n">
         <v>1.96</v>
       </c>
-      <c r="U62" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V62" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W62" t="n">
         <v>1.84</v>
       </c>
       <c r="X62" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y62" t="n">
         <v>13</v>
@@ -8833,7 +8833,7 @@
         <v>95</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC62" t="n">
         <v>7.4</v>
@@ -8845,7 +8845,7 @@
         <v>60</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG62" t="n">
         <v>11</v>
@@ -8863,13 +8863,13 @@
         <v>26</v>
       </c>
       <c r="AL62" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM62" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AN62" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO62" t="n">
         <v>75</v>
@@ -8902,22 +8902,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G63" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I63" t="n">
         <v>2.5</v>
       </c>
-      <c r="I63" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J63" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L63" t="n">
         <v>1.48</v>
@@ -8929,7 +8929,7 @@
         <v>3.3</v>
       </c>
       <c r="O63" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P63" t="n">
         <v>1.77</v>
@@ -8941,73 +8941,73 @@
         <v>1.29</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T63" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U63" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V63" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W63" t="n">
         <v>1.4</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA63" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC63" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD63" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AF63" t="n">
         <v>980</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AI63" t="n">
         <v>970</v>
       </c>
       <c r="AJ63" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK63" t="n">
         <v>980</v>
       </c>
       <c r="AL63" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM63" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AN63" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO63" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G64" t="n">
         <v>1.19</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>22</v>
       </c>
       <c r="I64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K64" t="n">
         <v>8.800000000000001</v>
@@ -9061,34 +9061,34 @@
         <v>1.03</v>
       </c>
       <c r="N64" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O64" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P64" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R64" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S64" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T64" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="U64" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V64" t="n">
         <v>1.04</v>
       </c>
       <c r="W64" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X64" t="n">
         <v>28</v>
@@ -9097,46 +9097,46 @@
         <v>60</v>
       </c>
       <c r="Z64" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD64" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AE64" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AF64" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI64" t="n">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="AJ64" t="n">
         <v>8.4</v>
       </c>
       <c r="AK64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM64" t="n">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="AN64" t="n">
         <v>4.2</v>
@@ -9172,10 +9172,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G65" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>3.1</v>
@@ -9187,43 +9187,43 @@
         <v>3.05</v>
       </c>
       <c r="K65" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M65" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N65" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O65" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P65" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R65" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T65" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="U65" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V65" t="n">
         <v>1.41</v>
       </c>
       <c r="W65" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="X65" t="n">
         <v>21</v>
@@ -9241,7 +9241,7 @@
         <v>19</v>
       </c>
       <c r="AC65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD65" t="n">
         <v>1000</v>
@@ -9262,7 +9262,7 @@
         <v>500</v>
       </c>
       <c r="AJ65" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AK65" t="n">
         <v>980</v>
@@ -9307,25 +9307,25 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G66" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H66" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I66" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J66" t="n">
         <v>3.6</v>
       </c>
       <c r="K66" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L66" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="M66" t="n">
         <v>1.1</v>
@@ -9334,10 +9334,10 @@
         <v>3.25</v>
       </c>
       <c r="O66" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P66" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q66" t="n">
         <v>2.28</v>
@@ -9346,22 +9346,22 @@
         <v>1.28</v>
       </c>
       <c r="S66" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T66" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U66" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V66" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y66" t="n">
         <v>15</v>
@@ -9373,31 +9373,31 @@
         <v>160</v>
       </c>
       <c r="AB66" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC66" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE66" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF66" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG66" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI66" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK66" t="n">
         <v>21</v>
@@ -9406,13 +9406,13 @@
         <v>46</v>
       </c>
       <c r="AM66" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO66" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -9442,22 +9442,22 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G67" t="n">
         <v>3.4</v>
       </c>
       <c r="H67" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I67" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J67" t="n">
         <v>3.5</v>
       </c>
       <c r="K67" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L67" t="n">
         <v>1.43</v>
@@ -9490,43 +9490,43 @@
         <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W67" t="n">
         <v>1.41</v>
       </c>
       <c r="X67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y67" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA67" t="n">
         <v>60</v>
       </c>
       <c r="AB67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC67" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD67" t="n">
         <v>11.5</v>
       </c>
       <c r="AE67" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF67" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG67" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI67" t="n">
         <v>70</v>
@@ -9535,19 +9535,19 @@
         <v>65</v>
       </c>
       <c r="AK67" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL67" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN67" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO67" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,531 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Panathinaikos</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="H2" t="n">
-        <v>360</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>140</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>3.4</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>1.37</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.7</v>
+        <v>65</v>
       </c>
       <c r="AK2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO2" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ASD Pineto Calcio</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>FC Guidonia Montecelio 1937</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>44</v>
-      </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tigres</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.55</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-11.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.25</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>1.24</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>1.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>5.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>1.72</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>590</v>
       </c>
       <c r="AF2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>590</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
